--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -12984,7 +12984,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3678496</v>
+        <v>3678493</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12996,13 +12996,13 @@
         <v>44416.5</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13011,43 +13011,43 @@
         <v>45</v>
       </c>
       <c r="K141">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>1.1</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P141">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.1000000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13056,16 +13056,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13073,7 +13073,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3678493</v>
+        <v>3678496</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13085,13 +13085,13 @@
         <v>44416.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13100,43 +13100,43 @@
         <v>45</v>
       </c>
       <c r="K142">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="N142">
-        <v>1.615</v>
+        <v>1.1</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.615</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13145,16 +13145,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14675,7 +14675,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3678512</v>
+        <v>3678514</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14687,76 +14687,76 @@
         <v>44437.5</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K160">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N160">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X160">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14764,7 +14764,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3678514</v>
+        <v>3678512</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14776,76 +14776,76 @@
         <v>44437.5</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N161">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q161">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>3</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0.4625</v>
+      </c>
+      <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.825</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
-      </c>
-      <c r="AC161">
-        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -16188,7 +16188,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3678527</v>
+        <v>3678529</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16200,73 +16200,73 @@
         <v>44465.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>3</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K177">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N177">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P177">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16277,7 +16277,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3678529</v>
+        <v>3678527</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,73 +16289,73 @@
         <v>44465.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N178">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17256,7 +17256,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3678544</v>
+        <v>3678540</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17268,76 +17268,76 @@
         <v>44486.39583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
         <v>3.9</v>
       </c>
       <c r="P189">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>2.9</v>
       </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17345,7 +17345,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3678540</v>
+        <v>3678544</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,76 +17357,76 @@
         <v>44486.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L190">
         <v>3.5</v>
       </c>
       <c r="M190">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O190">
         <v>3.9</v>
       </c>
       <c r="P190">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>1.925</v>
+      </c>
+      <c r="V190">
+        <v>1.925</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>2.9</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>-0.5</v>
       </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.825</v>
-      </c>
-      <c r="V190">
-        <v>2.025</v>
-      </c>
-      <c r="W190">
-        <v>-1</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>2.9</v>
-      </c>
-      <c r="Z190">
-        <v>-1</v>
-      </c>
       <c r="AA190">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -20727,7 +20727,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3678586</v>
+        <v>3678584</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20739,73 +20739,73 @@
         <v>44541.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K228">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N228">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O228">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20816,7 +20816,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3678584</v>
+        <v>3678581</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20828,73 +20828,73 @@
         <v>44541.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>1.95</v>
+        <v>1.142</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M229">
-        <v>3.8</v>
+        <v>21</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U229">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
         <v>1</v>
       </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>1.025</v>
-      </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20905,7 +20905,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3678581</v>
+        <v>3678586</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20917,73 +20917,73 @@
         <v>44541.54166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K230">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="L230">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>21</v>
+        <v>2.375</v>
       </c>
       <c r="N230">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="O230">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q230">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3678595</v>
+        <v>3678593</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>44611.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>3</v>
-      </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K240">
+        <v>1.95</v>
+      </c>
+      <c r="L240">
+        <v>3.75</v>
+      </c>
+      <c r="M240">
+        <v>3.5</v>
+      </c>
+      <c r="N240">
+        <v>1.666</v>
+      </c>
+      <c r="O240">
         <v>4</v>
       </c>
-      <c r="L240">
-        <v>3.6</v>
-      </c>
-      <c r="M240">
+      <c r="P240">
+        <v>5</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
         <v>1.85</v>
       </c>
-      <c r="N240">
-        <v>3.75</v>
-      </c>
-      <c r="O240">
-        <v>3.6</v>
-      </c>
-      <c r="P240">
-        <v>2</v>
-      </c>
-      <c r="Q240">
-        <v>0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.875</v>
-      </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA240">
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
         <v>1</v>
-      </c>
-      <c r="Z240">
-        <v>-1</v>
-      </c>
-      <c r="AA240">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB240">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC240">
-        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21884,7 +21884,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>3678593</v>
+        <v>3678595</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21896,76 +21896,76 @@
         <v>44611.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="L241">
+        <v>3.6</v>
+      </c>
+      <c r="M241">
+        <v>1.85</v>
+      </c>
+      <c r="N241">
         <v>3.75</v>
       </c>
-      <c r="M241">
-        <v>3.5</v>
-      </c>
-      <c r="N241">
-        <v>1.666</v>
-      </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22863,7 +22863,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>3678610</v>
+        <v>3678606</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22875,46 +22875,46 @@
         <v>44626.54166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
       <c r="J252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L252">
         <v>3.5</v>
       </c>
       <c r="M252">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P252">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T252">
         <v>2.75</v>
@@ -22926,19 +22926,19 @@
         <v>2.05</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
         <v>-1</v>
@@ -22952,7 +22952,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>3678606</v>
+        <v>3678608</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22964,13 +22964,13 @@
         <v>44626.54166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -22979,43 +22979,43 @@
         <v>45</v>
       </c>
       <c r="K253">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M253">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N253">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O253">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q253">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W253">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23024,16 +23024,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC253">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23041,7 +23041,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>3678607</v>
+        <v>3678605</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23053,73 +23053,73 @@
         <v>44626.54166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K254">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L254">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N254">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O254">
         <v>3.3</v>
       </c>
       <c r="P254">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R254">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S254">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z254">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB254">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23130,7 +23130,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>3678608</v>
+        <v>3678610</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23142,76 +23142,76 @@
         <v>44626.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K255">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L255">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M255">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N255">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O255">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W255">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z255">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB255">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23219,7 +23219,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>3678605</v>
+        <v>3678607</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23231,73 +23231,73 @@
         <v>44626.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G256" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K256">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="L256">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N256">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O256">
         <v>3.3</v>
       </c>
       <c r="P256">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y256">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA256">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB256">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -24020,7 +24020,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>4763427</v>
+        <v>4763476</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24032,76 +24032,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F265" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K265">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L265">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N265">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O265">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P265">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X265">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC265">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24109,7 +24109,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>4763476</v>
+        <v>4763475</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24121,73 +24121,73 @@
         <v>44640.4375</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266">
+        <v>4</v>
+      </c>
+      <c r="J266" t="s">
+        <v>46</v>
+      </c>
+      <c r="K266">
+        <v>4.75</v>
+      </c>
+      <c r="L266">
+        <v>3.8</v>
+      </c>
+      <c r="M266">
+        <v>1.7</v>
+      </c>
+      <c r="N266">
+        <v>5.25</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>1.6</v>
+      </c>
+      <c r="Q266">
         <v>1</v>
       </c>
-      <c r="J266" t="s">
-        <v>45</v>
-      </c>
-      <c r="K266">
-        <v>1.7</v>
-      </c>
-      <c r="L266">
-        <v>4</v>
-      </c>
-      <c r="M266">
-        <v>4.5</v>
-      </c>
-      <c r="N266">
-        <v>1.333</v>
-      </c>
-      <c r="O266">
-        <v>5.5</v>
-      </c>
-      <c r="P266">
-        <v>8</v>
-      </c>
-      <c r="Q266">
-        <v>-1.5</v>
-      </c>
       <c r="R266">
+        <v>1.825</v>
+      </c>
+      <c r="S266">
+        <v>2.025</v>
+      </c>
+      <c r="T266">
+        <v>2.75</v>
+      </c>
+      <c r="U266">
+        <v>1.9</v>
+      </c>
+      <c r="V266">
         <v>1.95</v>
       </c>
-      <c r="S266">
-        <v>1.9</v>
-      </c>
-      <c r="T266">
-        <v>3</v>
-      </c>
-      <c r="U266">
-        <v>1.975</v>
-      </c>
-      <c r="V266">
-        <v>1.875</v>
-      </c>
       <c r="W266">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB266">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC266">
         <v>-1</v>
@@ -24198,7 +24198,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>4763475</v>
+        <v>4763427</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24210,34 +24210,34 @@
         <v>44640.4375</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K267">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L267">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N267">
         <v>5.25</v>
       </c>
       <c r="O267">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P267">
         <v>1.6</v>
@@ -24255,31 +24255,31 @@
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y267">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA267">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24643,7 +24643,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>4763481</v>
+        <v>4763480</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24655,76 +24655,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F272" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K272">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L272">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N272">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O272">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P272">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q272">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
         <v>1.8</v>
       </c>
-      <c r="S272">
-        <v>2.05</v>
-      </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V272">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y272">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
         <v>-1</v>
       </c>
       <c r="AC272">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24732,7 +24732,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>4763480</v>
+        <v>4763481</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24744,76 +24744,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G273" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K273">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N273">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O273">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q273">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R273">
+        <v>1.8</v>
+      </c>
+      <c r="S273">
         <v>2.05</v>
       </c>
-      <c r="S273">
-        <v>1.8</v>
-      </c>
       <c r="T273">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -26512,7 +26512,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4763432</v>
+        <v>4763511</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26524,10 +26524,10 @@
         <v>44677.5625</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H293">
         <v>4</v>
@@ -26539,43 +26539,43 @@
         <v>45</v>
       </c>
       <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>3.25</v>
+      </c>
+      <c r="M293">
+        <v>3.4</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293">
+        <v>3.4</v>
+      </c>
+      <c r="P293">
         <v>4</v>
       </c>
-      <c r="L293">
-        <v>3.6</v>
-      </c>
-      <c r="M293">
-        <v>1.75</v>
-      </c>
-      <c r="N293">
-        <v>4</v>
-      </c>
-      <c r="O293">
-        <v>4</v>
-      </c>
-      <c r="P293">
-        <v>1.833</v>
-      </c>
       <c r="Q293">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26584,13 +26584,13 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA293">
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26601,7 +26601,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4763511</v>
+        <v>4763432</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26613,10 +26613,10 @@
         <v>44677.5625</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H294">
         <v>4</v>
@@ -26628,58 +26628,58 @@
         <v>45</v>
       </c>
       <c r="K294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L294">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V294">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W294">
+        <v>3</v>
+      </c>
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
+        <v>-1</v>
+      </c>
+      <c r="Z294">
         <v>1</v>
       </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
-      <c r="Y294">
-        <v>-1</v>
-      </c>
-      <c r="Z294">
-        <v>1.025</v>
-      </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -28381,7 +28381,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>4763507</v>
+        <v>4763509</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28393,49 +28393,49 @@
         <v>44702.5</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G314" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K314">
-        <v>1.071</v>
+        <v>1.85</v>
       </c>
       <c r="L314">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>23</v>
+        <v>3.75</v>
       </c>
       <c r="N314">
-        <v>1.09</v>
+        <v>1.909</v>
       </c>
       <c r="O314">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>21</v>
+        <v>3.6</v>
       </c>
       <c r="Q314">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S314">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T314">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
         <v>1.925</v>
@@ -28444,25 +28444,25 @@
         <v>1.925</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X314">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA314">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC314">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28470,7 +28470,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>4763509</v>
+        <v>4763507</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28482,49 +28482,49 @@
         <v>44702.5</v>
       </c>
       <c r="F315" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K315">
-        <v>1.85</v>
+        <v>1.071</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M315">
-        <v>3.75</v>
+        <v>23</v>
       </c>
       <c r="N315">
-        <v>1.909</v>
+        <v>1.09</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S315">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="U315">
         <v>1.925</v>
@@ -28533,25 +28533,25 @@
         <v>1.925</v>
       </c>
       <c r="W315">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
         <v>0.925</v>
-      </c>
-      <c r="AC315">
-        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -31229,7 +31229,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5205910</v>
+        <v>5205909</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31241,10 +31241,10 @@
         <v>44794.5</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31256,40 +31256,40 @@
         <v>46</v>
       </c>
       <c r="K346">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N346">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O346">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P346">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R346">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V346">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W346">
         <v>-1</v>
@@ -31298,16 +31298,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z346">
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AC346">
         <v>-0.5</v>
@@ -31318,7 +31318,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5205909</v>
+        <v>5205910</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31330,10 +31330,10 @@
         <v>44794.5</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G347" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31345,40 +31345,40 @@
         <v>46</v>
       </c>
       <c r="K347">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P347">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
         <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -31387,16 +31387,16 @@
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB347">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AC347">
         <v>-0.5</v>
@@ -34077,7 +34077,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5205936</v>
+        <v>5207174</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34089,76 +34089,76 @@
         <v>44842.5</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>45</v>
+      </c>
+      <c r="K378">
+        <v>1.85</v>
+      </c>
+      <c r="L378">
+        <v>3.8</v>
+      </c>
+      <c r="M378">
+        <v>3.6</v>
+      </c>
+      <c r="N378">
+        <v>1.7</v>
+      </c>
+      <c r="O378">
+        <v>4</v>
+      </c>
+      <c r="P378">
+        <v>4.333</v>
+      </c>
+      <c r="Q378">
+        <v>-0.75</v>
+      </c>
+      <c r="R378">
+        <v>1.875</v>
+      </c>
+      <c r="S378">
+        <v>1.975</v>
+      </c>
+      <c r="T378">
+        <v>3</v>
+      </c>
+      <c r="U378">
+        <v>1.875</v>
+      </c>
+      <c r="V378">
+        <v>1.975</v>
+      </c>
+      <c r="W378">
+        <v>0.7</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
+        <v>0.4375</v>
+      </c>
+      <c r="AA378">
+        <v>-0.5</v>
+      </c>
+      <c r="AB378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>3</v>
-      </c>
-      <c r="J378" t="s">
-        <v>46</v>
-      </c>
-      <c r="K378">
-        <v>1.45</v>
-      </c>
-      <c r="L378">
-        <v>4.5</v>
-      </c>
-      <c r="M378">
-        <v>5.75</v>
-      </c>
-      <c r="N378">
-        <v>1.333</v>
-      </c>
-      <c r="O378">
-        <v>5.5</v>
-      </c>
-      <c r="P378">
-        <v>8</v>
-      </c>
-      <c r="Q378">
-        <v>-1.5</v>
-      </c>
-      <c r="R378">
-        <v>1.925</v>
-      </c>
-      <c r="S378">
-        <v>1.925</v>
-      </c>
-      <c r="T378">
-        <v>3.25</v>
-      </c>
-      <c r="U378">
-        <v>2.025</v>
-      </c>
-      <c r="V378">
-        <v>1.825</v>
-      </c>
-      <c r="W378">
-        <v>-1</v>
-      </c>
-      <c r="X378">
-        <v>-1</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378">
-        <v>-1</v>
-      </c>
-      <c r="AA378">
-        <v>0.925</v>
-      </c>
-      <c r="AB378">
-        <v>-0.5</v>
-      </c>
       <c r="AC378">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34255,7 +34255,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>5207174</v>
+        <v>5205936</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34267,76 +34267,76 @@
         <v>44842.5</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G380" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K380">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="L380">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M380">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N380">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P380">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z380">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
+        <v>0.925</v>
+      </c>
+      <c r="AB380">
         <v>-0.5</v>
       </c>
-      <c r="AB380">
-        <v>0</v>
-      </c>
       <c r="AC380">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -36302,7 +36302,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>5207170</v>
+        <v>5205956</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36314,76 +36314,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F403" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G403" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H403">
         <v>1</v>
       </c>
       <c r="I403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J403" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K403">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L403">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M403">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N403">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O403">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P403">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q403">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R403">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S403">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T403">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U403">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V403">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W403">
         <v>-1</v>
       </c>
       <c r="X403">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z403">
+        <v>0.925</v>
+      </c>
+      <c r="AA403">
+        <v>-1</v>
+      </c>
+      <c r="AB403">
         <v>-0.5</v>
       </c>
-      <c r="AA403">
-        <v>0.4375</v>
-      </c>
-      <c r="AB403">
-        <v>-1</v>
-      </c>
       <c r="AC403">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36391,7 +36391,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>5205956</v>
+        <v>5207170</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36403,76 +36403,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F404" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G404" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H404">
         <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K404">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L404">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M404">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P404">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q404">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S404">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T404">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V404">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W404">
         <v>-1</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y404">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB404">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -37103,7 +37103,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5205962</v>
+        <v>5205963</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37115,10 +37115,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F412" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G412" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37130,25 +37130,25 @@
         <v>46</v>
       </c>
       <c r="K412">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M412">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N412">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O412">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P412">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q412">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R412">
         <v>1.875</v>
@@ -37157,13 +37157,13 @@
         <v>1.975</v>
       </c>
       <c r="T412">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U412">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V412">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W412">
         <v>-1</v>
@@ -37172,19 +37172,19 @@
         <v>-1</v>
       </c>
       <c r="Y412">
-        <v>2.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z412">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA412">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37192,7 +37192,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5205963</v>
+        <v>5205962</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37204,10 +37204,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G413" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H413">
         <v>0</v>
@@ -37219,25 +37219,25 @@
         <v>46</v>
       </c>
       <c r="K413">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L413">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M413">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N413">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O413">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P413">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q413">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
         <v>1.875</v>
@@ -37246,13 +37246,13 @@
         <v>1.975</v>
       </c>
       <c r="T413">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U413">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V413">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W413">
         <v>-1</v>
@@ -37261,19 +37261,19 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>0.3999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z413">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F424" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G424" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K424">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L424">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M424">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N424">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O424">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P424">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q424">
+        <v>1.25</v>
+      </c>
+      <c r="R424">
+        <v>1.8</v>
+      </c>
+      <c r="S424">
+        <v>2.05</v>
+      </c>
+      <c r="T424">
+        <v>3</v>
+      </c>
+      <c r="U424">
+        <v>1.975</v>
+      </c>
+      <c r="V424">
+        <v>1.875</v>
+      </c>
+      <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
         <v>0.5</v>
       </c>
-      <c r="R424">
-        <v>1.975</v>
-      </c>
-      <c r="S424">
-        <v>1.875</v>
-      </c>
-      <c r="T424">
-        <v>2.5</v>
-      </c>
-      <c r="U424">
-        <v>1.825</v>
-      </c>
-      <c r="V424">
-        <v>2.025</v>
-      </c>
-      <c r="W424">
-        <v>3.2</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
       <c r="Z424">
+        <v>-1</v>
+      </c>
+      <c r="AA424">
+        <v>1.05</v>
+      </c>
+      <c r="AB424">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA424">
-        <v>-1</v>
-      </c>
-      <c r="AB424">
-        <v>-1</v>
-      </c>
       <c r="AC424">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,76 +38272,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F425" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K425">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L425">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M425">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N425">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O425">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q425">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R425">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S425">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V425">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA425">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38705,7 +38705,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>5205977</v>
+        <v>5205980</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38717,37 +38717,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F430" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G430" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K430">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L430">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M430">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N430">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O430">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P430">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q430">
         <v>0.25</v>
@@ -38759,34 +38759,34 @@
         <v>1.875</v>
       </c>
       <c r="T430">
+        <v>2.75</v>
+      </c>
+      <c r="U430">
+        <v>1.975</v>
+      </c>
+      <c r="V430">
+        <v>1.875</v>
+      </c>
+      <c r="W430">
+        <v>-1</v>
+      </c>
+      <c r="X430">
         <v>2.5</v>
       </c>
-      <c r="U430">
-        <v>2</v>
-      </c>
-      <c r="V430">
-        <v>1.85</v>
-      </c>
-      <c r="W430">
-        <v>-1</v>
-      </c>
-      <c r="X430">
-        <v>-1</v>
-      </c>
       <c r="Y430">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z430">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA430">
+        <v>-0.5</v>
+      </c>
+      <c r="AB430">
+        <v>-1</v>
+      </c>
+      <c r="AC430">
         <v>0.875</v>
-      </c>
-      <c r="AB430">
-        <v>1</v>
-      </c>
-      <c r="AC430">
-        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38794,7 +38794,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>5205980</v>
+        <v>5205977</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38806,37 +38806,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G431" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J431" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K431">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L431">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M431">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N431">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O431">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P431">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q431">
         <v>0.25</v>
@@ -38848,34 +38848,34 @@
         <v>1.875</v>
       </c>
       <c r="T431">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U431">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V431">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W431">
         <v>-1</v>
       </c>
       <c r="X431">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y431">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z431">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA431">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB431">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC431">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -44045,7 +44045,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>6430237</v>
+        <v>6429786</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44057,76 +44057,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G490" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H490">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K490">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L490">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M490">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N490">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O490">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P490">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q490">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R490">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S490">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T490">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U490">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V490">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W490">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z490">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB490">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC490">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -44134,7 +44134,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6429786</v>
+        <v>6430237</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44146,76 +44146,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F491" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G491" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I491">
         <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K491">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M491">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N491">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O491">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P491">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="Q491">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R491">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S491">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T491">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U491">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V491">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W491">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X491">
         <v>-1</v>
       </c>
       <c r="Y491">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z491">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA491">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB491">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC491">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44401,7 +44401,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44413,55 +44413,55 @@
         <v>45066.5</v>
       </c>
       <c r="F494" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G494" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J494" t="s">
         <v>46</v>
       </c>
       <c r="K494">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L494">
         <v>3.4</v>
       </c>
       <c r="M494">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N494">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O494">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P494">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q494">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R494">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S494">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T494">
         <v>2.75</v>
       </c>
       <c r="U494">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W494">
         <v>-1</v>
@@ -44470,19 +44470,19 @@
         <v>-1</v>
       </c>
       <c r="Y494">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z494">
         <v>-1</v>
       </c>
       <c r="AA494">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB494">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC494">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44490,7 +44490,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44502,55 +44502,55 @@
         <v>45066.5</v>
       </c>
       <c r="F495" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G495" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J495" t="s">
         <v>46</v>
       </c>
       <c r="K495">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L495">
         <v>3.4</v>
       </c>
       <c r="M495">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N495">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O495">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P495">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q495">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S495">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T495">
         <v>2.75</v>
       </c>
       <c r="U495">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V495">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -44559,19 +44559,19 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB495">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC495">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -45380,7 +45380,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45392,76 +45392,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F505" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G505" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I505">
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K505">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L505">
+        <v>3.4</v>
+      </c>
+      <c r="M505">
+        <v>2.55</v>
+      </c>
+      <c r="N505">
         <v>3.75</v>
       </c>
-      <c r="M505">
-        <v>4.2</v>
-      </c>
-      <c r="N505">
-        <v>1.909</v>
-      </c>
       <c r="O505">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P505">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q505">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R505">
+        <v>1.875</v>
+      </c>
+      <c r="S505">
+        <v>1.975</v>
+      </c>
+      <c r="T505">
+        <v>2.75</v>
+      </c>
+      <c r="U505">
+        <v>1.9</v>
+      </c>
+      <c r="V505">
         <v>1.95</v>
       </c>
-      <c r="S505">
-        <v>1.9</v>
-      </c>
-      <c r="T505">
-        <v>3.25</v>
-      </c>
-      <c r="U505">
-        <v>2.025</v>
-      </c>
-      <c r="V505">
-        <v>1.825</v>
-      </c>
       <c r="W505">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X505">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA505">
+        <v>-1</v>
+      </c>
+      <c r="AB505">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB505">
-        <v>-1</v>
-      </c>
       <c r="AC505">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F506" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G506" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H506">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J506" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K506">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N506">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O506">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P506">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q506">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R506">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S506">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T506">
         <v>2.75</v>
       </c>
       <c r="U506">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V506">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W506">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z506">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB506">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC506">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F507" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G507" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K507">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L507">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M507">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N507">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O507">
+        <v>3.75</v>
+      </c>
+      <c r="P507">
         <v>3.8</v>
       </c>
-      <c r="P507">
-        <v>2.3</v>
-      </c>
       <c r="Q507">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R507">
+        <v>1.95</v>
+      </c>
+      <c r="S507">
+        <v>1.9</v>
+      </c>
+      <c r="T507">
+        <v>3.25</v>
+      </c>
+      <c r="U507">
+        <v>2.025</v>
+      </c>
+      <c r="V507">
         <v>1.825</v>
       </c>
-      <c r="S507">
-        <v>2.025</v>
-      </c>
-      <c r="T507">
+      <c r="W507">
+        <v>-1</v>
+      </c>
+      <c r="X507">
         <v>2.75</v>
       </c>
-      <c r="U507">
-        <v>1.925</v>
-      </c>
-      <c r="V507">
-        <v>1.925</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
-      <c r="X507">
-        <v>-1</v>
-      </c>
       <c r="Y507">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB507">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -46003,7 +46003,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46015,73 +46015,73 @@
         <v>45136.5</v>
       </c>
       <c r="F512" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G512" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H512">
+        <v>2</v>
+      </c>
+      <c r="I512">
         <v>1</v>
       </c>
-      <c r="I512">
-        <v>3</v>
-      </c>
       <c r="J512" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K512">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L512">
+        <v>3.5</v>
+      </c>
+      <c r="M512">
+        <v>3.5</v>
+      </c>
+      <c r="N512">
+        <v>2.2</v>
+      </c>
+      <c r="O512">
         <v>3.4</v>
       </c>
-      <c r="M512">
-        <v>3.1</v>
-      </c>
-      <c r="N512">
-        <v>2.3</v>
-      </c>
-      <c r="O512">
-        <v>3.6</v>
-      </c>
       <c r="P512">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q512">
         <v>-0.25</v>
       </c>
       <c r="R512">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S512">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T512">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U512">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V512">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W512">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X512">
         <v>-1</v>
       </c>
       <c r="Y512">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z512">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA512">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB512">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC512">
         <v>-1</v>
@@ -46092,7 +46092,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46104,73 +46104,73 @@
         <v>45136.5</v>
       </c>
       <c r="F513" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G513" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J513" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K513">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L513">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M513">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N513">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O513">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P513">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q513">
         <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S513">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T513">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U513">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V513">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W513">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X513">
         <v>-1</v>
       </c>
       <c r="Y513">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z513">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA513">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB513">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6847032</v>
+        <v>6851963</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,40 +46638,40 @@
         <v>45144.5</v>
       </c>
       <c r="F519" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G519" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J519" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K519">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L519">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M519">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N519">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O519">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P519">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q519">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
         <v>1.975</v>
@@ -46680,34 +46680,34 @@
         <v>1.875</v>
       </c>
       <c r="T519">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U519">
+        <v>1.9</v>
+      </c>
+      <c r="V519">
         <v>1.95</v>
       </c>
-      <c r="V519">
-        <v>1.9</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y519">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC519">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46715,7 +46715,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46727,76 +46727,76 @@
         <v>45144.5</v>
       </c>
       <c r="F520" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G520" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>2</v>
+      </c>
+      <c r="J520" t="s">
+        <v>46</v>
+      </c>
+      <c r="K520">
+        <v>4.2</v>
+      </c>
+      <c r="L520">
+        <v>4</v>
+      </c>
+      <c r="M520">
+        <v>1.75</v>
+      </c>
+      <c r="N520">
+        <v>3.75</v>
+      </c>
+      <c r="O520">
+        <v>3.8</v>
+      </c>
+      <c r="P520">
+        <v>1.909</v>
+      </c>
+      <c r="Q520">
+        <v>0.5</v>
+      </c>
+      <c r="R520">
+        <v>1.975</v>
+      </c>
+      <c r="S520">
+        <v>1.875</v>
+      </c>
+      <c r="T520">
         <v>3</v>
       </c>
-      <c r="I520">
-        <v>0</v>
-      </c>
-      <c r="J520" t="s">
-        <v>45</v>
-      </c>
-      <c r="K520">
-        <v>1.142</v>
-      </c>
-      <c r="L520">
-        <v>8</v>
-      </c>
-      <c r="M520">
-        <v>17</v>
-      </c>
-      <c r="N520">
-        <v>1.166</v>
-      </c>
-      <c r="O520">
-        <v>7.5</v>
-      </c>
-      <c r="P520">
-        <v>15</v>
-      </c>
-      <c r="Q520">
-        <v>-2.25</v>
-      </c>
-      <c r="R520">
+      <c r="U520">
         <v>1.95</v>
       </c>
-      <c r="S520">
+      <c r="V520">
         <v>1.9</v>
       </c>
-      <c r="T520">
-        <v>3.75</v>
-      </c>
-      <c r="U520">
-        <v>1.925</v>
-      </c>
-      <c r="V520">
-        <v>1.925</v>
-      </c>
       <c r="W520">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z520">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46804,7 +46804,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46816,76 +46816,76 @@
         <v>45144.5</v>
       </c>
       <c r="F521" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G521" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H521">
         <v>3</v>
       </c>
       <c r="I521">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J521" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K521">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L521">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M521">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N521">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O521">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P521">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R521">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S521">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T521">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U521">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X521">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y521">
         <v>-1</v>
       </c>
       <c r="Z521">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA521">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC521">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -50453,7 +50453,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50465,61 +50465,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F562" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G562" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562">
         <v>0</v>
       </c>
       <c r="J562" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K562">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L562">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M562">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N562">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O562">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P562">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q562">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R562">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S562">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T562">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U562">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V562">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W562">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X562">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y562">
         <v>-1</v>
@@ -50528,13 +50528,13 @@
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,61 +50554,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F563" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G563" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563">
         <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K563">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L563">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M563">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N563">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O563">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P563">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q563">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R563">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S563">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T563">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U563">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V563">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X563">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y563">
         <v>-1</v>
@@ -50617,13 +50617,13 @@
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -51254,7 +51254,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51266,76 +51266,76 @@
         <v>45220.5</v>
       </c>
       <c r="F571" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G571" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K571">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M571">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N571">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O571">
         <v>4</v>
       </c>
       <c r="P571">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q571">
         <v>-0.75</v>
       </c>
       <c r="R571">
+        <v>1.925</v>
+      </c>
+      <c r="S571">
+        <v>1.925</v>
+      </c>
+      <c r="T571">
+        <v>2.5</v>
+      </c>
+      <c r="U571">
         <v>1.825</v>
       </c>
-      <c r="S571">
+      <c r="V571">
         <v>2.025</v>
       </c>
-      <c r="T571">
-        <v>2.75</v>
-      </c>
-      <c r="U571">
-        <v>1.875</v>
-      </c>
-      <c r="V571">
-        <v>1.975</v>
-      </c>
       <c r="W571">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X571">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA571">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC571">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51343,7 +51343,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51355,76 +51355,76 @@
         <v>45220.5</v>
       </c>
       <c r="F572" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G572" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K572">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L572">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N572">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O572">
         <v>4</v>
       </c>
       <c r="P572">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q572">
         <v>-0.75</v>
       </c>
       <c r="R572">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S572">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T572">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U572">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V572">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W572">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X572">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB572">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51877,7 +51877,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6846468</v>
+        <v>6851953</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51889,13 +51889,13 @@
         <v>45227.5</v>
       </c>
       <c r="F578" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G578" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H578">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578">
         <v>0</v>
@@ -51904,43 +51904,43 @@
         <v>45</v>
       </c>
       <c r="K578">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="L578">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M578">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N578">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O578">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P578">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q578">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R578">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S578">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T578">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U578">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V578">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W578">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X578">
         <v>-1</v>
@@ -51949,16 +51949,16 @@
         <v>-1</v>
       </c>
       <c r="Z578">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA578">
         <v>-1</v>
       </c>
       <c r="AB578">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51966,7 +51966,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6851953</v>
+        <v>6846468</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51978,13 +51978,13 @@
         <v>45227.5</v>
       </c>
       <c r="F579" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G579" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I579">
         <v>0</v>
@@ -51993,61 +51993,61 @@
         <v>45</v>
       </c>
       <c r="K579">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L579">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M579">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N579">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O579">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P579">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q579">
+        <v>-1.5</v>
+      </c>
+      <c r="R579">
+        <v>1.875</v>
+      </c>
+      <c r="S579">
+        <v>1.975</v>
+      </c>
+      <c r="T579">
+        <v>3</v>
+      </c>
+      <c r="U579">
+        <v>1.975</v>
+      </c>
+      <c r="V579">
+        <v>1.875</v>
+      </c>
+      <c r="W579">
+        <v>0.3</v>
+      </c>
+      <c r="X579">
+        <v>-1</v>
+      </c>
+      <c r="Y579">
+        <v>-1</v>
+      </c>
+      <c r="Z579">
+        <v>0.875</v>
+      </c>
+      <c r="AA579">
+        <v>-1</v>
+      </c>
+      <c r="AB579">
         <v>0</v>
       </c>
-      <c r="R579">
-        <v>1.95</v>
-      </c>
-      <c r="S579">
-        <v>1.9</v>
-      </c>
-      <c r="T579">
-        <v>2.5</v>
-      </c>
-      <c r="U579">
-        <v>1.925</v>
-      </c>
-      <c r="V579">
-        <v>1.925</v>
-      </c>
-      <c r="W579">
-        <v>1.625</v>
-      </c>
-      <c r="X579">
-        <v>-1</v>
-      </c>
-      <c r="Y579">
-        <v>-1</v>
-      </c>
-      <c r="Z579">
-        <v>0.95</v>
-      </c>
-      <c r="AA579">
-        <v>-1</v>
-      </c>
-      <c r="AB579">
-        <v>-1</v>
-      </c>
       <c r="AC579">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52411,7 +52411,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6847076</v>
+        <v>6847075</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52423,13 +52423,13 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F584" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G584" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I584">
         <v>0</v>
@@ -52438,43 +52438,43 @@
         <v>45</v>
       </c>
       <c r="K584">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L584">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M584">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N584">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O584">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P584">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q584">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R584">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S584">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T584">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U584">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V584">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W584">
-        <v>0.2849999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52483,16 +52483,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA584">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB584">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC584">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52500,7 +52500,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>6847075</v>
+        <v>6847076</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52512,13 +52512,13 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F585" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G585" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H585">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I585">
         <v>0</v>
@@ -52527,43 +52527,43 @@
         <v>45</v>
       </c>
       <c r="K585">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L585">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M585">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N585">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O585">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P585">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q585">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R585">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S585">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T585">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U585">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V585">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W585">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X585">
         <v>-1</v>
@@ -52572,16 +52572,16 @@
         <v>-1</v>
       </c>
       <c r="Z585">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA585">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB585">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC585">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -54725,7 +54725,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>6847093</v>
+        <v>7529184</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54737,76 +54737,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F610" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G610" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J610" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K610">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L610">
+        <v>3.4</v>
+      </c>
+      <c r="M610">
         <v>3.5</v>
       </c>
-      <c r="M610">
-        <v>3</v>
-      </c>
       <c r="N610">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O610">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P610">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q610">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R610">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S610">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T610">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U610">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V610">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W610">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X610">
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z610">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA610">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB610">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC610">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -54814,7 +54814,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>7529184</v>
+        <v>6847093</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54826,76 +54826,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F611" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G611" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I611">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J611" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K611">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L611">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M611">
+        <v>3</v>
+      </c>
+      <c r="N611">
+        <v>2.55</v>
+      </c>
+      <c r="O611">
         <v>3.5</v>
       </c>
-      <c r="N611">
-        <v>2.15</v>
-      </c>
-      <c r="O611">
-        <v>3.4</v>
-      </c>
       <c r="P611">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q611">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R611">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S611">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T611">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U611">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V611">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W611">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X611">
         <v>-1</v>
       </c>
       <c r="Y611">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z611">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA611">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB611">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC611">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="612" spans="1:29">

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205927</v>
+        <v>5205928</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
         <v>1</v>
       </c>
-      <c r="I366">
+      <c r="J366" t="s">
+        <v>45</v>
+      </c>
+      <c r="K366">
+        <v>1.666</v>
+      </c>
+      <c r="L366">
         <v>4</v>
       </c>
-      <c r="J366" t="s">
-        <v>46</v>
-      </c>
-      <c r="K366">
-        <v>1.363</v>
-      </c>
-      <c r="L366">
-        <v>5</v>
-      </c>
       <c r="M366">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N366">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O366">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P366">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q366">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S366">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T366">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U366">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA366">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205928</v>
+        <v>5205927</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J367" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N367">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O367">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P367">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U367">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V367">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W367">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB367">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5205973</v>
+        <v>5205971</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,76 +38005,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G422" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>3</v>
+      </c>
+      <c r="J422" t="s">
+        <v>46</v>
+      </c>
+      <c r="K422">
+        <v>2.2</v>
+      </c>
+      <c r="L422">
+        <v>3.5</v>
+      </c>
+      <c r="M422">
+        <v>3.1</v>
+      </c>
+      <c r="N422">
+        <v>2.55</v>
+      </c>
+      <c r="O422">
+        <v>3.3</v>
+      </c>
+      <c r="P422">
+        <v>2.75</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>1.85</v>
+      </c>
+      <c r="S422">
+        <v>2</v>
+      </c>
+      <c r="T422">
+        <v>2.5</v>
+      </c>
+      <c r="U422">
+        <v>1.875</v>
+      </c>
+      <c r="V422">
+        <v>1.975</v>
+      </c>
+      <c r="W422">
+        <v>-1</v>
+      </c>
+      <c r="X422">
+        <v>-1</v>
+      </c>
+      <c r="Y422">
+        <v>1.75</v>
+      </c>
+      <c r="Z422">
+        <v>-1</v>
+      </c>
+      <c r="AA422">
         <v>1</v>
       </c>
-      <c r="I422">
-        <v>1</v>
-      </c>
-      <c r="J422" t="s">
-        <v>44</v>
-      </c>
-      <c r="K422">
-        <v>4.75</v>
-      </c>
-      <c r="L422">
-        <v>3.6</v>
-      </c>
-      <c r="M422">
-        <v>1.727</v>
-      </c>
-      <c r="N422">
-        <v>5.75</v>
-      </c>
-      <c r="O422">
-        <v>4.2</v>
-      </c>
-      <c r="P422">
-        <v>1.6</v>
-      </c>
-      <c r="Q422">
-        <v>1</v>
-      </c>
-      <c r="R422">
-        <v>1.825</v>
-      </c>
-      <c r="S422">
-        <v>2.025</v>
-      </c>
-      <c r="T422">
-        <v>2.75</v>
-      </c>
-      <c r="U422">
-        <v>1.925</v>
-      </c>
-      <c r="V422">
-        <v>1.925</v>
-      </c>
-      <c r="W422">
-        <v>-1</v>
-      </c>
-      <c r="X422">
-        <v>3.2</v>
-      </c>
-      <c r="Y422">
-        <v>-1</v>
-      </c>
-      <c r="Z422">
-        <v>0.825</v>
-      </c>
-      <c r="AA422">
-        <v>-1</v>
-      </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC422">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5205971</v>
+        <v>5205973</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,76 +38094,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L423">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N423">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="O423">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P423">
+        <v>1.6</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="R423">
+        <v>1.825</v>
+      </c>
+      <c r="S423">
+        <v>2.025</v>
+      </c>
+      <c r="T423">
         <v>2.75</v>
       </c>
-      <c r="Q423">
-        <v>0</v>
-      </c>
-      <c r="R423">
-        <v>1.85</v>
-      </c>
-      <c r="S423">
-        <v>2</v>
-      </c>
-      <c r="T423">
-        <v>2.5</v>
-      </c>
       <c r="U423">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y423">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA423">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F424" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G424" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K424">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L424">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M424">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N424">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O424">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q424">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T424">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,76 +38272,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F425" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G425" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J425" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K425">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L425">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M425">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N425">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O425">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P425">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q425">
+        <v>1.25</v>
+      </c>
+      <c r="R425">
+        <v>1.8</v>
+      </c>
+      <c r="S425">
+        <v>2.05</v>
+      </c>
+      <c r="T425">
+        <v>3</v>
+      </c>
+      <c r="U425">
+        <v>1.975</v>
+      </c>
+      <c r="V425">
+        <v>1.875</v>
+      </c>
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
         <v>0.5</v>
       </c>
-      <c r="R425">
-        <v>1.975</v>
-      </c>
-      <c r="S425">
-        <v>1.875</v>
-      </c>
-      <c r="T425">
-        <v>2.5</v>
-      </c>
-      <c r="U425">
-        <v>1.825</v>
-      </c>
-      <c r="V425">
-        <v>2.025</v>
-      </c>
-      <c r="W425">
-        <v>3.2</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
       <c r="Z425">
+        <v>-1</v>
+      </c>
+      <c r="AA425">
+        <v>1.05</v>
+      </c>
+      <c r="AB425">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA425">
-        <v>-1</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
       <c r="AC425">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -46092,7 +46092,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6847027</v>
+        <v>6847026</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46104,73 +46104,73 @@
         <v>45136.5</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G513" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J513" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K513">
         <v>2.1</v>
       </c>
       <c r="L513">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M513">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N513">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O513">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P513">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q513">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R513">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S513">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T513">
         <v>2.75</v>
       </c>
       <c r="U513">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V513">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W513">
         <v>-1</v>
       </c>
       <c r="X513">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y513">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z513">
         <v>-1</v>
       </c>
       <c r="AA513">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB513">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46181,7 +46181,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6847026</v>
+        <v>6847027</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46193,73 +46193,73 @@
         <v>45136.5</v>
       </c>
       <c r="F514" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G514" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J514" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K514">
         <v>2.1</v>
       </c>
       <c r="L514">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M514">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N514">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O514">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P514">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q514">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R514">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S514">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T514">
         <v>2.75</v>
       </c>
       <c r="U514">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V514">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W514">
         <v>-1</v>
       </c>
       <c r="X514">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y514">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB514">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC514">
         <v>-1</v>
@@ -47783,7 +47783,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>6847040</v>
+        <v>6846461</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47795,76 +47795,76 @@
         <v>45158.5</v>
       </c>
       <c r="F532" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G532" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J532" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K532">
+        <v>9.5</v>
+      </c>
+      <c r="L532">
+        <v>4.8</v>
+      </c>
+      <c r="M532">
+        <v>1.3</v>
+      </c>
+      <c r="N532">
+        <v>5.75</v>
+      </c>
+      <c r="O532">
+        <v>4.2</v>
+      </c>
+      <c r="P532">
+        <v>1.55</v>
+      </c>
+      <c r="Q532">
+        <v>1</v>
+      </c>
+      <c r="R532">
+        <v>1.9</v>
+      </c>
+      <c r="S532">
+        <v>1.95</v>
+      </c>
+      <c r="T532">
+        <v>3</v>
+      </c>
+      <c r="U532">
         <v>1.85</v>
       </c>
-      <c r="L532">
-        <v>3.6</v>
-      </c>
-      <c r="M532">
-        <v>3.8</v>
-      </c>
-      <c r="N532">
-        <v>2</v>
-      </c>
-      <c r="O532">
-        <v>3.4</v>
-      </c>
-      <c r="P532">
-        <v>3.6</v>
-      </c>
-      <c r="Q532">
-        <v>-0.5</v>
-      </c>
-      <c r="R532">
-        <v>2.025</v>
-      </c>
-      <c r="S532">
-        <v>1.825</v>
-      </c>
-      <c r="T532">
-        <v>2.75</v>
-      </c>
-      <c r="U532">
-        <v>1.875</v>
-      </c>
       <c r="V532">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W532">
         <v>-1</v>
       </c>
       <c r="X532">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC532">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47872,7 +47872,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6846461</v>
+        <v>6851961</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47884,13 +47884,13 @@
         <v>45158.5</v>
       </c>
       <c r="F533" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G533" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533">
         <v>5</v>
@@ -47899,58 +47899,58 @@
         <v>46</v>
       </c>
       <c r="K533">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="L533">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M533">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N533">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O533">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P533">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q533">
+        <v>0.5</v>
+      </c>
+      <c r="R533">
+        <v>1.85</v>
+      </c>
+      <c r="S533">
+        <v>2</v>
+      </c>
+      <c r="T533">
+        <v>2.75</v>
+      </c>
+      <c r="U533">
+        <v>1.925</v>
+      </c>
+      <c r="V533">
+        <v>1.925</v>
+      </c>
+      <c r="W533">
+        <v>-1</v>
+      </c>
+      <c r="X533">
+        <v>-1</v>
+      </c>
+      <c r="Y533">
+        <v>0.95</v>
+      </c>
+      <c r="Z533">
+        <v>-1</v>
+      </c>
+      <c r="AA533">
         <v>1</v>
       </c>
-      <c r="R533">
-        <v>1.9</v>
-      </c>
-      <c r="S533">
-        <v>1.95</v>
-      </c>
-      <c r="T533">
-        <v>3</v>
-      </c>
-      <c r="U533">
-        <v>1.85</v>
-      </c>
-      <c r="V533">
-        <v>2</v>
-      </c>
-      <c r="W533">
-        <v>-1</v>
-      </c>
-      <c r="X533">
-        <v>-1</v>
-      </c>
-      <c r="Y533">
-        <v>0.55</v>
-      </c>
-      <c r="Z533">
-        <v>-1</v>
-      </c>
-      <c r="AA533">
-        <v>0.95</v>
-      </c>
       <c r="AB533">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC533">
         <v>-1</v>
@@ -47961,7 +47961,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6851961</v>
+        <v>6847040</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47973,76 +47973,76 @@
         <v>45158.5</v>
       </c>
       <c r="F534" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G534" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H534">
         <v>0</v>
       </c>
       <c r="I534">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K534">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L534">
+        <v>3.6</v>
+      </c>
+      <c r="M534">
         <v>3.8</v>
       </c>
-      <c r="M534">
-        <v>1.7</v>
-      </c>
       <c r="N534">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O534">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P534">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q534">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S534">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V534">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W534">
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y534">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
         <v>-1</v>
       </c>
       <c r="AA534">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB534">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -49919,7 +49919,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C556" t="s">
         <v>28</v>
@@ -49931,76 +49931,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F556" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G556" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J556" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K556">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L556">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M556">
+        <v>5</v>
+      </c>
+      <c r="N556">
+        <v>1.727</v>
+      </c>
+      <c r="O556">
+        <v>4</v>
+      </c>
+      <c r="P556">
+        <v>4.5</v>
+      </c>
+      <c r="Q556">
+        <v>-0.75</v>
+      </c>
+      <c r="R556">
         <v>1.95</v>
       </c>
-      <c r="N556">
+      <c r="S556">
+        <v>1.9</v>
+      </c>
+      <c r="T556">
+        <v>2.75</v>
+      </c>
+      <c r="U556">
+        <v>1.8</v>
+      </c>
+      <c r="V556">
+        <v>2.05</v>
+      </c>
+      <c r="W556">
+        <v>-1</v>
+      </c>
+      <c r="X556">
         <v>3</v>
       </c>
-      <c r="O556">
-        <v>3.3</v>
-      </c>
-      <c r="P556">
-        <v>2.4</v>
-      </c>
-      <c r="Q556">
-        <v>0</v>
-      </c>
-      <c r="R556">
-        <v>2.1</v>
-      </c>
-      <c r="S556">
-        <v>1.775</v>
-      </c>
-      <c r="T556">
-        <v>2.5</v>
-      </c>
-      <c r="U556">
-        <v>1.925</v>
-      </c>
-      <c r="V556">
-        <v>1.925</v>
-      </c>
-      <c r="W556">
-        <v>2</v>
-      </c>
-      <c r="X556">
-        <v>-1</v>
-      </c>
       <c r="Y556">
         <v>-1</v>
       </c>
       <c r="Z556">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA556">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB556">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC556">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="557" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,76 +50020,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F557" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G557" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H557">
+        <v>2</v>
+      </c>
+      <c r="I557">
+        <v>1</v>
+      </c>
+      <c r="J557" t="s">
+        <v>45</v>
+      </c>
+      <c r="K557">
+        <v>3.75</v>
+      </c>
+      <c r="L557">
+        <v>3.5</v>
+      </c>
+      <c r="M557">
+        <v>1.95</v>
+      </c>
+      <c r="N557">
+        <v>3</v>
+      </c>
+      <c r="O557">
+        <v>3.3</v>
+      </c>
+      <c r="P557">
+        <v>2.4</v>
+      </c>
+      <c r="Q557">
         <v>0</v>
       </c>
-      <c r="I557">
-        <v>0</v>
-      </c>
-      <c r="J557" t="s">
-        <v>44</v>
-      </c>
-      <c r="K557">
-        <v>1.571</v>
-      </c>
-      <c r="L557">
-        <v>4.333</v>
-      </c>
-      <c r="M557">
-        <v>5</v>
-      </c>
-      <c r="N557">
-        <v>1.727</v>
-      </c>
-      <c r="O557">
-        <v>4</v>
-      </c>
-      <c r="P557">
-        <v>4.5</v>
-      </c>
-      <c r="Q557">
-        <v>-0.75</v>
-      </c>
       <c r="R557">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S557">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T557">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V557">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X557">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA557">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB557">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC557">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50453,7 +50453,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50465,61 +50465,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F562" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G562" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562">
         <v>0</v>
       </c>
       <c r="J562" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K562">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L562">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M562">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N562">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O562">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P562">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q562">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R562">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S562">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T562">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U562">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V562">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X562">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
         <v>-1</v>
@@ -50528,13 +50528,13 @@
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,61 +50554,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F563" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G563" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563">
         <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K563">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L563">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M563">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N563">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O563">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P563">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q563">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R563">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S563">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T563">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U563">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V563">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W563">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y563">
         <v>-1</v>
@@ -50617,13 +50617,13 @@
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -52055,7 +52055,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>6847070</v>
+        <v>6847073</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52067,46 +52067,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F580" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G580" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H580">
         <v>0</v>
       </c>
       <c r="I580">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J580" t="s">
         <v>46</v>
       </c>
       <c r="K580">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L580">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M580">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N580">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O580">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P580">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q580">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R580">
+        <v>1.9</v>
+      </c>
+      <c r="S580">
         <v>1.95</v>
-      </c>
-      <c r="S580">
-        <v>1.9</v>
       </c>
       <c r="T580">
         <v>2.75</v>
@@ -52124,19 +52124,19 @@
         <v>-1</v>
       </c>
       <c r="Y580">
-        <v>3.75</v>
+        <v>0.7</v>
       </c>
       <c r="Z580">
         <v>-1</v>
       </c>
       <c r="AA580">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB580">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC580">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52144,7 +52144,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>6847073</v>
+        <v>6847070</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52156,46 +52156,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F581" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G581" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H581">
         <v>0</v>
       </c>
       <c r="I581">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J581" t="s">
         <v>46</v>
       </c>
       <c r="K581">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L581">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M581">
+        <v>6</v>
+      </c>
+      <c r="N581">
+        <v>1.727</v>
+      </c>
+      <c r="O581">
+        <v>3.8</v>
+      </c>
+      <c r="P581">
+        <v>4.75</v>
+      </c>
+      <c r="Q581">
+        <v>-0.75</v>
+      </c>
+      <c r="R581">
         <v>1.95</v>
       </c>
-      <c r="N581">
-        <v>4.5</v>
-      </c>
-      <c r="O581">
-        <v>4</v>
-      </c>
-      <c r="P581">
-        <v>1.7</v>
-      </c>
-      <c r="Q581">
-        <v>0.75</v>
-      </c>
-      <c r="R581">
+      <c r="S581">
         <v>1.9</v>
-      </c>
-      <c r="S581">
-        <v>1.95</v>
       </c>
       <c r="T581">
         <v>2.75</v>
@@ -52213,19 +52213,19 @@
         <v>-1</v>
       </c>
       <c r="Y581">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z581">
         <v>-1</v>
       </c>
       <c r="AA581">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB581">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52411,7 +52411,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6847075</v>
+        <v>6847076</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52423,13 +52423,13 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F584" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G584" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H584">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I584">
         <v>0</v>
@@ -52438,43 +52438,43 @@
         <v>45</v>
       </c>
       <c r="K584">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L584">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M584">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N584">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O584">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P584">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q584">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R584">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S584">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T584">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U584">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V584">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W584">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52483,16 +52483,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA584">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB584">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC584">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52500,7 +52500,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>6847076</v>
+        <v>6847075</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52512,13 +52512,13 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F585" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G585" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I585">
         <v>0</v>
@@ -52527,43 +52527,43 @@
         <v>45</v>
       </c>
       <c r="K585">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L585">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M585">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N585">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O585">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P585">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q585">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R585">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S585">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T585">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U585">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V585">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W585">
-        <v>0.2849999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X585">
         <v>-1</v>
@@ -52572,16 +52572,16 @@
         <v>-1</v>
       </c>
       <c r="Z585">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA585">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB585">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC585">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:29">

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -31674,7 +31674,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5205913</v>
+        <v>5205914</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31686,40 +31686,40 @@
         <v>44801.5</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G351" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I351">
         <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K351">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M351">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N351">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O351">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R351">
         <v>2.025</v>
@@ -31728,31 +31728,31 @@
         <v>1.825</v>
       </c>
       <c r="T351">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V351">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y351">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA351">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB351">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5205914</v>
+        <v>5205915</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,73 +31775,73 @@
         <v>44801.5</v>
       </c>
       <c r="F352" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K352">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="L352">
         <v>3.4</v>
       </c>
       <c r="M352">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N352">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q352">
         <v>0</v>
       </c>
       <c r="R352">
+        <v>2.05</v>
+      </c>
+      <c r="S352">
+        <v>1.75</v>
+      </c>
+      <c r="T352">
+        <v>2.5</v>
+      </c>
+      <c r="U352">
+        <v>1.825</v>
+      </c>
+      <c r="V352">
         <v>2.025</v>
       </c>
-      <c r="S352">
-        <v>1.825</v>
-      </c>
-      <c r="T352">
-        <v>2.75</v>
-      </c>
-      <c r="U352">
-        <v>1.975</v>
-      </c>
-      <c r="V352">
-        <v>1.875</v>
-      </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5205915</v>
+        <v>5205913</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,55 +31864,55 @@
         <v>44801.5</v>
       </c>
       <c r="F353" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G353" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
         <v>46</v>
       </c>
       <c r="K353">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N353">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O353">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P353">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q353">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R353">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S353">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V353">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31921,16 +31921,16 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB353">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC353">
         <v>-1</v>
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205928</v>
+        <v>5205930</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G366" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>4</v>
+      </c>
+      <c r="J366" t="s">
+        <v>46</v>
+      </c>
+      <c r="K366">
         <v>3</v>
       </c>
-      <c r="I366">
-        <v>1</v>
-      </c>
-      <c r="J366" t="s">
-        <v>45</v>
-      </c>
-      <c r="K366">
-        <v>1.666</v>
-      </c>
       <c r="L366">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M366">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N366">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O366">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P366">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S366">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T366">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W366">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB366">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205927</v>
+        <v>5205928</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
         <v>1</v>
       </c>
-      <c r="I367">
+      <c r="J367" t="s">
+        <v>45</v>
+      </c>
+      <c r="K367">
+        <v>1.666</v>
+      </c>
+      <c r="L367">
         <v>4</v>
       </c>
-      <c r="J367" t="s">
-        <v>46</v>
-      </c>
-      <c r="K367">
-        <v>1.363</v>
-      </c>
-      <c r="L367">
-        <v>5</v>
-      </c>
       <c r="M367">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O367">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P367">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q367">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T367">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA367">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33187,7 +33187,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5205930</v>
+        <v>5205927</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33199,10 +33199,10 @@
         <v>44821.5</v>
       </c>
       <c r="F368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33214,40 +33214,40 @@
         <v>46</v>
       </c>
       <c r="K368">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M368">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="N368">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O368">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P368">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q368">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R368">
+        <v>2.05</v>
+      </c>
+      <c r="S368">
         <v>1.8</v>
       </c>
-      <c r="S368">
-        <v>2.05</v>
-      </c>
       <c r="T368">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U368">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V368">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33256,16 +33256,16 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>1.375</v>
+        <v>5</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB368">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5205971</v>
+        <v>5205973</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,76 +38005,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K422">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L422">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M422">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N422">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="O422">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P422">
+        <v>1.6</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
+      <c r="R422">
+        <v>1.825</v>
+      </c>
+      <c r="S422">
+        <v>2.025</v>
+      </c>
+      <c r="T422">
         <v>2.75</v>
       </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1.85</v>
-      </c>
-      <c r="S422">
-        <v>2</v>
-      </c>
-      <c r="T422">
-        <v>2.5</v>
-      </c>
       <c r="U422">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V422">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W422">
         <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y422">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA422">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5205973</v>
+        <v>5205971</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,76 +38094,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G423" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>3</v>
+      </c>
+      <c r="J423" t="s">
+        <v>46</v>
+      </c>
+      <c r="K423">
+        <v>2.2</v>
+      </c>
+      <c r="L423">
+        <v>3.5</v>
+      </c>
+      <c r="M423">
+        <v>3.1</v>
+      </c>
+      <c r="N423">
+        <v>2.55</v>
+      </c>
+      <c r="O423">
+        <v>3.3</v>
+      </c>
+      <c r="P423">
+        <v>2.75</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>1.85</v>
+      </c>
+      <c r="S423">
+        <v>2</v>
+      </c>
+      <c r="T423">
+        <v>2.5</v>
+      </c>
+      <c r="U423">
+        <v>1.875</v>
+      </c>
+      <c r="V423">
+        <v>1.975</v>
+      </c>
+      <c r="W423">
+        <v>-1</v>
+      </c>
+      <c r="X423">
+        <v>-1</v>
+      </c>
+      <c r="Y423">
+        <v>1.75</v>
+      </c>
+      <c r="Z423">
+        <v>-1</v>
+      </c>
+      <c r="AA423">
         <v>1</v>
       </c>
-      <c r="I423">
-        <v>1</v>
-      </c>
-      <c r="J423" t="s">
-        <v>44</v>
-      </c>
-      <c r="K423">
-        <v>4.75</v>
-      </c>
-      <c r="L423">
-        <v>3.6</v>
-      </c>
-      <c r="M423">
-        <v>1.727</v>
-      </c>
-      <c r="N423">
-        <v>5.75</v>
-      </c>
-      <c r="O423">
-        <v>4.2</v>
-      </c>
-      <c r="P423">
-        <v>1.6</v>
-      </c>
-      <c r="Q423">
-        <v>1</v>
-      </c>
-      <c r="R423">
-        <v>1.825</v>
-      </c>
-      <c r="S423">
-        <v>2.025</v>
-      </c>
-      <c r="T423">
-        <v>2.75</v>
-      </c>
-      <c r="U423">
-        <v>1.925</v>
-      </c>
-      <c r="V423">
-        <v>1.925</v>
-      </c>
-      <c r="W423">
-        <v>-1</v>
-      </c>
-      <c r="X423">
-        <v>3.2</v>
-      </c>
-      <c r="Y423">
-        <v>-1</v>
-      </c>
-      <c r="Z423">
-        <v>0.825</v>
-      </c>
-      <c r="AA423">
-        <v>-1</v>
-      </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC423">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F424" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G424" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K424">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L424">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M424">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N424">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O424">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P424">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q424">
+        <v>1.25</v>
+      </c>
+      <c r="R424">
+        <v>1.8</v>
+      </c>
+      <c r="S424">
+        <v>2.05</v>
+      </c>
+      <c r="T424">
+        <v>3</v>
+      </c>
+      <c r="U424">
+        <v>1.975</v>
+      </c>
+      <c r="V424">
+        <v>1.875</v>
+      </c>
+      <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
         <v>0.5</v>
       </c>
-      <c r="R424">
-        <v>1.975</v>
-      </c>
-      <c r="S424">
-        <v>1.875</v>
-      </c>
-      <c r="T424">
-        <v>2.5</v>
-      </c>
-      <c r="U424">
-        <v>1.825</v>
-      </c>
-      <c r="V424">
-        <v>2.025</v>
-      </c>
-      <c r="W424">
-        <v>3.2</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
       <c r="Z424">
+        <v>-1</v>
+      </c>
+      <c r="AA424">
+        <v>1.05</v>
+      </c>
+      <c r="AB424">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA424">
-        <v>-1</v>
-      </c>
-      <c r="AB424">
-        <v>-1</v>
-      </c>
       <c r="AC424">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,76 +38272,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F425" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K425">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L425">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M425">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N425">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O425">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q425">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R425">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S425">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V425">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA425">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5207164</v>
+        <v>5205988</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,76 +39874,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F443" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G443" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
         <v>0</v>
       </c>
-      <c r="I443">
-        <v>1</v>
-      </c>
       <c r="J443" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L443">
         <v>3.6</v>
       </c>
       <c r="M443">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N443">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O443">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P443">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q443">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R443">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S443">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T443">
         <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V443">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W443">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA443">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39951,7 +39951,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5205988</v>
+        <v>5207164</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39963,76 +39963,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F444" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G444" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
         <v>1</v>
       </c>
-      <c r="I444">
-        <v>0</v>
-      </c>
       <c r="J444" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K444">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L444">
         <v>3.6</v>
       </c>
       <c r="M444">
+        <v>4.5</v>
+      </c>
+      <c r="N444">
+        <v>1.7</v>
+      </c>
+      <c r="O444">
         <v>3.8</v>
       </c>
-      <c r="N444">
-        <v>2.15</v>
-      </c>
-      <c r="O444">
-        <v>3.4</v>
-      </c>
       <c r="P444">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q444">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R444">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S444">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T444">
         <v>2.75</v>
       </c>
       <c r="U444">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z444">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -46092,7 +46092,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6847026</v>
+        <v>6847027</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46104,73 +46104,73 @@
         <v>45136.5</v>
       </c>
       <c r="F513" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G513" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J513" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K513">
         <v>2.1</v>
       </c>
       <c r="L513">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M513">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N513">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O513">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P513">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q513">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S513">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T513">
         <v>2.75</v>
       </c>
       <c r="U513">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V513">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W513">
         <v>-1</v>
       </c>
       <c r="X513">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y513">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z513">
         <v>-1</v>
       </c>
       <c r="AA513">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB513">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46181,7 +46181,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6847027</v>
+        <v>6847026</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46193,73 +46193,73 @@
         <v>45136.5</v>
       </c>
       <c r="F514" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G514" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J514" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K514">
         <v>2.1</v>
       </c>
       <c r="L514">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M514">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N514">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O514">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P514">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q514">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R514">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S514">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T514">
         <v>2.75</v>
       </c>
       <c r="U514">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V514">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W514">
         <v>-1</v>
       </c>
       <c r="X514">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y514">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB514">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC514">
         <v>-1</v>
@@ -47783,7 +47783,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>6846461</v>
+        <v>6847040</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47795,76 +47795,76 @@
         <v>45158.5</v>
       </c>
       <c r="F532" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G532" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J532" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K532">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="L532">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M532">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N532">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O532">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P532">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q532">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R532">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S532">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T532">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U532">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V532">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W532">
         <v>-1</v>
       </c>
       <c r="X532">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y532">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB532">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC532">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47872,7 +47872,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47884,13 +47884,13 @@
         <v>45158.5</v>
       </c>
       <c r="F533" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G533" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533">
         <v>5</v>
@@ -47899,40 +47899,40 @@
         <v>46</v>
       </c>
       <c r="K533">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L533">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M533">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N533">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O533">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P533">
+        <v>1.55</v>
+      </c>
+      <c r="Q533">
+        <v>1</v>
+      </c>
+      <c r="R533">
+        <v>1.9</v>
+      </c>
+      <c r="S533">
         <v>1.95</v>
       </c>
-      <c r="Q533">
-        <v>0.5</v>
-      </c>
-      <c r="R533">
+      <c r="T533">
+        <v>3</v>
+      </c>
+      <c r="U533">
         <v>1.85</v>
       </c>
-      <c r="S533">
-        <v>2</v>
-      </c>
-      <c r="T533">
-        <v>2.75</v>
-      </c>
-      <c r="U533">
-        <v>1.925</v>
-      </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W533">
         <v>-1</v>
@@ -47941,16 +47941,16 @@
         <v>-1</v>
       </c>
       <c r="Y533">
+        <v>0.55</v>
+      </c>
+      <c r="Z533">
+        <v>-1</v>
+      </c>
+      <c r="AA533">
         <v>0.95</v>
       </c>
-      <c r="Z533">
-        <v>-1</v>
-      </c>
-      <c r="AA533">
-        <v>1</v>
-      </c>
       <c r="AB533">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC533">
         <v>-1</v>
@@ -47961,7 +47961,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6847040</v>
+        <v>6851961</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47973,76 +47973,76 @@
         <v>45158.5</v>
       </c>
       <c r="F534" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G534" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H534">
         <v>0</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J534" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K534">
+        <v>4.333</v>
+      </c>
+      <c r="L534">
+        <v>3.8</v>
+      </c>
+      <c r="M534">
+        <v>1.7</v>
+      </c>
+      <c r="N534">
+        <v>3.5</v>
+      </c>
+      <c r="O534">
+        <v>3.75</v>
+      </c>
+      <c r="P534">
+        <v>1.95</v>
+      </c>
+      <c r="Q534">
+        <v>0.5</v>
+      </c>
+      <c r="R534">
         <v>1.85</v>
       </c>
-      <c r="L534">
-        <v>3.6</v>
-      </c>
-      <c r="M534">
-        <v>3.8</v>
-      </c>
-      <c r="N534">
-        <v>2</v>
-      </c>
-      <c r="O534">
-        <v>3.4</v>
-      </c>
-      <c r="P534">
-        <v>3.6</v>
-      </c>
-      <c r="Q534">
-        <v>-0.5</v>
-      </c>
-      <c r="R534">
-        <v>2.025</v>
-      </c>
       <c r="S534">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W534">
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z534">
         <v>-1</v>
       </c>
       <c r="AA534">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC534">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -49919,7 +49919,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C556" t="s">
         <v>28</v>
@@ -49931,76 +49931,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F556" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G556" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H556">
+        <v>2</v>
+      </c>
+      <c r="I556">
+        <v>1</v>
+      </c>
+      <c r="J556" t="s">
+        <v>45</v>
+      </c>
+      <c r="K556">
+        <v>3.75</v>
+      </c>
+      <c r="L556">
+        <v>3.5</v>
+      </c>
+      <c r="M556">
+        <v>1.95</v>
+      </c>
+      <c r="N556">
+        <v>3</v>
+      </c>
+      <c r="O556">
+        <v>3.3</v>
+      </c>
+      <c r="P556">
+        <v>2.4</v>
+      </c>
+      <c r="Q556">
         <v>0</v>
       </c>
-      <c r="I556">
-        <v>0</v>
-      </c>
-      <c r="J556" t="s">
-        <v>44</v>
-      </c>
-      <c r="K556">
-        <v>1.571</v>
-      </c>
-      <c r="L556">
-        <v>4.333</v>
-      </c>
-      <c r="M556">
-        <v>5</v>
-      </c>
-      <c r="N556">
-        <v>1.727</v>
-      </c>
-      <c r="O556">
-        <v>4</v>
-      </c>
-      <c r="P556">
-        <v>4.5</v>
-      </c>
-      <c r="Q556">
-        <v>-0.75</v>
-      </c>
       <c r="R556">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S556">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T556">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U556">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V556">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W556">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X556">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y556">
         <v>-1</v>
       </c>
       <c r="Z556">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA556">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB556">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC556">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,76 +50020,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F557" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G557" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K557">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L557">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M557">
+        <v>5</v>
+      </c>
+      <c r="N557">
+        <v>1.727</v>
+      </c>
+      <c r="O557">
+        <v>4</v>
+      </c>
+      <c r="P557">
+        <v>4.5</v>
+      </c>
+      <c r="Q557">
+        <v>-0.75</v>
+      </c>
+      <c r="R557">
         <v>1.95</v>
       </c>
-      <c r="N557">
+      <c r="S557">
+        <v>1.9</v>
+      </c>
+      <c r="T557">
+        <v>2.75</v>
+      </c>
+      <c r="U557">
+        <v>1.8</v>
+      </c>
+      <c r="V557">
+        <v>2.05</v>
+      </c>
+      <c r="W557">
+        <v>-1</v>
+      </c>
+      <c r="X557">
         <v>3</v>
       </c>
-      <c r="O557">
-        <v>3.3</v>
-      </c>
-      <c r="P557">
-        <v>2.4</v>
-      </c>
-      <c r="Q557">
-        <v>0</v>
-      </c>
-      <c r="R557">
-        <v>2.1</v>
-      </c>
-      <c r="S557">
-        <v>1.775</v>
-      </c>
-      <c r="T557">
-        <v>2.5</v>
-      </c>
-      <c r="U557">
-        <v>1.925</v>
-      </c>
-      <c r="V557">
-        <v>1.925</v>
-      </c>
-      <c r="W557">
-        <v>2</v>
-      </c>
-      <c r="X557">
-        <v>-1</v>
-      </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA557">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB557">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC557">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50453,7 +50453,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50465,61 +50465,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F562" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G562" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562">
         <v>0</v>
       </c>
       <c r="J562" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K562">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L562">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M562">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N562">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O562">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P562">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q562">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R562">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S562">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T562">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U562">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V562">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W562">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X562">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y562">
         <v>-1</v>
@@ -50528,13 +50528,13 @@
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,61 +50554,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F563" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G563" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563">
         <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K563">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L563">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M563">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N563">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O563">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P563">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q563">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R563">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S563">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T563">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U563">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V563">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X563">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y563">
         <v>-1</v>
@@ -50617,13 +50617,13 @@
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:29">

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -31229,7 +31229,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5205909</v>
+        <v>5205910</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31241,10 +31241,10 @@
         <v>44794.5</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31256,40 +31256,40 @@
         <v>46</v>
       </c>
       <c r="K346">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O346">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P346">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q346">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S346">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W346">
         <v>-1</v>
@@ -31298,16 +31298,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z346">
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB346">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AC346">
         <v>-0.5</v>
@@ -31318,7 +31318,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5205910</v>
+        <v>5205909</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31330,10 +31330,10 @@
         <v>44794.5</v>
       </c>
       <c r="F347" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31345,40 +31345,40 @@
         <v>46</v>
       </c>
       <c r="K347">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N347">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O347">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
         <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V347">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -31387,16 +31387,16 @@
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB347">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AC347">
         <v>-0.5</v>
@@ -31674,7 +31674,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5205914</v>
+        <v>5205913</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31686,40 +31686,40 @@
         <v>44801.5</v>
       </c>
       <c r="F351" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I351">
         <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K351">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L351">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M351">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N351">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P351">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R351">
         <v>2.025</v>
@@ -31728,31 +31728,31 @@
         <v>1.825</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U351">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V351">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB351">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5205915</v>
+        <v>5205914</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,73 +31775,73 @@
         <v>44801.5</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G352" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K352">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L352">
         <v>3.4</v>
       </c>
       <c r="M352">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N352">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q352">
         <v>0</v>
       </c>
       <c r="R352">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S352">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V352">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y352">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB352">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5205913</v>
+        <v>5205915</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,56 +31864,56 @@
         <v>44801.5</v>
       </c>
       <c r="F353" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G353" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="I353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J353" t="s">
         <v>46</v>
       </c>
       <c r="K353">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L353">
+        <v>3.4</v>
+      </c>
+      <c r="M353">
+        <v>2.625</v>
+      </c>
+      <c r="N353">
+        <v>2.875</v>
+      </c>
+      <c r="O353">
         <v>3.5</v>
       </c>
-      <c r="M353">
-        <v>2.375</v>
-      </c>
-      <c r="N353">
-        <v>2.375</v>
-      </c>
-      <c r="O353">
-        <v>3.75</v>
-      </c>
       <c r="P353">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R353">
+        <v>2.05</v>
+      </c>
+      <c r="S353">
+        <v>1.75</v>
+      </c>
+      <c r="T353">
+        <v>2.5</v>
+      </c>
+      <c r="U353">
+        <v>1.825</v>
+      </c>
+      <c r="V353">
         <v>2.025</v>
       </c>
-      <c r="S353">
-        <v>1.825</v>
-      </c>
-      <c r="T353">
-        <v>3</v>
-      </c>
-      <c r="U353">
-        <v>1.925</v>
-      </c>
-      <c r="V353">
-        <v>1.925</v>
-      </c>
       <c r="W353">
         <v>-1</v>
       </c>
@@ -31921,16 +31921,16 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
+        <v>0.75</v>
+      </c>
+      <c r="AB353">
         <v>0.825</v>
-      </c>
-      <c r="AB353">
-        <v>0.925</v>
       </c>
       <c r="AC353">
         <v>-1</v>
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205930</v>
+        <v>5205928</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
         <v>1</v>
       </c>
-      <c r="I366">
+      <c r="J366" t="s">
+        <v>45</v>
+      </c>
+      <c r="K366">
+        <v>1.666</v>
+      </c>
+      <c r="L366">
         <v>4</v>
       </c>
-      <c r="J366" t="s">
-        <v>46</v>
-      </c>
-      <c r="K366">
+      <c r="M366">
+        <v>4.333</v>
+      </c>
+      <c r="N366">
+        <v>1.727</v>
+      </c>
+      <c r="O366">
+        <v>4.333</v>
+      </c>
+      <c r="P366">
+        <v>4</v>
+      </c>
+      <c r="Q366">
+        <v>-0.75</v>
+      </c>
+      <c r="R366">
+        <v>1.95</v>
+      </c>
+      <c r="S366">
+        <v>1.9</v>
+      </c>
+      <c r="T366">
         <v>3</v>
       </c>
-      <c r="L366">
-        <v>3.5</v>
-      </c>
-      <c r="M366">
-        <v>2.2</v>
-      </c>
-      <c r="N366">
-        <v>2.8</v>
-      </c>
-      <c r="O366">
-        <v>3.5</v>
-      </c>
-      <c r="P366">
-        <v>2.375</v>
-      </c>
-      <c r="Q366">
-        <v>0.25</v>
-      </c>
-      <c r="R366">
-        <v>1.8</v>
-      </c>
-      <c r="S366">
-        <v>2.05</v>
-      </c>
-      <c r="T366">
-        <v>2.75</v>
-      </c>
       <c r="U366">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA366">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205928</v>
+        <v>5205927</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J367" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N367">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O367">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P367">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U367">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V367">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W367">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB367">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33187,7 +33187,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5205927</v>
+        <v>5205930</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33199,10 +33199,10 @@
         <v>44821.5</v>
       </c>
       <c r="F368" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33214,40 +33214,40 @@
         <v>46</v>
       </c>
       <c r="K368">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L368">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M368">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="N368">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O368">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P368">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q368">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R368">
+        <v>1.8</v>
+      </c>
+      <c r="S368">
         <v>2.05</v>
       </c>
-      <c r="S368">
-        <v>1.8</v>
-      </c>
       <c r="T368">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V368">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33256,16 +33256,16 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>5</v>
+        <v>1.375</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB368">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -34077,7 +34077,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5207174</v>
+        <v>5205936</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34089,76 +34089,76 @@
         <v>44842.5</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J378" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K378">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="L378">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M378">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N378">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O378">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P378">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q378">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R378">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S378">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T378">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W378">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z378">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
+        <v>0.925</v>
+      </c>
+      <c r="AB378">
         <v>-0.5</v>
       </c>
-      <c r="AB378">
-        <v>0</v>
-      </c>
       <c r="AC378">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34255,7 +34255,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>5205936</v>
+        <v>5207174</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34267,76 +34267,76 @@
         <v>44842.5</v>
       </c>
       <c r="F380" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H380">
+        <v>2</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380" t="s">
+        <v>45</v>
+      </c>
+      <c r="K380">
+        <v>1.85</v>
+      </c>
+      <c r="L380">
+        <v>3.8</v>
+      </c>
+      <c r="M380">
+        <v>3.6</v>
+      </c>
+      <c r="N380">
+        <v>1.7</v>
+      </c>
+      <c r="O380">
+        <v>4</v>
+      </c>
+      <c r="P380">
+        <v>4.333</v>
+      </c>
+      <c r="Q380">
+        <v>-0.75</v>
+      </c>
+      <c r="R380">
+        <v>1.875</v>
+      </c>
+      <c r="S380">
+        <v>1.975</v>
+      </c>
+      <c r="T380">
+        <v>3</v>
+      </c>
+      <c r="U380">
+        <v>1.875</v>
+      </c>
+      <c r="V380">
+        <v>1.975</v>
+      </c>
+      <c r="W380">
+        <v>0.7</v>
+      </c>
+      <c r="X380">
+        <v>-1</v>
+      </c>
+      <c r="Y380">
+        <v>-1</v>
+      </c>
+      <c r="Z380">
+        <v>0.4375</v>
+      </c>
+      <c r="AA380">
+        <v>-0.5</v>
+      </c>
+      <c r="AB380">
         <v>0</v>
       </c>
-      <c r="I380">
-        <v>3</v>
-      </c>
-      <c r="J380" t="s">
-        <v>46</v>
-      </c>
-      <c r="K380">
-        <v>1.45</v>
-      </c>
-      <c r="L380">
-        <v>4.5</v>
-      </c>
-      <c r="M380">
-        <v>5.75</v>
-      </c>
-      <c r="N380">
-        <v>1.333</v>
-      </c>
-      <c r="O380">
-        <v>5.5</v>
-      </c>
-      <c r="P380">
-        <v>8</v>
-      </c>
-      <c r="Q380">
-        <v>-1.5</v>
-      </c>
-      <c r="R380">
-        <v>1.925</v>
-      </c>
-      <c r="S380">
-        <v>1.925</v>
-      </c>
-      <c r="T380">
-        <v>3.25</v>
-      </c>
-      <c r="U380">
-        <v>2.025</v>
-      </c>
-      <c r="V380">
-        <v>1.825</v>
-      </c>
-      <c r="W380">
-        <v>-1</v>
-      </c>
-      <c r="X380">
-        <v>-1</v>
-      </c>
-      <c r="Y380">
-        <v>7</v>
-      </c>
-      <c r="Z380">
-        <v>-1</v>
-      </c>
-      <c r="AA380">
-        <v>0.925</v>
-      </c>
-      <c r="AB380">
-        <v>-0.5</v>
-      </c>
       <c r="AC380">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -35768,7 +35768,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>5205951</v>
+        <v>5207171</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35780,76 +35780,76 @@
         <v>44863.5</v>
       </c>
       <c r="F397" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G397" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J397" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K397">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="L397">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M397">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N397">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="O397">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P397">
-        <v>11</v>
+        <v>1.65</v>
       </c>
       <c r="Q397">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R397">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S397">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T397">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U397">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W397">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA397">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC397">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35857,7 +35857,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>5207171</v>
+        <v>5205955</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35869,73 +35869,73 @@
         <v>44863.5</v>
       </c>
       <c r="F398" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G398" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H398">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398">
         <v>3</v>
       </c>
       <c r="J398" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K398">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L398">
+        <v>3.8</v>
+      </c>
+      <c r="M398">
+        <v>3.2</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398">
         <v>3.75</v>
       </c>
-      <c r="M398">
-        <v>2</v>
-      </c>
-      <c r="N398">
-        <v>4.75</v>
-      </c>
-      <c r="O398">
-        <v>4.2</v>
-      </c>
       <c r="P398">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q398">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S398">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T398">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U398">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V398">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W398">
         <v>-1</v>
       </c>
       <c r="X398">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z398">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB398">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -35946,7 +35946,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>5205955</v>
+        <v>5205951</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35958,76 +35958,76 @@
         <v>44863.5</v>
       </c>
       <c r="F399" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G399" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J399" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K399">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="L399">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M399">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="N399">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="O399">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P399">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q399">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R399">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S399">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T399">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U399">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V399">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W399">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X399">
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB399">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36302,7 +36302,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>5205956</v>
+        <v>5207170</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36314,76 +36314,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F403" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G403" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H403">
         <v>1</v>
       </c>
       <c r="I403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K403">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L403">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M403">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N403">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O403">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P403">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q403">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R403">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S403">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T403">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U403">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V403">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W403">
         <v>-1</v>
       </c>
       <c r="X403">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y403">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA403">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB403">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC403">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36391,7 +36391,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>5207170</v>
+        <v>5205956</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36403,76 +36403,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F404" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G404" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H404">
         <v>1</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K404">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L404">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M404">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N404">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O404">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P404">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R404">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S404">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T404">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U404">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V404">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W404">
         <v>-1</v>
       </c>
       <c r="X404">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y404">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z404">
+        <v>0.925</v>
+      </c>
+      <c r="AA404">
+        <v>-1</v>
+      </c>
+      <c r="AB404">
         <v>-0.5</v>
       </c>
-      <c r="AA404">
-        <v>0.4375</v>
-      </c>
-      <c r="AB404">
-        <v>-1</v>
-      </c>
       <c r="AC404">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -37103,7 +37103,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5205963</v>
+        <v>5205962</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37115,10 +37115,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F412" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G412" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37130,25 +37130,25 @@
         <v>46</v>
       </c>
       <c r="K412">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L412">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M412">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N412">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O412">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P412">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q412">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R412">
         <v>1.875</v>
@@ -37157,13 +37157,13 @@
         <v>1.975</v>
       </c>
       <c r="T412">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U412">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V412">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W412">
         <v>-1</v>
@@ -37172,19 +37172,19 @@
         <v>-1</v>
       </c>
       <c r="Y412">
-        <v>0.3999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z412">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37192,7 +37192,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5205962</v>
+        <v>5205963</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37204,10 +37204,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F413" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H413">
         <v>0</v>
@@ -37219,25 +37219,25 @@
         <v>46</v>
       </c>
       <c r="K413">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L413">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M413">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N413">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O413">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P413">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q413">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R413">
         <v>1.875</v>
@@ -37246,13 +37246,13 @@
         <v>1.975</v>
       </c>
       <c r="T413">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U413">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V413">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W413">
         <v>-1</v>
@@ -37261,19 +37261,19 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>2.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z413">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA413">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37459,7 +37459,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5207168</v>
+        <v>5205966</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37471,49 +37471,49 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F416" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G416" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H416">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J416" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K416">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L416">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M416">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="N416">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O416">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P416">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q416">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S416">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T416">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U416">
         <v>1.85</v>
@@ -37522,25 +37522,25 @@
         <v>2</v>
       </c>
       <c r="W416">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z416">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB416">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>5205966</v>
+        <v>5207168</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,49 +37560,49 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F417" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G417" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K417">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L417">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M417">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N417">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O417">
+        <v>7.5</v>
+      </c>
+      <c r="P417">
+        <v>13</v>
+      </c>
+      <c r="Q417">
+        <v>-2</v>
+      </c>
+      <c r="R417">
+        <v>1.875</v>
+      </c>
+      <c r="S417">
+        <v>1.975</v>
+      </c>
+      <c r="T417">
         <v>3.5</v>
-      </c>
-      <c r="P417">
-        <v>3.3</v>
-      </c>
-      <c r="Q417">
-        <v>-0.25</v>
-      </c>
-      <c r="R417">
-        <v>1.9</v>
-      </c>
-      <c r="S417">
-        <v>1.95</v>
-      </c>
-      <c r="T417">
-        <v>2.75</v>
       </c>
       <c r="U417">
         <v>1.85</v>
@@ -37611,25 +37611,25 @@
         <v>2</v>
       </c>
       <c r="W417">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA417">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC417">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205928</v>
+        <v>5205930</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G366" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>4</v>
+      </c>
+      <c r="J366" t="s">
+        <v>46</v>
+      </c>
+      <c r="K366">
         <v>3</v>
       </c>
-      <c r="I366">
-        <v>1</v>
-      </c>
-      <c r="J366" t="s">
-        <v>45</v>
-      </c>
-      <c r="K366">
-        <v>1.666</v>
-      </c>
       <c r="L366">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M366">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N366">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O366">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P366">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S366">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T366">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W366">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB366">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205927</v>
+        <v>5205928</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
         <v>1</v>
       </c>
-      <c r="I367">
+      <c r="J367" t="s">
+        <v>45</v>
+      </c>
+      <c r="K367">
+        <v>1.666</v>
+      </c>
+      <c r="L367">
         <v>4</v>
       </c>
-      <c r="J367" t="s">
-        <v>46</v>
-      </c>
-      <c r="K367">
-        <v>1.363</v>
-      </c>
-      <c r="L367">
-        <v>5</v>
-      </c>
       <c r="M367">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O367">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P367">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q367">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T367">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA367">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33187,7 +33187,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5205930</v>
+        <v>5205927</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33199,10 +33199,10 @@
         <v>44821.5</v>
       </c>
       <c r="F368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33214,40 +33214,40 @@
         <v>46</v>
       </c>
       <c r="K368">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M368">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="N368">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O368">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P368">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q368">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R368">
+        <v>2.05</v>
+      </c>
+      <c r="S368">
         <v>1.8</v>
       </c>
-      <c r="S368">
-        <v>2.05</v>
-      </c>
       <c r="T368">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U368">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V368">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33256,16 +33256,16 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>1.375</v>
+        <v>5</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB368">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -37459,7 +37459,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5205966</v>
+        <v>5207168</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37471,49 +37471,49 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F416" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G416" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K416">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L416">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M416">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N416">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O416">
+        <v>7.5</v>
+      </c>
+      <c r="P416">
+        <v>13</v>
+      </c>
+      <c r="Q416">
+        <v>-2</v>
+      </c>
+      <c r="R416">
+        <v>1.875</v>
+      </c>
+      <c r="S416">
+        <v>1.975</v>
+      </c>
+      <c r="T416">
         <v>3.5</v>
-      </c>
-      <c r="P416">
-        <v>3.3</v>
-      </c>
-      <c r="Q416">
-        <v>-0.25</v>
-      </c>
-      <c r="R416">
-        <v>1.9</v>
-      </c>
-      <c r="S416">
-        <v>1.95</v>
-      </c>
-      <c r="T416">
-        <v>2.75</v>
       </c>
       <c r="U416">
         <v>1.85</v>
@@ -37522,25 +37522,25 @@
         <v>2</v>
       </c>
       <c r="W416">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA416">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC416">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>5207168</v>
+        <v>5205966</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,49 +37560,49 @@
         <v>44968.54166666666</v>
       </c>
       <c r="F417" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G417" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H417">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K417">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L417">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M417">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="N417">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O417">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P417">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q417">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R417">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S417">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T417">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U417">
         <v>1.85</v>
@@ -37611,25 +37611,25 @@
         <v>2</v>
       </c>
       <c r="W417">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB417">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -44045,7 +44045,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>6429786</v>
+        <v>6430237</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44057,76 +44057,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F490" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G490" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K490">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L490">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M490">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N490">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O490">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P490">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="Q490">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R490">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S490">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U490">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V490">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA490">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC490">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -44134,7 +44134,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6430237</v>
+        <v>6429786</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44146,76 +44146,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F491" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G491" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H491">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I491">
         <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K491">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L491">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M491">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N491">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O491">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P491">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q491">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R491">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S491">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T491">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U491">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V491">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W491">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X491">
         <v>-1</v>
       </c>
       <c r="Y491">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z491">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA491">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB491">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC491">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44401,7 +44401,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44413,55 +44413,55 @@
         <v>45066.5</v>
       </c>
       <c r="F494" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G494" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J494" t="s">
         <v>46</v>
       </c>
       <c r="K494">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L494">
         <v>3.4</v>
       </c>
       <c r="M494">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N494">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O494">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P494">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q494">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R494">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S494">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T494">
         <v>2.75</v>
       </c>
       <c r="U494">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V494">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W494">
         <v>-1</v>
@@ -44470,19 +44470,19 @@
         <v>-1</v>
       </c>
       <c r="Y494">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z494">
         <v>-1</v>
       </c>
       <c r="AA494">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB494">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC494">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44490,7 +44490,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44502,55 +44502,55 @@
         <v>45066.5</v>
       </c>
       <c r="F495" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G495" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J495" t="s">
         <v>46</v>
       </c>
       <c r="K495">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L495">
         <v>3.4</v>
       </c>
       <c r="M495">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N495">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O495">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P495">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q495">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R495">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S495">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T495">
         <v>2.75</v>
       </c>
       <c r="U495">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V495">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -44559,19 +44559,19 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB495">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC495">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -45380,7 +45380,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>6430227</v>
+        <v>6430229</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45392,76 +45392,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F505" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G505" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H505">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I505">
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K505">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L505">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M505">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N505">
+        <v>1.909</v>
+      </c>
+      <c r="O505">
         <v>3.75</v>
       </c>
-      <c r="O505">
-        <v>3.6</v>
-      </c>
       <c r="P505">
+        <v>3.8</v>
+      </c>
+      <c r="Q505">
+        <v>-0.5</v>
+      </c>
+      <c r="R505">
         <v>1.95</v>
       </c>
-      <c r="Q505">
-        <v>0.5</v>
-      </c>
-      <c r="R505">
-        <v>1.875</v>
-      </c>
       <c r="S505">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T505">
+        <v>3.25</v>
+      </c>
+      <c r="U505">
+        <v>2.025</v>
+      </c>
+      <c r="V505">
+        <v>1.825</v>
+      </c>
+      <c r="W505">
+        <v>-1</v>
+      </c>
+      <c r="X505">
         <v>2.75</v>
       </c>
-      <c r="U505">
-        <v>1.9</v>
-      </c>
-      <c r="V505">
-        <v>1.95</v>
-      </c>
-      <c r="W505">
-        <v>2.75</v>
-      </c>
-      <c r="X505">
-        <v>-1</v>
-      </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA505">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB505">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC505">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6430228</v>
+        <v>6430227</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F506" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G506" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H506">
+        <v>5</v>
+      </c>
+      <c r="I506">
         <v>1</v>
       </c>
-      <c r="I506">
-        <v>2</v>
-      </c>
       <c r="J506" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K506">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N506">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O506">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P506">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q506">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R506">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S506">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T506">
         <v>2.75</v>
       </c>
       <c r="U506">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V506">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA506">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB506">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC506">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6430229</v>
+        <v>6430228</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F507" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G507" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J507" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K507">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L507">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M507">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N507">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O507">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P507">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q507">
+        <v>0.25</v>
+      </c>
+      <c r="R507">
+        <v>1.825</v>
+      </c>
+      <c r="S507">
+        <v>2.025</v>
+      </c>
+      <c r="T507">
+        <v>2.75</v>
+      </c>
+      <c r="U507">
+        <v>1.925</v>
+      </c>
+      <c r="V507">
+        <v>1.925</v>
+      </c>
+      <c r="W507">
+        <v>-1</v>
+      </c>
+      <c r="X507">
+        <v>-1</v>
+      </c>
+      <c r="Y507">
+        <v>1.3</v>
+      </c>
+      <c r="Z507">
+        <v>-1</v>
+      </c>
+      <c r="AA507">
+        <v>1.025</v>
+      </c>
+      <c r="AB507">
+        <v>0.4625</v>
+      </c>
+      <c r="AC507">
         <v>-0.5</v>
-      </c>
-      <c r="R507">
-        <v>1.95</v>
-      </c>
-      <c r="S507">
-        <v>1.9</v>
-      </c>
-      <c r="T507">
-        <v>3.25</v>
-      </c>
-      <c r="U507">
-        <v>2.025</v>
-      </c>
-      <c r="V507">
-        <v>1.825</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
-      <c r="X507">
-        <v>2.75</v>
-      </c>
-      <c r="Y507">
-        <v>-1</v>
-      </c>
-      <c r="Z507">
-        <v>-1</v>
-      </c>
-      <c r="AA507">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB507">
-        <v>-1</v>
-      </c>
-      <c r="AC507">
-        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -46003,7 +46003,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46015,73 +46015,73 @@
         <v>45136.5</v>
       </c>
       <c r="F512" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G512" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J512" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K512">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L512">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M512">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N512">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O512">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P512">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q512">
         <v>-0.25</v>
       </c>
       <c r="R512">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S512">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T512">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U512">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V512">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W512">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X512">
         <v>-1</v>
       </c>
       <c r="Y512">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z512">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA512">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB512">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC512">
         <v>-1</v>
@@ -46092,7 +46092,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46104,73 +46104,73 @@
         <v>45136.5</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G513" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H513">
+        <v>2</v>
+      </c>
+      <c r="I513">
         <v>1</v>
       </c>
-      <c r="I513">
-        <v>3</v>
-      </c>
       <c r="J513" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K513">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L513">
+        <v>3.5</v>
+      </c>
+      <c r="M513">
+        <v>3.5</v>
+      </c>
+      <c r="N513">
+        <v>2.2</v>
+      </c>
+      <c r="O513">
         <v>3.4</v>
       </c>
-      <c r="M513">
-        <v>3.1</v>
-      </c>
-      <c r="N513">
-        <v>2.3</v>
-      </c>
-      <c r="O513">
-        <v>3.6</v>
-      </c>
       <c r="P513">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q513">
         <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S513">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T513">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U513">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V513">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W513">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X513">
         <v>-1</v>
       </c>
       <c r="Y513">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z513">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA513">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB513">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6851963</v>
+        <v>6847032</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,40 +46638,40 @@
         <v>45144.5</v>
       </c>
       <c r="F519" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G519" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H519">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J519" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K519">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L519">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M519">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N519">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O519">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P519">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R519">
         <v>1.975</v>
@@ -46680,34 +46680,34 @@
         <v>1.875</v>
       </c>
       <c r="T519">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U519">
+        <v>1.95</v>
+      </c>
+      <c r="V519">
         <v>1.9</v>
       </c>
-      <c r="V519">
-        <v>1.95</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA519">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB519">
+        <v>-1</v>
+      </c>
+      <c r="AC519">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC519">
-        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46715,7 +46715,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6847032</v>
+        <v>6846459</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46727,76 +46727,76 @@
         <v>45144.5</v>
       </c>
       <c r="F520" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G520" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H520">
+        <v>3</v>
+      </c>
+      <c r="I520">
         <v>0</v>
       </c>
-      <c r="I520">
-        <v>2</v>
-      </c>
       <c r="J520" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K520">
-        <v>4.2</v>
+        <v>1.142</v>
       </c>
       <c r="L520">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M520">
-        <v>1.75</v>
+        <v>17</v>
       </c>
       <c r="N520">
+        <v>1.166</v>
+      </c>
+      <c r="O520">
+        <v>7.5</v>
+      </c>
+      <c r="P520">
+        <v>15</v>
+      </c>
+      <c r="Q520">
+        <v>-2.25</v>
+      </c>
+      <c r="R520">
+        <v>1.95</v>
+      </c>
+      <c r="S520">
+        <v>1.9</v>
+      </c>
+      <c r="T520">
         <v>3.75</v>
       </c>
-      <c r="O520">
-        <v>3.8</v>
-      </c>
-      <c r="P520">
-        <v>1.909</v>
-      </c>
-      <c r="Q520">
-        <v>0.5</v>
-      </c>
-      <c r="R520">
-        <v>1.975</v>
-      </c>
-      <c r="S520">
-        <v>1.875</v>
-      </c>
-      <c r="T520">
-        <v>3</v>
-      </c>
       <c r="U520">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V520">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W520">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z520">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA520">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46804,7 +46804,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6846459</v>
+        <v>6851963</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46816,76 +46816,76 @@
         <v>45144.5</v>
       </c>
       <c r="F521" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G521" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H521">
         <v>3</v>
       </c>
       <c r="I521">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J521" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K521">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="L521">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M521">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N521">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O521">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P521">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q521">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R521">
+        <v>1.975</v>
+      </c>
+      <c r="S521">
+        <v>1.875</v>
+      </c>
+      <c r="T521">
+        <v>2.75</v>
+      </c>
+      <c r="U521">
+        <v>1.9</v>
+      </c>
+      <c r="V521">
         <v>1.95</v>
       </c>
-      <c r="S521">
-        <v>1.9</v>
-      </c>
-      <c r="T521">
-        <v>3.75</v>
-      </c>
-      <c r="U521">
-        <v>1.925</v>
-      </c>
-      <c r="V521">
-        <v>1.925</v>
-      </c>
       <c r="W521">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X521">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y521">
         <v>-1</v>
       </c>
       <c r="Z521">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA521">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB521">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC521">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -50453,7 +50453,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50465,61 +50465,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F562" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G562" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562">
         <v>0</v>
       </c>
       <c r="J562" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K562">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L562">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M562">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N562">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O562">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P562">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q562">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R562">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S562">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T562">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U562">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V562">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X562">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
         <v>-1</v>
@@ -50528,13 +50528,13 @@
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,61 +50554,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F563" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G563" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563">
         <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K563">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L563">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M563">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N563">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O563">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P563">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q563">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R563">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S563">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T563">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U563">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V563">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W563">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y563">
         <v>-1</v>
@@ -50617,13 +50617,13 @@
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -51254,7 +51254,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51266,76 +51266,76 @@
         <v>45220.5</v>
       </c>
       <c r="F571" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G571" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K571">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L571">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M571">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N571">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O571">
         <v>4</v>
       </c>
       <c r="P571">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q571">
         <v>-0.75</v>
       </c>
       <c r="R571">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S571">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T571">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U571">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V571">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W571">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X571">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB571">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51343,7 +51343,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51355,76 +51355,76 @@
         <v>45220.5</v>
       </c>
       <c r="F572" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G572" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K572">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L572">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M572">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N572">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O572">
         <v>4</v>
       </c>
       <c r="P572">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q572">
         <v>-0.75</v>
       </c>
       <c r="R572">
+        <v>1.925</v>
+      </c>
+      <c r="S572">
+        <v>1.925</v>
+      </c>
+      <c r="T572">
+        <v>2.5</v>
+      </c>
+      <c r="U572">
         <v>1.825</v>
       </c>
-      <c r="S572">
+      <c r="V572">
         <v>2.025</v>
       </c>
-      <c r="T572">
-        <v>2.75</v>
-      </c>
-      <c r="U572">
-        <v>1.875</v>
-      </c>
-      <c r="V572">
-        <v>1.975</v>
-      </c>
       <c r="W572">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X572">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA572">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC572">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3678593</v>
+        <v>3678595</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>44611.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="L240">
+        <v>3.6</v>
+      </c>
+      <c r="M240">
+        <v>1.85</v>
+      </c>
+      <c r="N240">
         <v>3.75</v>
       </c>
-      <c r="M240">
-        <v>3.5</v>
-      </c>
-      <c r="N240">
-        <v>1.666</v>
-      </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21884,7 +21884,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>3678595</v>
+        <v>3678593</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21896,76 +21896,76 @@
         <v>44611.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
         <v>0</v>
       </c>
-      <c r="I241">
-        <v>3</v>
-      </c>
       <c r="J241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K241">
+        <v>1.95</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>3.5</v>
+      </c>
+      <c r="N241">
+        <v>1.666</v>
+      </c>
+      <c r="O241">
         <v>4</v>
       </c>
-      <c r="L241">
-        <v>3.6</v>
-      </c>
-      <c r="M241">
+      <c r="P241">
+        <v>5</v>
+      </c>
+      <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
         <v>1.85</v>
       </c>
-      <c r="N241">
-        <v>3.75</v>
-      </c>
-      <c r="O241">
-        <v>3.6</v>
-      </c>
-      <c r="P241">
-        <v>2</v>
-      </c>
-      <c r="Q241">
-        <v>0.5</v>
-      </c>
-      <c r="R241">
-        <v>1.875</v>
-      </c>
       <c r="S241">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
         <v>1</v>
-      </c>
-      <c r="Z241">
-        <v>-1</v>
-      </c>
-      <c r="AA241">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB241">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC241">
-        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -24643,7 +24643,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>4763480</v>
+        <v>4763481</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24655,76 +24655,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G272" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K272">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M272">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N272">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O272">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P272">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q272">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R272">
+        <v>1.8</v>
+      </c>
+      <c r="S272">
         <v>2.05</v>
       </c>
-      <c r="S272">
-        <v>1.8</v>
-      </c>
       <c r="T272">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB272">
         <v>-1</v>
       </c>
       <c r="AC272">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24732,7 +24732,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>4763481</v>
+        <v>4763480</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24744,76 +24744,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K273">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L273">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N273">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O273">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P273">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q273">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
         <v>1.8</v>
       </c>
-      <c r="S273">
-        <v>2.05</v>
-      </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V273">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y273">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -25978,7 +25978,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4763494</v>
+        <v>4763431</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25990,58 +25990,58 @@
         <v>44674.5</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H287">
         <v>2</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
         <v>45</v>
       </c>
       <c r="K287">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L287">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M287">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N287">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O287">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P287">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R287">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W287">
-        <v>1.6</v>
+        <v>0.363</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26050,16 +26050,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC287">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26067,7 +26067,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4763493</v>
+        <v>4763494</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26079,49 +26079,49 @@
         <v>44674.5</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G288" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
         <v>3.4</v>
       </c>
       <c r="M288">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N288">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P288">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R288">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S288">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
         <v>1.875</v>
@@ -26130,25 +26130,25 @@
         <v>1.975</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA288">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26156,7 +26156,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4763431</v>
+        <v>4763493</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26168,76 +26168,76 @@
         <v>44674.5</v>
       </c>
       <c r="F289" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K289">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L289">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M289">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N289">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O289">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P289">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q289">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
+        <v>2.25</v>
+      </c>
+      <c r="U289">
+        <v>1.875</v>
+      </c>
+      <c r="V289">
+        <v>1.975</v>
+      </c>
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+      <c r="Y289">
         <v>2.75</v>
       </c>
-      <c r="U289">
-        <v>1.8</v>
-      </c>
-      <c r="V289">
-        <v>2.05</v>
-      </c>
-      <c r="W289">
-        <v>0.363</v>
-      </c>
-      <c r="X289">
-        <v>-1</v>
-      </c>
-      <c r="Y289">
-        <v>-1</v>
-      </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB289">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26601,7 +26601,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4763432</v>
+        <v>4763510</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26613,76 +26613,76 @@
         <v>44677.5625</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H294">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K294">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M294">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P294">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="Q294">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T294">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W294">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB294">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26690,7 +26690,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>4763510</v>
+        <v>4763432</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26702,76 +26702,76 @@
         <v>44677.5625</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H295">
+        <v>4</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>45</v>
+      </c>
+      <c r="K295">
+        <v>4</v>
+      </c>
+      <c r="L295">
+        <v>3.6</v>
+      </c>
+      <c r="M295">
+        <v>1.75</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295">
+        <v>4</v>
+      </c>
+      <c r="P295">
+        <v>1.833</v>
+      </c>
+      <c r="Q295">
+        <v>0.5</v>
+      </c>
+      <c r="R295">
+        <v>2</v>
+      </c>
+      <c r="S295">
+        <v>1.85</v>
+      </c>
+      <c r="T295">
+        <v>3</v>
+      </c>
+      <c r="U295">
+        <v>1.975</v>
+      </c>
+      <c r="V295">
+        <v>1.875</v>
+      </c>
+      <c r="W295">
+        <v>3</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
         <v>1</v>
       </c>
-      <c r="I295">
-        <v>1</v>
-      </c>
-      <c r="J295" t="s">
-        <v>44</v>
-      </c>
-      <c r="K295">
-        <v>2.55</v>
-      </c>
-      <c r="L295">
-        <v>3.1</v>
-      </c>
-      <c r="M295">
-        <v>2.6</v>
-      </c>
-      <c r="N295">
-        <v>2.2</v>
-      </c>
-      <c r="O295">
-        <v>3.25</v>
-      </c>
-      <c r="P295">
-        <v>3.3</v>
-      </c>
-      <c r="Q295">
-        <v>-0.25</v>
-      </c>
-      <c r="R295">
-        <v>1.925</v>
-      </c>
-      <c r="S295">
-        <v>1.925</v>
-      </c>
-      <c r="T295">
-        <v>2.25</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.925</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>2.25</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
-      <c r="Z295">
-        <v>-0.5</v>
-      </c>
       <c r="AA295">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC295">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -31229,7 +31229,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5205910</v>
+        <v>5205909</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31241,10 +31241,10 @@
         <v>44794.5</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31256,40 +31256,40 @@
         <v>46</v>
       </c>
       <c r="K346">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N346">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O346">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P346">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R346">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V346">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W346">
         <v>-1</v>
@@ -31298,16 +31298,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z346">
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AC346">
         <v>-0.5</v>
@@ -31318,7 +31318,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5205909</v>
+        <v>5205910</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31330,10 +31330,10 @@
         <v>44794.5</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G347" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31345,40 +31345,40 @@
         <v>46</v>
       </c>
       <c r="K347">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P347">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
         <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -31387,16 +31387,16 @@
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB347">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AC347">
         <v>-0.5</v>
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205930</v>
+        <v>5205928</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
         <v>1</v>
       </c>
-      <c r="I366">
+      <c r="J366" t="s">
+        <v>45</v>
+      </c>
+      <c r="K366">
+        <v>1.666</v>
+      </c>
+      <c r="L366">
         <v>4</v>
       </c>
-      <c r="J366" t="s">
-        <v>46</v>
-      </c>
-      <c r="K366">
+      <c r="M366">
+        <v>4.333</v>
+      </c>
+      <c r="N366">
+        <v>1.727</v>
+      </c>
+      <c r="O366">
+        <v>4.333</v>
+      </c>
+      <c r="P366">
+        <v>4</v>
+      </c>
+      <c r="Q366">
+        <v>-0.75</v>
+      </c>
+      <c r="R366">
+        <v>1.95</v>
+      </c>
+      <c r="S366">
+        <v>1.9</v>
+      </c>
+      <c r="T366">
         <v>3</v>
       </c>
-      <c r="L366">
-        <v>3.5</v>
-      </c>
-      <c r="M366">
-        <v>2.2</v>
-      </c>
-      <c r="N366">
-        <v>2.8</v>
-      </c>
-      <c r="O366">
-        <v>3.5</v>
-      </c>
-      <c r="P366">
-        <v>2.375</v>
-      </c>
-      <c r="Q366">
-        <v>0.25</v>
-      </c>
-      <c r="R366">
-        <v>1.8</v>
-      </c>
-      <c r="S366">
-        <v>2.05</v>
-      </c>
-      <c r="T366">
-        <v>2.75</v>
-      </c>
       <c r="U366">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA366">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205928</v>
+        <v>5205927</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J367" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N367">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O367">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P367">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U367">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V367">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W367">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB367">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33187,7 +33187,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5205927</v>
+        <v>5205930</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33199,10 +33199,10 @@
         <v>44821.5</v>
       </c>
       <c r="F368" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33214,40 +33214,40 @@
         <v>46</v>
       </c>
       <c r="K368">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L368">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M368">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="N368">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O368">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P368">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q368">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R368">
+        <v>1.8</v>
+      </c>
+      <c r="S368">
         <v>2.05</v>
       </c>
-      <c r="S368">
-        <v>1.8</v>
-      </c>
       <c r="T368">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V368">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33256,16 +33256,16 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>5</v>
+        <v>1.375</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB368">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -34077,7 +34077,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5205936</v>
+        <v>5207174</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34089,76 +34089,76 @@
         <v>44842.5</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>45</v>
+      </c>
+      <c r="K378">
+        <v>1.85</v>
+      </c>
+      <c r="L378">
+        <v>3.8</v>
+      </c>
+      <c r="M378">
+        <v>3.6</v>
+      </c>
+      <c r="N378">
+        <v>1.7</v>
+      </c>
+      <c r="O378">
+        <v>4</v>
+      </c>
+      <c r="P378">
+        <v>4.333</v>
+      </c>
+      <c r="Q378">
+        <v>-0.75</v>
+      </c>
+      <c r="R378">
+        <v>1.875</v>
+      </c>
+      <c r="S378">
+        <v>1.975</v>
+      </c>
+      <c r="T378">
+        <v>3</v>
+      </c>
+      <c r="U378">
+        <v>1.875</v>
+      </c>
+      <c r="V378">
+        <v>1.975</v>
+      </c>
+      <c r="W378">
+        <v>0.7</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
+        <v>0.4375</v>
+      </c>
+      <c r="AA378">
+        <v>-0.5</v>
+      </c>
+      <c r="AB378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>3</v>
-      </c>
-      <c r="J378" t="s">
-        <v>46</v>
-      </c>
-      <c r="K378">
-        <v>1.45</v>
-      </c>
-      <c r="L378">
-        <v>4.5</v>
-      </c>
-      <c r="M378">
-        <v>5.75</v>
-      </c>
-      <c r="N378">
-        <v>1.333</v>
-      </c>
-      <c r="O378">
-        <v>5.5</v>
-      </c>
-      <c r="P378">
-        <v>8</v>
-      </c>
-      <c r="Q378">
-        <v>-1.5</v>
-      </c>
-      <c r="R378">
-        <v>1.925</v>
-      </c>
-      <c r="S378">
-        <v>1.925</v>
-      </c>
-      <c r="T378">
-        <v>3.25</v>
-      </c>
-      <c r="U378">
-        <v>2.025</v>
-      </c>
-      <c r="V378">
-        <v>1.825</v>
-      </c>
-      <c r="W378">
-        <v>-1</v>
-      </c>
-      <c r="X378">
-        <v>-1</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378">
-        <v>-1</v>
-      </c>
-      <c r="AA378">
-        <v>0.925</v>
-      </c>
-      <c r="AB378">
-        <v>-0.5</v>
-      </c>
       <c r="AC378">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34255,7 +34255,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>5207174</v>
+        <v>5205936</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34267,76 +34267,76 @@
         <v>44842.5</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G380" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K380">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="L380">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M380">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N380">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P380">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z380">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
+        <v>0.925</v>
+      </c>
+      <c r="AB380">
         <v>-0.5</v>
       </c>
-      <c r="AB380">
-        <v>0</v>
-      </c>
       <c r="AC380">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34611,7 +34611,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>5207173</v>
+        <v>5205944</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34623,58 +34623,58 @@
         <v>44849.5</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G384" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
         <v>45</v>
       </c>
       <c r="K384">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="L384">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M384">
+        <v>2.05</v>
+      </c>
+      <c r="N384">
+        <v>3.2</v>
+      </c>
+      <c r="O384">
         <v>3.4</v>
       </c>
-      <c r="N384">
+      <c r="P384">
         <v>2.25</v>
       </c>
-      <c r="O384">
-        <v>3.75</v>
-      </c>
-      <c r="P384">
-        <v>3</v>
-      </c>
       <c r="Q384">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
+        <v>1.875</v>
+      </c>
+      <c r="S384">
         <v>1.975</v>
       </c>
-      <c r="S384">
-        <v>1.875</v>
-      </c>
       <c r="T384">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V384">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W384">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="X384">
         <v>-1</v>
@@ -34683,16 +34683,16 @@
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA384">
         <v>-1</v>
       </c>
       <c r="AB384">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34700,7 +34700,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>5205944</v>
+        <v>5207173</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34712,58 +34712,58 @@
         <v>44849.5</v>
       </c>
       <c r="F385" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G385" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J385" t="s">
         <v>45</v>
       </c>
       <c r="K385">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="L385">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M385">
+        <v>3.4</v>
+      </c>
+      <c r="N385">
+        <v>2.25</v>
+      </c>
+      <c r="O385">
+        <v>3.75</v>
+      </c>
+      <c r="P385">
+        <v>3</v>
+      </c>
+      <c r="Q385">
+        <v>-0.25</v>
+      </c>
+      <c r="R385">
+        <v>1.975</v>
+      </c>
+      <c r="S385">
+        <v>1.875</v>
+      </c>
+      <c r="T385">
+        <v>3</v>
+      </c>
+      <c r="U385">
         <v>2.05</v>
       </c>
-      <c r="N385">
-        <v>3.2</v>
-      </c>
-      <c r="O385">
-        <v>3.4</v>
-      </c>
-      <c r="P385">
-        <v>2.25</v>
-      </c>
-      <c r="Q385">
-        <v>0.25</v>
-      </c>
-      <c r="R385">
-        <v>1.875</v>
-      </c>
-      <c r="S385">
-        <v>1.975</v>
-      </c>
-      <c r="T385">
-        <v>2.5</v>
-      </c>
-      <c r="U385">
-        <v>1.85</v>
-      </c>
       <c r="V385">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W385">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="X385">
         <v>-1</v>
@@ -34772,16 +34772,16 @@
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA385">
         <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC385">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -35768,7 +35768,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>5207171</v>
+        <v>5205951</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35780,76 +35780,76 @@
         <v>44863.5</v>
       </c>
       <c r="F397" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G397" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H397">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I397">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K397">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="L397">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M397">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N397">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="O397">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P397">
-        <v>1.65</v>
+        <v>11</v>
       </c>
       <c r="Q397">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R397">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T397">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U397">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V397">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W397">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X397">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB397">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35857,7 +35857,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>5205955</v>
+        <v>5207171</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35869,73 +35869,73 @@
         <v>44863.5</v>
       </c>
       <c r="F398" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I398">
         <v>3</v>
       </c>
       <c r="J398" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K398">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L398">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M398">
+        <v>2</v>
+      </c>
+      <c r="N398">
+        <v>4.75</v>
+      </c>
+      <c r="O398">
+        <v>4.2</v>
+      </c>
+      <c r="P398">
+        <v>1.65</v>
+      </c>
+      <c r="Q398">
+        <v>0.75</v>
+      </c>
+      <c r="R398">
+        <v>1.975</v>
+      </c>
+      <c r="S398">
+        <v>1.875</v>
+      </c>
+      <c r="T398">
+        <v>2.75</v>
+      </c>
+      <c r="U398">
+        <v>1.825</v>
+      </c>
+      <c r="V398">
+        <v>2.025</v>
+      </c>
+      <c r="W398">
+        <v>-1</v>
+      </c>
+      <c r="X398">
         <v>3.2</v>
       </c>
-      <c r="N398">
-        <v>2</v>
-      </c>
-      <c r="O398">
-        <v>3.75</v>
-      </c>
-      <c r="P398">
-        <v>3.4</v>
-      </c>
-      <c r="Q398">
-        <v>-0.5</v>
-      </c>
-      <c r="R398">
-        <v>2.025</v>
-      </c>
-      <c r="S398">
-        <v>1.825</v>
-      </c>
-      <c r="T398">
-        <v>3</v>
-      </c>
-      <c r="U398">
-        <v>2</v>
-      </c>
-      <c r="V398">
-        <v>1.85</v>
-      </c>
-      <c r="W398">
-        <v>-1</v>
-      </c>
-      <c r="X398">
-        <v>-1</v>
-      </c>
       <c r="Y398">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA398">
+        <v>-1</v>
+      </c>
+      <c r="AB398">
         <v>0.825</v>
-      </c>
-      <c r="AB398">
-        <v>1</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -35946,7 +35946,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>5205951</v>
+        <v>5205955</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35958,76 +35958,76 @@
         <v>44863.5</v>
       </c>
       <c r="F399" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G399" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399">
+        <v>3</v>
+      </c>
+      <c r="J399" t="s">
+        <v>46</v>
+      </c>
+      <c r="K399">
+        <v>2</v>
+      </c>
+      <c r="L399">
+        <v>3.8</v>
+      </c>
+      <c r="M399">
+        <v>3.2</v>
+      </c>
+      <c r="N399">
+        <v>2</v>
+      </c>
+      <c r="O399">
+        <v>3.75</v>
+      </c>
+      <c r="P399">
+        <v>3.4</v>
+      </c>
+      <c r="Q399">
+        <v>-0.5</v>
+      </c>
+      <c r="R399">
+        <v>2.025</v>
+      </c>
+      <c r="S399">
+        <v>1.825</v>
+      </c>
+      <c r="T399">
+        <v>3</v>
+      </c>
+      <c r="U399">
+        <v>2</v>
+      </c>
+      <c r="V399">
+        <v>1.85</v>
+      </c>
+      <c r="W399">
+        <v>-1</v>
+      </c>
+      <c r="X399">
+        <v>-1</v>
+      </c>
+      <c r="Y399">
+        <v>2.4</v>
+      </c>
+      <c r="Z399">
+        <v>-1</v>
+      </c>
+      <c r="AA399">
+        <v>0.825</v>
+      </c>
+      <c r="AB399">
         <v>1</v>
       </c>
-      <c r="I399">
-        <v>0</v>
-      </c>
-      <c r="J399" t="s">
-        <v>45</v>
-      </c>
-      <c r="K399">
-        <v>1.181</v>
-      </c>
-      <c r="L399">
-        <v>7</v>
-      </c>
-      <c r="M399">
-        <v>12</v>
-      </c>
-      <c r="N399">
-        <v>1.222</v>
-      </c>
-      <c r="O399">
-        <v>7</v>
-      </c>
-      <c r="P399">
-        <v>11</v>
-      </c>
-      <c r="Q399">
-        <v>-2</v>
-      </c>
-      <c r="R399">
-        <v>1.95</v>
-      </c>
-      <c r="S399">
-        <v>1.9</v>
-      </c>
-      <c r="T399">
-        <v>3.5</v>
-      </c>
-      <c r="U399">
-        <v>1.9</v>
-      </c>
-      <c r="V399">
-        <v>1.95</v>
-      </c>
-      <c r="W399">
-        <v>0.222</v>
-      </c>
-      <c r="X399">
-        <v>-1</v>
-      </c>
-      <c r="Y399">
-        <v>-1</v>
-      </c>
-      <c r="Z399">
-        <v>-1</v>
-      </c>
-      <c r="AA399">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB399">
-        <v>-1</v>
-      </c>
       <c r="AC399">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36302,7 +36302,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>5207170</v>
+        <v>5205956</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36314,76 +36314,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F403" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G403" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H403">
         <v>1</v>
       </c>
       <c r="I403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J403" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K403">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L403">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M403">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N403">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="O403">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P403">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q403">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R403">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S403">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T403">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U403">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V403">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W403">
         <v>-1</v>
       </c>
       <c r="X403">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z403">
+        <v>0.925</v>
+      </c>
+      <c r="AA403">
+        <v>-1</v>
+      </c>
+      <c r="AB403">
         <v>-0.5</v>
       </c>
-      <c r="AA403">
-        <v>0.4375</v>
-      </c>
-      <c r="AB403">
-        <v>-1</v>
-      </c>
       <c r="AC403">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36391,7 +36391,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>5205956</v>
+        <v>5207170</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36403,76 +36403,76 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F404" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G404" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H404">
         <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K404">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L404">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M404">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P404">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q404">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S404">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T404">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V404">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W404">
         <v>-1</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y404">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB404">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -37103,7 +37103,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5205962</v>
+        <v>5205963</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37115,10 +37115,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F412" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G412" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37130,25 +37130,25 @@
         <v>46</v>
       </c>
       <c r="K412">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M412">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N412">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O412">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P412">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q412">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R412">
         <v>1.875</v>
@@ -37157,13 +37157,13 @@
         <v>1.975</v>
       </c>
       <c r="T412">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U412">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V412">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W412">
         <v>-1</v>
@@ -37172,19 +37172,19 @@
         <v>-1</v>
       </c>
       <c r="Y412">
-        <v>2.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z412">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA412">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37192,7 +37192,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5205963</v>
+        <v>5205962</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37204,10 +37204,10 @@
         <v>44878.4375</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G413" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H413">
         <v>0</v>
@@ -37219,25 +37219,25 @@
         <v>46</v>
       </c>
       <c r="K413">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L413">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M413">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N413">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O413">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P413">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q413">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
         <v>1.875</v>
@@ -37246,13 +37246,13 @@
         <v>1.975</v>
       </c>
       <c r="T413">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U413">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V413">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W413">
         <v>-1</v>
@@ -37261,19 +37261,19 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>0.3999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z413">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5205973</v>
+        <v>5205971</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,76 +38005,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G422" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>3</v>
+      </c>
+      <c r="J422" t="s">
+        <v>46</v>
+      </c>
+      <c r="K422">
+        <v>2.2</v>
+      </c>
+      <c r="L422">
+        <v>3.5</v>
+      </c>
+      <c r="M422">
+        <v>3.1</v>
+      </c>
+      <c r="N422">
+        <v>2.55</v>
+      </c>
+      <c r="O422">
+        <v>3.3</v>
+      </c>
+      <c r="P422">
+        <v>2.75</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>1.85</v>
+      </c>
+      <c r="S422">
+        <v>2</v>
+      </c>
+      <c r="T422">
+        <v>2.5</v>
+      </c>
+      <c r="U422">
+        <v>1.875</v>
+      </c>
+      <c r="V422">
+        <v>1.975</v>
+      </c>
+      <c r="W422">
+        <v>-1</v>
+      </c>
+      <c r="X422">
+        <v>-1</v>
+      </c>
+      <c r="Y422">
+        <v>1.75</v>
+      </c>
+      <c r="Z422">
+        <v>-1</v>
+      </c>
+      <c r="AA422">
         <v>1</v>
       </c>
-      <c r="I422">
-        <v>1</v>
-      </c>
-      <c r="J422" t="s">
-        <v>44</v>
-      </c>
-      <c r="K422">
-        <v>4.75</v>
-      </c>
-      <c r="L422">
-        <v>3.6</v>
-      </c>
-      <c r="M422">
-        <v>1.727</v>
-      </c>
-      <c r="N422">
-        <v>5.75</v>
-      </c>
-      <c r="O422">
-        <v>4.2</v>
-      </c>
-      <c r="P422">
-        <v>1.6</v>
-      </c>
-      <c r="Q422">
-        <v>1</v>
-      </c>
-      <c r="R422">
-        <v>1.825</v>
-      </c>
-      <c r="S422">
-        <v>2.025</v>
-      </c>
-      <c r="T422">
-        <v>2.75</v>
-      </c>
-      <c r="U422">
-        <v>1.925</v>
-      </c>
-      <c r="V422">
-        <v>1.925</v>
-      </c>
-      <c r="W422">
-        <v>-1</v>
-      </c>
-      <c r="X422">
-        <v>3.2</v>
-      </c>
-      <c r="Y422">
-        <v>-1</v>
-      </c>
-      <c r="Z422">
-        <v>0.825</v>
-      </c>
-      <c r="AA422">
-        <v>-1</v>
-      </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC422">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5205971</v>
+        <v>5205973</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,76 +38094,76 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L423">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N423">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="O423">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P423">
+        <v>1.6</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="R423">
+        <v>1.825</v>
+      </c>
+      <c r="S423">
+        <v>2.025</v>
+      </c>
+      <c r="T423">
         <v>2.75</v>
       </c>
-      <c r="Q423">
-        <v>0</v>
-      </c>
-      <c r="R423">
-        <v>1.85</v>
-      </c>
-      <c r="S423">
-        <v>2</v>
-      </c>
-      <c r="T423">
-        <v>2.5</v>
-      </c>
       <c r="U423">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y423">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA423">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F424" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G424" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K424">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L424">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M424">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N424">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O424">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q424">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T424">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,76 +38272,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F425" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G425" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J425" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K425">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L425">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M425">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N425">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O425">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P425">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q425">
+        <v>1.25</v>
+      </c>
+      <c r="R425">
+        <v>1.8</v>
+      </c>
+      <c r="S425">
+        <v>2.05</v>
+      </c>
+      <c r="T425">
+        <v>3</v>
+      </c>
+      <c r="U425">
+        <v>1.975</v>
+      </c>
+      <c r="V425">
+        <v>1.875</v>
+      </c>
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
         <v>0.5</v>
       </c>
-      <c r="R425">
-        <v>1.975</v>
-      </c>
-      <c r="S425">
-        <v>1.875</v>
-      </c>
-      <c r="T425">
-        <v>2.5</v>
-      </c>
-      <c r="U425">
-        <v>1.825</v>
-      </c>
-      <c r="V425">
-        <v>2.025</v>
-      </c>
-      <c r="W425">
-        <v>3.2</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
       <c r="Z425">
+        <v>-1</v>
+      </c>
+      <c r="AA425">
+        <v>1.05</v>
+      </c>
+      <c r="AB425">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA425">
-        <v>-1</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
       <c r="AC425">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5205988</v>
+        <v>5207164</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,76 +39874,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F443" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G443" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
         <v>1</v>
       </c>
-      <c r="I443">
-        <v>0</v>
-      </c>
       <c r="J443" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K443">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L443">
         <v>3.6</v>
       </c>
       <c r="M443">
+        <v>4.5</v>
+      </c>
+      <c r="N443">
+        <v>1.7</v>
+      </c>
+      <c r="O443">
         <v>3.8</v>
       </c>
-      <c r="N443">
-        <v>2.15</v>
-      </c>
-      <c r="O443">
-        <v>3.4</v>
-      </c>
       <c r="P443">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q443">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R443">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S443">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T443">
         <v>2.75</v>
       </c>
       <c r="U443">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V443">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W443">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z443">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39951,7 +39951,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5207164</v>
+        <v>5205988</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39963,76 +39963,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G444" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H444">
+        <v>1</v>
+      </c>
+      <c r="I444">
         <v>0</v>
       </c>
-      <c r="I444">
-        <v>1</v>
-      </c>
       <c r="J444" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K444">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L444">
         <v>3.6</v>
       </c>
       <c r="M444">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N444">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O444">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P444">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R444">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S444">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T444">
         <v>2.75</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V444">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA444">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -44045,7 +44045,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>6430237</v>
+        <v>6429786</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44057,76 +44057,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G490" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H490">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K490">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L490">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M490">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N490">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O490">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P490">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q490">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R490">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S490">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T490">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U490">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V490">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W490">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z490">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB490">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC490">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -44134,7 +44134,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6429786</v>
+        <v>6430237</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44146,76 +44146,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F491" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G491" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I491">
         <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K491">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M491">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N491">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O491">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P491">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="Q491">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R491">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S491">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T491">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U491">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V491">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W491">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X491">
         <v>-1</v>
       </c>
       <c r="Y491">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z491">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA491">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB491">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC491">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44401,7 +44401,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44413,55 +44413,55 @@
         <v>45066.5</v>
       </c>
       <c r="F494" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G494" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J494" t="s">
         <v>46</v>
       </c>
       <c r="K494">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L494">
         <v>3.4</v>
       </c>
       <c r="M494">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N494">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O494">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P494">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q494">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R494">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S494">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T494">
         <v>2.75</v>
       </c>
       <c r="U494">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W494">
         <v>-1</v>
@@ -44470,19 +44470,19 @@
         <v>-1</v>
       </c>
       <c r="Y494">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z494">
         <v>-1</v>
       </c>
       <c r="AA494">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB494">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC494">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44490,7 +44490,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44502,55 +44502,55 @@
         <v>45066.5</v>
       </c>
       <c r="F495" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G495" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J495" t="s">
         <v>46</v>
       </c>
       <c r="K495">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L495">
         <v>3.4</v>
       </c>
       <c r="M495">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N495">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O495">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P495">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q495">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S495">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T495">
         <v>2.75</v>
       </c>
       <c r="U495">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V495">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -44559,19 +44559,19 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB495">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC495">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -45380,7 +45380,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45392,76 +45392,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F505" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G505" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I505">
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K505">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L505">
+        <v>3.4</v>
+      </c>
+      <c r="M505">
+        <v>2.55</v>
+      </c>
+      <c r="N505">
         <v>3.75</v>
       </c>
-      <c r="M505">
-        <v>4.2</v>
-      </c>
-      <c r="N505">
-        <v>1.909</v>
-      </c>
       <c r="O505">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P505">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q505">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R505">
+        <v>1.875</v>
+      </c>
+      <c r="S505">
+        <v>1.975</v>
+      </c>
+      <c r="T505">
+        <v>2.75</v>
+      </c>
+      <c r="U505">
+        <v>1.9</v>
+      </c>
+      <c r="V505">
         <v>1.95</v>
       </c>
-      <c r="S505">
-        <v>1.9</v>
-      </c>
-      <c r="T505">
-        <v>3.25</v>
-      </c>
-      <c r="U505">
-        <v>2.025</v>
-      </c>
-      <c r="V505">
-        <v>1.825</v>
-      </c>
       <c r="W505">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X505">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA505">
+        <v>-1</v>
+      </c>
+      <c r="AB505">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB505">
-        <v>-1</v>
-      </c>
       <c r="AC505">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F506" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G506" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H506">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J506" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K506">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N506">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O506">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P506">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q506">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R506">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S506">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T506">
         <v>2.75</v>
       </c>
       <c r="U506">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V506">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W506">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z506">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB506">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC506">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F507" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G507" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K507">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L507">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M507">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N507">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O507">
+        <v>3.75</v>
+      </c>
+      <c r="P507">
         <v>3.8</v>
       </c>
-      <c r="P507">
-        <v>2.3</v>
-      </c>
       <c r="Q507">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R507">
+        <v>1.95</v>
+      </c>
+      <c r="S507">
+        <v>1.9</v>
+      </c>
+      <c r="T507">
+        <v>3.25</v>
+      </c>
+      <c r="U507">
+        <v>2.025</v>
+      </c>
+      <c r="V507">
         <v>1.825</v>
       </c>
-      <c r="S507">
-        <v>2.025</v>
-      </c>
-      <c r="T507">
+      <c r="W507">
+        <v>-1</v>
+      </c>
+      <c r="X507">
         <v>2.75</v>
       </c>
-      <c r="U507">
-        <v>1.925</v>
-      </c>
-      <c r="V507">
-        <v>1.925</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
-      <c r="X507">
-        <v>-1</v>
-      </c>
       <c r="Y507">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB507">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -46003,7 +46003,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46015,73 +46015,73 @@
         <v>45136.5</v>
       </c>
       <c r="F512" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G512" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H512">
+        <v>2</v>
+      </c>
+      <c r="I512">
         <v>1</v>
       </c>
-      <c r="I512">
-        <v>3</v>
-      </c>
       <c r="J512" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K512">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L512">
+        <v>3.5</v>
+      </c>
+      <c r="M512">
+        <v>3.5</v>
+      </c>
+      <c r="N512">
+        <v>2.2</v>
+      </c>
+      <c r="O512">
         <v>3.4</v>
       </c>
-      <c r="M512">
-        <v>3.1</v>
-      </c>
-      <c r="N512">
-        <v>2.3</v>
-      </c>
-      <c r="O512">
-        <v>3.6</v>
-      </c>
       <c r="P512">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q512">
         <v>-0.25</v>
       </c>
       <c r="R512">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S512">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T512">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U512">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V512">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W512">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X512">
         <v>-1</v>
       </c>
       <c r="Y512">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z512">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA512">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB512">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC512">
         <v>-1</v>
@@ -46092,7 +46092,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46104,73 +46104,73 @@
         <v>45136.5</v>
       </c>
       <c r="F513" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G513" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H513">
         <v>2</v>
       </c>
       <c r="I513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J513" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K513">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L513">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M513">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N513">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O513">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P513">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q513">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R513">
+        <v>1.875</v>
+      </c>
+      <c r="S513">
         <v>1.975</v>
       </c>
-      <c r="S513">
-        <v>1.875</v>
-      </c>
       <c r="T513">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U513">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V513">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W513">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X513">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y513">
         <v>-1</v>
       </c>
       <c r="Z513">
+        <v>-1</v>
+      </c>
+      <c r="AA513">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA513">
-        <v>-1</v>
-      </c>
       <c r="AB513">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46181,7 +46181,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6847026</v>
+        <v>6847027</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46193,73 +46193,73 @@
         <v>45136.5</v>
       </c>
       <c r="F514" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G514" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J514" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K514">
         <v>2.1</v>
       </c>
       <c r="L514">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M514">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N514">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O514">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P514">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q514">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R514">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S514">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T514">
         <v>2.75</v>
       </c>
       <c r="U514">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V514">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W514">
         <v>-1</v>
       </c>
       <c r="X514">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y514">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB514">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC514">
         <v>-1</v>
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6847032</v>
+        <v>6851963</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,40 +46638,40 @@
         <v>45144.5</v>
       </c>
       <c r="F519" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G519" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J519" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K519">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L519">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M519">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N519">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O519">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P519">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q519">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
         <v>1.975</v>
@@ -46680,34 +46680,34 @@
         <v>1.875</v>
       </c>
       <c r="T519">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U519">
+        <v>1.9</v>
+      </c>
+      <c r="V519">
         <v>1.95</v>
       </c>
-      <c r="V519">
-        <v>1.9</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y519">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC519">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46715,7 +46715,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46727,76 +46727,76 @@
         <v>45144.5</v>
       </c>
       <c r="F520" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G520" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>2</v>
+      </c>
+      <c r="J520" t="s">
+        <v>46</v>
+      </c>
+      <c r="K520">
+        <v>4.2</v>
+      </c>
+      <c r="L520">
+        <v>4</v>
+      </c>
+      <c r="M520">
+        <v>1.75</v>
+      </c>
+      <c r="N520">
+        <v>3.75</v>
+      </c>
+      <c r="O520">
+        <v>3.8</v>
+      </c>
+      <c r="P520">
+        <v>1.909</v>
+      </c>
+      <c r="Q520">
+        <v>0.5</v>
+      </c>
+      <c r="R520">
+        <v>1.975</v>
+      </c>
+      <c r="S520">
+        <v>1.875</v>
+      </c>
+      <c r="T520">
         <v>3</v>
       </c>
-      <c r="I520">
-        <v>0</v>
-      </c>
-      <c r="J520" t="s">
-        <v>45</v>
-      </c>
-      <c r="K520">
-        <v>1.142</v>
-      </c>
-      <c r="L520">
-        <v>8</v>
-      </c>
-      <c r="M520">
-        <v>17</v>
-      </c>
-      <c r="N520">
-        <v>1.166</v>
-      </c>
-      <c r="O520">
-        <v>7.5</v>
-      </c>
-      <c r="P520">
-        <v>15</v>
-      </c>
-      <c r="Q520">
-        <v>-2.25</v>
-      </c>
-      <c r="R520">
+      <c r="U520">
         <v>1.95</v>
       </c>
-      <c r="S520">
+      <c r="V520">
         <v>1.9</v>
       </c>
-      <c r="T520">
-        <v>3.75</v>
-      </c>
-      <c r="U520">
-        <v>1.925</v>
-      </c>
-      <c r="V520">
-        <v>1.925</v>
-      </c>
       <c r="W520">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z520">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46804,7 +46804,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46816,76 +46816,76 @@
         <v>45144.5</v>
       </c>
       <c r="F521" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G521" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H521">
         <v>3</v>
       </c>
       <c r="I521">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J521" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K521">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L521">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M521">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N521">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O521">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P521">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R521">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S521">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T521">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U521">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X521">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y521">
         <v>-1</v>
       </c>
       <c r="Z521">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA521">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC521">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -47783,7 +47783,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>6847040</v>
+        <v>6846461</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47795,76 +47795,76 @@
         <v>45158.5</v>
       </c>
       <c r="F532" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G532" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J532" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K532">
+        <v>9.5</v>
+      </c>
+      <c r="L532">
+        <v>4.8</v>
+      </c>
+      <c r="M532">
+        <v>1.3</v>
+      </c>
+      <c r="N532">
+        <v>5.75</v>
+      </c>
+      <c r="O532">
+        <v>4.2</v>
+      </c>
+      <c r="P532">
+        <v>1.55</v>
+      </c>
+      <c r="Q532">
+        <v>1</v>
+      </c>
+      <c r="R532">
+        <v>1.9</v>
+      </c>
+      <c r="S532">
+        <v>1.95</v>
+      </c>
+      <c r="T532">
+        <v>3</v>
+      </c>
+      <c r="U532">
         <v>1.85</v>
       </c>
-      <c r="L532">
-        <v>3.6</v>
-      </c>
-      <c r="M532">
-        <v>3.8</v>
-      </c>
-      <c r="N532">
-        <v>2</v>
-      </c>
-      <c r="O532">
-        <v>3.4</v>
-      </c>
-      <c r="P532">
-        <v>3.6</v>
-      </c>
-      <c r="Q532">
-        <v>-0.5</v>
-      </c>
-      <c r="R532">
-        <v>2.025</v>
-      </c>
-      <c r="S532">
-        <v>1.825</v>
-      </c>
-      <c r="T532">
-        <v>2.75</v>
-      </c>
-      <c r="U532">
-        <v>1.875</v>
-      </c>
       <c r="V532">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W532">
         <v>-1</v>
       </c>
       <c r="X532">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC532">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47872,7 +47872,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6846461</v>
+        <v>6851961</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47884,13 +47884,13 @@
         <v>45158.5</v>
       </c>
       <c r="F533" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G533" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533">
         <v>5</v>
@@ -47899,58 +47899,58 @@
         <v>46</v>
       </c>
       <c r="K533">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="L533">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M533">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N533">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O533">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P533">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q533">
+        <v>0.5</v>
+      </c>
+      <c r="R533">
+        <v>1.85</v>
+      </c>
+      <c r="S533">
+        <v>2</v>
+      </c>
+      <c r="T533">
+        <v>2.75</v>
+      </c>
+      <c r="U533">
+        <v>1.925</v>
+      </c>
+      <c r="V533">
+        <v>1.925</v>
+      </c>
+      <c r="W533">
+        <v>-1</v>
+      </c>
+      <c r="X533">
+        <v>-1</v>
+      </c>
+      <c r="Y533">
+        <v>0.95</v>
+      </c>
+      <c r="Z533">
+        <v>-1</v>
+      </c>
+      <c r="AA533">
         <v>1</v>
       </c>
-      <c r="R533">
-        <v>1.9</v>
-      </c>
-      <c r="S533">
-        <v>1.95</v>
-      </c>
-      <c r="T533">
-        <v>3</v>
-      </c>
-      <c r="U533">
-        <v>1.85</v>
-      </c>
-      <c r="V533">
-        <v>2</v>
-      </c>
-      <c r="W533">
-        <v>-1</v>
-      </c>
-      <c r="X533">
-        <v>-1</v>
-      </c>
-      <c r="Y533">
-        <v>0.55</v>
-      </c>
-      <c r="Z533">
-        <v>-1</v>
-      </c>
-      <c r="AA533">
-        <v>0.95</v>
-      </c>
       <c r="AB533">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC533">
         <v>-1</v>
@@ -47961,7 +47961,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6851961</v>
+        <v>6847040</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47973,76 +47973,76 @@
         <v>45158.5</v>
       </c>
       <c r="F534" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G534" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H534">
         <v>0</v>
       </c>
       <c r="I534">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K534">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L534">
+        <v>3.6</v>
+      </c>
+      <c r="M534">
         <v>3.8</v>
       </c>
-      <c r="M534">
-        <v>1.7</v>
-      </c>
       <c r="N534">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O534">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P534">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q534">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S534">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V534">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W534">
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y534">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
         <v>-1</v>
       </c>
       <c r="AA534">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB534">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -49919,7 +49919,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C556" t="s">
         <v>28</v>
@@ -49931,76 +49931,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F556" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G556" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J556" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K556">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L556">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M556">
+        <v>5</v>
+      </c>
+      <c r="N556">
+        <v>1.727</v>
+      </c>
+      <c r="O556">
+        <v>4</v>
+      </c>
+      <c r="P556">
+        <v>4.5</v>
+      </c>
+      <c r="Q556">
+        <v>-0.75</v>
+      </c>
+      <c r="R556">
         <v>1.95</v>
       </c>
-      <c r="N556">
+      <c r="S556">
+        <v>1.9</v>
+      </c>
+      <c r="T556">
+        <v>2.75</v>
+      </c>
+      <c r="U556">
+        <v>1.8</v>
+      </c>
+      <c r="V556">
+        <v>2.05</v>
+      </c>
+      <c r="W556">
+        <v>-1</v>
+      </c>
+      <c r="X556">
         <v>3</v>
       </c>
-      <c r="O556">
-        <v>3.3</v>
-      </c>
-      <c r="P556">
-        <v>2.4</v>
-      </c>
-      <c r="Q556">
-        <v>0</v>
-      </c>
-      <c r="R556">
-        <v>2.1</v>
-      </c>
-      <c r="S556">
-        <v>1.775</v>
-      </c>
-      <c r="T556">
-        <v>2.5</v>
-      </c>
-      <c r="U556">
-        <v>1.925</v>
-      </c>
-      <c r="V556">
-        <v>1.925</v>
-      </c>
-      <c r="W556">
-        <v>2</v>
-      </c>
-      <c r="X556">
-        <v>-1</v>
-      </c>
       <c r="Y556">
         <v>-1</v>
       </c>
       <c r="Z556">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA556">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB556">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC556">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="557" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,76 +50020,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F557" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G557" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H557">
+        <v>2</v>
+      </c>
+      <c r="I557">
+        <v>1</v>
+      </c>
+      <c r="J557" t="s">
+        <v>45</v>
+      </c>
+      <c r="K557">
+        <v>3.75</v>
+      </c>
+      <c r="L557">
+        <v>3.5</v>
+      </c>
+      <c r="M557">
+        <v>1.95</v>
+      </c>
+      <c r="N557">
+        <v>3</v>
+      </c>
+      <c r="O557">
+        <v>3.3</v>
+      </c>
+      <c r="P557">
+        <v>2.4</v>
+      </c>
+      <c r="Q557">
         <v>0</v>
       </c>
-      <c r="I557">
-        <v>0</v>
-      </c>
-      <c r="J557" t="s">
-        <v>44</v>
-      </c>
-      <c r="K557">
-        <v>1.571</v>
-      </c>
-      <c r="L557">
-        <v>4.333</v>
-      </c>
-      <c r="M557">
-        <v>5</v>
-      </c>
-      <c r="N557">
-        <v>1.727</v>
-      </c>
-      <c r="O557">
-        <v>4</v>
-      </c>
-      <c r="P557">
-        <v>4.5</v>
-      </c>
-      <c r="Q557">
-        <v>-0.75</v>
-      </c>
       <c r="R557">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S557">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T557">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V557">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X557">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA557">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB557">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC557">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -51254,7 +51254,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51266,76 +51266,76 @@
         <v>45220.5</v>
       </c>
       <c r="F571" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G571" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K571">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M571">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N571">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O571">
         <v>4</v>
       </c>
       <c r="P571">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q571">
         <v>-0.75</v>
       </c>
       <c r="R571">
+        <v>1.925</v>
+      </c>
+      <c r="S571">
+        <v>1.925</v>
+      </c>
+      <c r="T571">
+        <v>2.5</v>
+      </c>
+      <c r="U571">
         <v>1.825</v>
       </c>
-      <c r="S571">
+      <c r="V571">
         <v>2.025</v>
       </c>
-      <c r="T571">
-        <v>2.75</v>
-      </c>
-      <c r="U571">
-        <v>1.875</v>
-      </c>
-      <c r="V571">
-        <v>1.975</v>
-      </c>
       <c r="W571">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X571">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA571">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC571">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51343,7 +51343,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51355,76 +51355,76 @@
         <v>45220.5</v>
       </c>
       <c r="F572" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G572" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K572">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L572">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N572">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O572">
         <v>4</v>
       </c>
       <c r="P572">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q572">
         <v>-0.75</v>
       </c>
       <c r="R572">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S572">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T572">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U572">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V572">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W572">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X572">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB572">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51521,7 +51521,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6847068</v>
+        <v>6847069</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51533,40 +51533,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F574" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G574" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H574">
         <v>0</v>
       </c>
       <c r="I574">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J574" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K574">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L574">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M574">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N574">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O574">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P574">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q574">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R574">
         <v>1.85</v>
@@ -51575,7 +51575,7 @@
         <v>2</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U574">
         <v>2</v>
@@ -51587,16 +51587,16 @@
         <v>-1</v>
       </c>
       <c r="X574">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y574">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z574">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA574">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB574">
         <v>-1</v>
@@ -51610,7 +51610,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6847069</v>
+        <v>6847068</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51622,40 +51622,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F575" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G575" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H575">
         <v>0</v>
       </c>
       <c r="I575">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J575" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K575">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L575">
+        <v>3.4</v>
+      </c>
+      <c r="M575">
+        <v>2.4</v>
+      </c>
+      <c r="N575">
+        <v>2.5</v>
+      </c>
+      <c r="O575">
         <v>3.6</v>
       </c>
-      <c r="M575">
-        <v>1.95</v>
-      </c>
-      <c r="N575">
-        <v>3.8</v>
-      </c>
-      <c r="O575">
-        <v>4.2</v>
-      </c>
       <c r="P575">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q575">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R575">
         <v>1.85</v>
@@ -51664,7 +51664,7 @@
         <v>2</v>
       </c>
       <c r="T575">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U575">
         <v>2</v>
@@ -51676,16 +51676,16 @@
         <v>-1</v>
       </c>
       <c r="X575">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y575">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA575">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB575">
         <v>-1</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -30428,7 +30428,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>5205901</v>
+        <v>5205902</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30440,40 +30440,40 @@
         <v>44786.5</v>
       </c>
       <c r="F337" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>45</v>
       </c>
       <c r="K337">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M337">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N337">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O337">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
         <v>2.025</v>
@@ -30482,7 +30482,7 @@
         <v>1.825</v>
       </c>
       <c r="T337">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U337">
         <v>1.85</v>
@@ -30491,7 +30491,7 @@
         <v>2</v>
       </c>
       <c r="W337">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30500,16 +30500,16 @@
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30517,7 +30517,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5205902</v>
+        <v>5205901</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30529,40 +30529,40 @@
         <v>44786.5</v>
       </c>
       <c r="F338" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G338" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H338">
+        <v>2</v>
+      </c>
+      <c r="I338">
         <v>1</v>
-      </c>
-      <c r="I338">
-        <v>0</v>
       </c>
       <c r="J338" t="s">
         <v>45</v>
       </c>
       <c r="K338">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L338">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N338">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O338">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P338">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q338">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R338">
         <v>2.025</v>
@@ -30571,7 +30571,7 @@
         <v>1.825</v>
       </c>
       <c r="T338">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U338">
         <v>1.85</v>
@@ -30580,7 +30580,7 @@
         <v>2</v>
       </c>
       <c r="W338">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30589,16 +30589,16 @@
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC338">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30695,7 +30695,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>5207181</v>
+        <v>5205904</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30707,13 +30707,13 @@
         <v>44787.5</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G340" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I340">
         <v>1</v>
@@ -30722,25 +30722,25 @@
         <v>45</v>
       </c>
       <c r="K340">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="L340">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M340">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N340">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P340">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q340">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R340">
         <v>2.05</v>
@@ -30749,16 +30749,16 @@
         <v>1.8</v>
       </c>
       <c r="T340">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U340">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V340">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W340">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X340">
         <v>-1</v>
@@ -30767,16 +30767,16 @@
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB340">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30784,7 +30784,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>5205904</v>
+        <v>5207181</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30796,13 +30796,13 @@
         <v>44787.5</v>
       </c>
       <c r="F341" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I341">
         <v>1</v>
@@ -30811,25 +30811,25 @@
         <v>45</v>
       </c>
       <c r="K341">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="L341">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M341">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N341">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O341">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P341">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q341">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R341">
         <v>2.05</v>
@@ -30838,16 +30838,16 @@
         <v>1.8</v>
       </c>
       <c r="T341">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U341">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V341">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W341">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X341">
         <v>-1</v>
@@ -30856,16 +30856,16 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA341">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC341">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31229,7 +31229,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>5205909</v>
+        <v>5205910</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31241,10 +31241,10 @@
         <v>44794.5</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31256,40 +31256,40 @@
         <v>46</v>
       </c>
       <c r="K346">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O346">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P346">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q346">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S346">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W346">
         <v>-1</v>
@@ -31298,16 +31298,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z346">
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB346">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AC346">
         <v>-0.5</v>
@@ -31318,7 +31318,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5205910</v>
+        <v>5205909</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31330,10 +31330,10 @@
         <v>44794.5</v>
       </c>
       <c r="F347" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31345,40 +31345,40 @@
         <v>46</v>
       </c>
       <c r="K347">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N347">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O347">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
         <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V347">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -31387,16 +31387,16 @@
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB347">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AC347">
         <v>-0.5</v>
@@ -32475,7 +32475,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>5205923</v>
+        <v>5205922</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32487,13 +32487,13 @@
         <v>44814.5</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360">
         <v>3</v>
@@ -32502,40 +32502,40 @@
         <v>46</v>
       </c>
       <c r="K360">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="L360">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M360">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N360">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="O360">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P360">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q360">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R360">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T360">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32544,19 +32544,19 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB360">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC360">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32564,7 +32564,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>5205922</v>
+        <v>5205923</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32576,13 +32576,13 @@
         <v>44814.5</v>
       </c>
       <c r="F361" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G361" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361">
         <v>3</v>
@@ -32591,40 +32591,40 @@
         <v>46</v>
       </c>
       <c r="K361">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L361">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M361">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="N361">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="O361">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P361">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q361">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U361">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32633,19 +32633,19 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>2.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z361">
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB361">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5205928</v>
+        <v>5205927</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,73 +33021,73 @@
         <v>44821.5</v>
       </c>
       <c r="F366" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G366" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J366" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K366">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L366">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M366">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N366">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O366">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P366">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S366">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T366">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W366">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB366">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33098,7 +33098,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5205927</v>
+        <v>5205928</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33110,73 +33110,73 @@
         <v>44821.5</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
         <v>1</v>
       </c>
-      <c r="I367">
+      <c r="J367" t="s">
+        <v>45</v>
+      </c>
+      <c r="K367">
+        <v>1.666</v>
+      </c>
+      <c r="L367">
         <v>4</v>
       </c>
-      <c r="J367" t="s">
-        <v>46</v>
-      </c>
-      <c r="K367">
-        <v>1.363</v>
-      </c>
-      <c r="L367">
-        <v>5</v>
-      </c>
       <c r="M367">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O367">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P367">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q367">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T367">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA367">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -49741,7 +49741,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6851957</v>
+        <v>6847054</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49753,76 +49753,76 @@
         <v>45192.5</v>
       </c>
       <c r="F554" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G554" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H554">
+        <v>1</v>
+      </c>
+      <c r="I554">
         <v>0</v>
       </c>
-      <c r="I554">
-        <v>1</v>
-      </c>
       <c r="J554" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K554">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="L554">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M554">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="N554">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O554">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P554">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q554">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R554">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S554">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T554">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U554">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V554">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W554">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X554">
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z554">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA554">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB554">
         <v>-1</v>
       </c>
       <c r="AC554">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="555" spans="1:29">
@@ -49830,7 +49830,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>6847054</v>
+        <v>6851957</v>
       </c>
       <c r="C555" t="s">
         <v>28</v>
@@ -49842,76 +49842,76 @@
         <v>45192.5</v>
       </c>
       <c r="F555" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G555" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H555">
+        <v>0</v>
+      </c>
+      <c r="I555">
         <v>1</v>
       </c>
-      <c r="I555">
-        <v>0</v>
-      </c>
       <c r="J555" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K555">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L555">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M555">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N555">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O555">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P555">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q555">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R555">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S555">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T555">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U555">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V555">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W555">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X555">
         <v>-1</v>
       </c>
       <c r="Y555">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z555">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA555">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB555">
         <v>-1</v>
       </c>
       <c r="AC555">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="556" spans="1:29">
@@ -50720,7 +50720,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>6847065</v>
+        <v>6851955</v>
       </c>
       <c r="C565" t="s">
         <v>28</v>
@@ -50732,13 +50732,13 @@
         <v>45206.5</v>
       </c>
       <c r="F565" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G565" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H565">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I565">
         <v>0</v>
@@ -50747,43 +50747,43 @@
         <v>45</v>
       </c>
       <c r="K565">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L565">
+        <v>3.75</v>
+      </c>
+      <c r="M565">
+        <v>4.5</v>
+      </c>
+      <c r="N565">
+        <v>1.909</v>
+      </c>
+      <c r="O565">
         <v>3.6</v>
       </c>
-      <c r="M565">
-        <v>4.333</v>
-      </c>
-      <c r="N565">
-        <v>1.571</v>
-      </c>
-      <c r="O565">
-        <v>4.333</v>
-      </c>
       <c r="P565">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q565">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R565">
+        <v>1.9</v>
+      </c>
+      <c r="S565">
         <v>1.95</v>
       </c>
-      <c r="S565">
-        <v>1.9</v>
-      </c>
       <c r="T565">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U565">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V565">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W565">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X565">
         <v>-1</v>
@@ -50792,16 +50792,16 @@
         <v>-1</v>
       </c>
       <c r="Z565">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA565">
         <v>-1</v>
       </c>
       <c r="AB565">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC565">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566" spans="1:29">
@@ -50809,7 +50809,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>6847064</v>
+        <v>6847065</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -50821,76 +50821,76 @@
         <v>45206.5</v>
       </c>
       <c r="F566" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G566" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H566">
+        <v>3</v>
+      </c>
+      <c r="I566">
         <v>0</v>
       </c>
-      <c r="I566">
-        <v>5</v>
-      </c>
       <c r="J566" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K566">
+        <v>1.8</v>
+      </c>
+      <c r="L566">
+        <v>3.6</v>
+      </c>
+      <c r="M566">
+        <v>4.333</v>
+      </c>
+      <c r="N566">
+        <v>1.571</v>
+      </c>
+      <c r="O566">
+        <v>4.333</v>
+      </c>
+      <c r="P566">
         <v>5.5</v>
       </c>
-      <c r="L566">
-        <v>4</v>
-      </c>
-      <c r="M566">
-        <v>1.571</v>
-      </c>
-      <c r="N566">
-        <v>7</v>
-      </c>
-      <c r="O566">
-        <v>5</v>
-      </c>
-      <c r="P566">
-        <v>1.4</v>
-      </c>
       <c r="Q566">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R566">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S566">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T566">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U566">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V566">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W566">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X566">
         <v>-1</v>
       </c>
       <c r="Y566">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z566">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA566">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB566">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC566">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="567" spans="1:29">
@@ -50898,7 +50898,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>6851955</v>
+        <v>6847064</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50910,73 +50910,73 @@
         <v>45206.5</v>
       </c>
       <c r="F567" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G567" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H567">
+        <v>0</v>
+      </c>
+      <c r="I567">
+        <v>5</v>
+      </c>
+      <c r="J567" t="s">
+        <v>46</v>
+      </c>
+      <c r="K567">
+        <v>5.5</v>
+      </c>
+      <c r="L567">
         <v>4</v>
       </c>
-      <c r="I567">
-        <v>0</v>
-      </c>
-      <c r="J567" t="s">
-        <v>45</v>
-      </c>
-      <c r="K567">
-        <v>1.727</v>
-      </c>
-      <c r="L567">
-        <v>3.75</v>
-      </c>
       <c r="M567">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="N567">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="O567">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P567">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q567">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R567">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S567">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T567">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U567">
+        <v>2.025</v>
+      </c>
+      <c r="V567">
         <v>1.825</v>
       </c>
-      <c r="V567">
-        <v>2.025</v>
-      </c>
       <c r="W567">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X567">
         <v>-1</v>
       </c>
       <c r="Y567">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z567">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA567">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB567">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC567">
         <v>-1</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5205978</v>
+        <v>5205979</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44982.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.8</v>
+      </c>
+      <c r="V15">
         <v>2.05</v>
       </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.925</v>
-      </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5205979</v>
+        <v>5205978</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44982.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205984</v>
+        <v>5207165</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,46 +2221,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>5.75</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>1.571</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>1.533</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
-      <c r="M20">
-        <v>2.3</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>2.3</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
@@ -2272,25 +2272,25 @@
         <v>2.025</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5207165</v>
+        <v>5205984</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,46 +2310,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>2.5</v>
@@ -2361,25 +2361,25 @@
         <v>2.025</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5205981</v>
+        <v>5205985</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
         <v>3.6</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5205985</v>
+        <v>5205981</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
         <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N24">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
         <v>3.6</v>
       </c>
       <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5207164</v>
+        <v>5205987</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,49 +2755,49 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
+        <v>1.7</v>
+      </c>
+      <c r="L26">
+        <v>3.8</v>
+      </c>
+      <c r="M26">
+        <v>4.75</v>
+      </c>
+      <c r="N26">
         <v>1.75</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>3.6</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>4.5</v>
-      </c>
-      <c r="N26">
-        <v>1.7</v>
-      </c>
-      <c r="O26">
-        <v>3.8</v>
-      </c>
-      <c r="P26">
-        <v>5.25</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
         <v>1.9</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
         <v>1.925</v>
@@ -2806,25 +2806,25 @@
         <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5205986</v>
+        <v>5205988</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,46 +2844,46 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
+        <v>3.3</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
         <v>1.85</v>
       </c>
-      <c r="Q27">
-        <v>0.5</v>
-      </c>
-      <c r="R27">
-        <v>1.975</v>
-      </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2895,19 +2895,19 @@
         <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205990</v>
+        <v>5205989</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M28">
+        <v>5.25</v>
+      </c>
+      <c r="N28">
+        <v>1.6</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>5.75</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+      <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>2.4</v>
-      </c>
-      <c r="O28">
-        <v>3.3</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
-      <c r="R28">
-        <v>2.1</v>
-      </c>
-      <c r="S28">
-        <v>1.775</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5205989</v>
+        <v>5205990</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>2.1</v>
+      </c>
+      <c r="S29">
+        <v>1.775</v>
+      </c>
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+      <c r="U29">
         <v>1.975</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2.025</v>
-      </c>
-      <c r="V29">
-        <v>1.825</v>
-      </c>
       <c r="W29">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB29">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205988</v>
+        <v>5207164</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
+        <v>4.5</v>
+      </c>
+      <c r="N30">
+        <v>1.7</v>
+      </c>
+      <c r="O30">
         <v>3.8</v>
       </c>
-      <c r="N30">
-        <v>2.15</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
       <c r="P30">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5205987</v>
+        <v>5205986</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
         <v>3.6</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5205991</v>
+        <v>5207163</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,76 +3289,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N32">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="Q32">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X32">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5205994</v>
+        <v>5205993</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
+        <v>2.6</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.975</v>
+      </c>
+      <c r="S33">
+        <v>1.875</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="Q33">
-        <v>0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.925</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.925</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5205995</v>
+        <v>5205992</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,76 +3467,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N34">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5207163</v>
+        <v>5205994</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,73 +3556,73 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="N35">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5205993</v>
+        <v>5205991</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
-        <v>2.6</v>
+        <v>17</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5205992</v>
+        <v>5205995</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N37">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6430202</v>
+        <v>6430201</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,10 +3912,10 @@
         <v>45017.5</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3927,43 +3927,43 @@
         <v>42</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6430201</v>
+        <v>6430202</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,10 +4001,10 @@
         <v>45017.5</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4016,43 +4016,43 @@
         <v>42</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6430204</v>
+        <v>6430205</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45024.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
         <v>3.3</v>
       </c>
       <c r="M45">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6430205</v>
+        <v>6430204</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45024.5</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
         <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z46">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6430231</v>
+        <v>6429781</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,73 +4624,73 @@
         <v>45025.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M47">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O47">
+        <v>5.5</v>
+      </c>
+      <c r="P47">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>-1.5</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>1.875</v>
+      </c>
+      <c r="V47">
+        <v>1.975</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>4.5</v>
       </c>
-      <c r="P47">
-        <v>6.5</v>
-      </c>
-      <c r="Q47">
-        <v>-1.25</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.825</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>2.025</v>
-      </c>
-      <c r="W47">
-        <v>0.45</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6429781</v>
+        <v>6430231</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,73 +4713,73 @@
         <v>45025.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L48">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N48">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X48">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6430207</v>
+        <v>6430208</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,73 +4980,73 @@
         <v>45031.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L51">
         <v>3.3</v>
       </c>
       <c r="M51">
+        <v>2.3</v>
+      </c>
+      <c r="N51">
+        <v>2.875</v>
+      </c>
+      <c r="O51">
         <v>3.4</v>
       </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.975</v>
       </c>
-      <c r="V51">
-        <v>1.875</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6430208</v>
+        <v>6430207</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,73 +5069,73 @@
         <v>45031.5</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L52">
         <v>3.3</v>
       </c>
       <c r="M52">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
+        <v>1.975</v>
+      </c>
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="V52">
-        <v>1.975</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6430210</v>
+        <v>6430211</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45038.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57">
+        <v>1.8</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.833</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
+        <v>1.925</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57">
-        <v>2.55</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>2.7</v>
-      </c>
-      <c r="N57">
-        <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>2.875</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.825</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>2.3</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>-0</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6430211</v>
+        <v>6430210</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45038.5</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58">
+        <v>2.55</v>
+      </c>
+      <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>2.7</v>
+      </c>
+      <c r="N58">
+        <v>2.5</v>
+      </c>
+      <c r="O58">
+        <v>3.3</v>
+      </c>
+      <c r="P58">
+        <v>2.875</v>
+      </c>
+      <c r="Q58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58">
-        <v>1.8</v>
-      </c>
-      <c r="L58">
-        <v>3.75</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.833</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
-      <c r="Q58">
+      <c r="R58">
+        <v>1.825</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2.3</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-0</v>
+      </c>
+      <c r="AB58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>3</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6430214</v>
+        <v>6430213</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,16 +6226,16 @@
         <v>45045.5</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
@@ -6247,40 +6247,40 @@
         <v>3.5</v>
       </c>
       <c r="M65">
+        <v>3.3</v>
+      </c>
+      <c r="N65">
+        <v>2.15</v>
+      </c>
+      <c r="O65">
         <v>3.5</v>
       </c>
-      <c r="N65">
-        <v>2.375</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
       <c r="P65">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,13 +6289,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6430213</v>
+        <v>6430214</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,16 +6315,16 @@
         <v>45045.5</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
@@ -6336,40 +6336,40 @@
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q66">
         <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,13 +6378,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6429903</v>
+        <v>6430236</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6802,34 +6802,34 @@
         <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6430236</v>
+        <v>6429903</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
         <v>2</v>
@@ -6891,34 +6891,34 @@
         <v>1.85</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6430220</v>
+        <v>6430219</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45059.5</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
+        <v>-1</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="Z75">
-        <v>-1</v>
-      </c>
-      <c r="AA75">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6430219</v>
+        <v>6430220</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45059.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N76">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6430224</v>
+        <v>6430225</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,10 +8095,10 @@
         <v>45073.5</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8110,43 +8110,43 @@
         <v>42</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.833</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,7 +8155,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6430226</v>
+        <v>6430224</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.5</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.3</v>
+      </c>
+      <c r="N87">
+        <v>2.1</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>3.3</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>1.1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.875</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>44</v>
-      </c>
-      <c r="K87">
-        <v>2.2</v>
-      </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>3.1</v>
-      </c>
-      <c r="N87">
-        <v>2.625</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>2.7</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>2.05</v>
-      </c>
-      <c r="V87">
-        <v>1.8</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.4</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6430225</v>
+        <v>6430226</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45073.5</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88">
+        <v>2.2</v>
+      </c>
+      <c r="L88">
+        <v>3.3</v>
+      </c>
+      <c r="M88">
+        <v>3.1</v>
+      </c>
+      <c r="N88">
+        <v>2.625</v>
+      </c>
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
+        <v>2.7</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>42</v>
-      </c>
-      <c r="K88">
-        <v>2.15</v>
-      </c>
-      <c r="L88">
-        <v>3.4</v>
-      </c>
-      <c r="M88">
-        <v>3.2</v>
-      </c>
-      <c r="N88">
-        <v>1.833</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6430228</v>
+        <v>6430227</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6430229</v>
+        <v>6430228</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N93">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.925</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>1.3</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>1.025</v>
+      </c>
+      <c r="AB93">
+        <v>0.4625</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>2.75</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
-      <c r="AA93">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6430227</v>
+        <v>6430229</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
+        <v>1.909</v>
+      </c>
+      <c r="O94">
         <v>3.75</v>
       </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
       <c r="P94">
+        <v>3.8</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
         <v>1.95</v>
       </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.875</v>
-      </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>2.025</v>
+      </c>
+      <c r="V94">
+        <v>1.825</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.75</v>
       </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
-      <c r="W94">
-        <v>2.75</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6429789</v>
+        <v>6430240</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,67 +8896,67 @@
         <v>45080.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
         <v>4</v>
       </c>
       <c r="M95">
+        <v>3.8</v>
+      </c>
+      <c r="N95">
         <v>1.727</v>
       </c>
-      <c r="N95">
-        <v>3.6</v>
-      </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8965,7 +8965,7 @@
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6430240</v>
+        <v>6429789</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,67 +8985,67 @@
         <v>45080.5</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L96">
         <v>4</v>
       </c>
       <c r="M96">
+        <v>1.727</v>
+      </c>
+      <c r="N96">
+        <v>3.6</v>
+      </c>
+      <c r="O96">
         <v>3.8</v>
       </c>
-      <c r="N96">
-        <v>1.727</v>
-      </c>
-      <c r="O96">
-        <v>4.333</v>
-      </c>
       <c r="P96">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
         <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -9054,7 +9054,7 @@
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,73 +9252,73 @@
         <v>45136.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
         <v>3.25</v>
       </c>
-      <c r="M99">
-        <v>3.25</v>
-      </c>
-      <c r="N99">
-        <v>1.833</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>4.2</v>
-      </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45136.5</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
         <v>1.975</v>
       </c>
-      <c r="S101">
-        <v>1.875</v>
-      </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6846459</v>
+        <v>6851963</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.5</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="L106">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N106">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q106">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.875</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.75</v>
-      </c>
-      <c r="U106">
-        <v>1.925</v>
-      </c>
-      <c r="V106">
-        <v>1.925</v>
-      </c>
       <c r="W106">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P107">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6847034</v>
+        <v>6847033</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,62 +10231,62 @@
         <v>45150.5</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>44</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N110">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>7.5</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.925</v>
+      </c>
+      <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>4</v>
       </c>
-      <c r="P110">
-        <v>4.5</v>
-      </c>
-      <c r="Q110">
-        <v>-0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2.05</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>3</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
@@ -10294,13 +10294,13 @@
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6847033</v>
+        <v>6847034</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,62 +10320,62 @@
         <v>45150.5</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>44</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.8</v>
+      </c>
+      <c r="V111">
+        <v>2.05</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>3</v>
       </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>4</v>
-      </c>
       <c r="Y111">
         <v>-1</v>
       </c>
@@ -10383,13 +10383,13 @@
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6847036</v>
+        <v>6847035</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45151.5</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
+        <v>3.8</v>
+      </c>
+      <c r="Q113">
+        <v>-0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.925</v>
+      </c>
+      <c r="T113">
         <v>3</v>
       </c>
-      <c r="Q113">
-        <v>-0.25</v>
-      </c>
-      <c r="R113">
-        <v>2.05</v>
-      </c>
-      <c r="S113">
-        <v>1.8</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N115">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,67 +10765,67 @@
         <v>45157.5</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
+        <v>1.363</v>
+      </c>
+      <c r="Q116">
         <v>1.5</v>
       </c>
-      <c r="Q116">
-        <v>1.25</v>
-      </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10834,7 +10834,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,67 +10854,67 @@
         <v>45157.5</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.95</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117">
         <v>4.333</v>
       </c>
-      <c r="M117">
+      <c r="P117">
         <v>1.5</v>
       </c>
-      <c r="N117">
-        <v>8.5</v>
-      </c>
-      <c r="O117">
-        <v>4.75</v>
-      </c>
-      <c r="P117">
-        <v>1.363</v>
-      </c>
       <c r="Q117">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y117">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10923,7 +10923,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6846461</v>
+        <v>6851961</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,13 +11032,13 @@
         <v>45158.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>5</v>
@@ -11047,58 +11047,58 @@
         <v>43</v>
       </c>
       <c r="K119">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="L119">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M119">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N119">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q119">
+        <v>0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
+        <v>1.925</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>0.95</v>
+      </c>
+      <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
         <v>1</v>
       </c>
-      <c r="R119">
-        <v>1.9</v>
-      </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>1.85</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>0.55</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>0.95</v>
-      </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847040</v>
+        <v>6846461</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45158.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
+        <v>9.5</v>
+      </c>
+      <c r="L120">
+        <v>4.8</v>
+      </c>
+      <c r="M120">
+        <v>1.3</v>
+      </c>
+      <c r="N120">
+        <v>5.75</v>
+      </c>
+      <c r="O120">
+        <v>4.2</v>
+      </c>
+      <c r="P120">
+        <v>1.55</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
-      <c r="P120">
-        <v>3.6</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.875</v>
-      </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6851961</v>
+        <v>6847040</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45158.5</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
         <v>3.8</v>
       </c>
-      <c r="M121">
-        <v>1.7</v>
-      </c>
       <c r="N121">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6851960</v>
+        <v>6846462</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,40 +11299,40 @@
         <v>45164.5</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122">
+        <v>6.5</v>
+      </c>
+      <c r="L122">
+        <v>5.1</v>
+      </c>
+      <c r="M122">
+        <v>1.3</v>
+      </c>
+      <c r="N122">
+        <v>5.75</v>
+      </c>
+      <c r="O122">
+        <v>4.2</v>
+      </c>
+      <c r="P122">
+        <v>1.533</v>
+      </c>
+      <c r="Q122">
         <v>1</v>
-      </c>
-      <c r="J122" t="s">
-        <v>42</v>
-      </c>
-      <c r="K122">
-        <v>1.285</v>
-      </c>
-      <c r="L122">
-        <v>5</v>
-      </c>
-      <c r="M122">
-        <v>7.5</v>
-      </c>
-      <c r="N122">
-        <v>1.333</v>
-      </c>
-      <c r="O122">
-        <v>5.75</v>
-      </c>
-      <c r="P122">
-        <v>7.5</v>
-      </c>
-      <c r="Q122">
-        <v>-1.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11341,34 +11341,34 @@
         <v>1.9</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
         <v>1.975</v>
       </c>
-      <c r="V122">
-        <v>1.875</v>
-      </c>
       <c r="W122">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846462</v>
+        <v>6851960</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,40 +11388,40 @@
         <v>45164.5</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="L123">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N123">
+        <v>1.333</v>
+      </c>
+      <c r="O123">
         <v>5.75</v>
       </c>
-      <c r="O123">
-        <v>4.2</v>
-      </c>
       <c r="P123">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11430,34 +11430,34 @@
         <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45165.5</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
+        <v>2.25</v>
+      </c>
+      <c r="N125">
+        <v>2.1</v>
+      </c>
+      <c r="O125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>3.25</v>
-      </c>
-      <c r="N125">
-        <v>1.85</v>
-      </c>
-      <c r="O125">
-        <v>3.8</v>
-      </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45165.5</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
         <v>0</v>
       </c>
-      <c r="I127">
+      <c r="J127" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127">
+        <v>1.909</v>
+      </c>
+      <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
+        <v>3.25</v>
+      </c>
+      <c r="N127">
+        <v>1.85</v>
+      </c>
+      <c r="O127">
+        <v>3.8</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="J127" t="s">
-        <v>43</v>
-      </c>
-      <c r="K127">
-        <v>2.75</v>
-      </c>
-      <c r="L127">
-        <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.25</v>
-      </c>
-      <c r="N127">
-        <v>2.1</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2.05</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847045</v>
+        <v>6851959</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,40 +11833,40 @@
         <v>45171.5</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>2.025</v>
@@ -11875,7 +11875,7 @@
         <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
         <v>1.9</v>
@@ -11890,7 +11890,7 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6851959</v>
+        <v>6847045</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,40 +11922,40 @@
         <v>45171.5</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
         <v>2.025</v>
@@ -11964,7 +11964,7 @@
         <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
         <v>1.9</v>
@@ -11979,7 +11979,7 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z129">
         <v>-1</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847047</v>
+        <v>6846463</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45172.5</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,25 +12115,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L131">
         <v>4.2</v>
       </c>
       <c r="M131">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N131">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O131">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
         <v>1.85</v>
@@ -12142,7 +12142,7 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
         <v>1.925</v>
@@ -12151,7 +12151,7 @@
         <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6847048</v>
+        <v>6847047</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45172.5</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N132">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6846463</v>
+        <v>6847048</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,76 +12278,76 @@
         <v>45172.5</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
-      <c r="T133">
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>3</v>
       </c>
-      <c r="U133">
-        <v>1.925</v>
-      </c>
-      <c r="V133">
-        <v>1.925</v>
-      </c>
-      <c r="W133">
-        <v>0.5</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847054</v>
+        <v>6847057</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,76 +12990,76 @@
         <v>45192.5</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
+        <v>2.8</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>2.4</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>3.9</v>
+      </c>
+      <c r="P141">
+        <v>2.15</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
         <v>1.95</v>
       </c>
-      <c r="L141">
-        <v>3.5</v>
-      </c>
-      <c r="M141">
-        <v>3.75</v>
-      </c>
-      <c r="N141">
-        <v>1.65</v>
-      </c>
-      <c r="O141">
-        <v>4</v>
-      </c>
-      <c r="P141">
-        <v>5</v>
-      </c>
-      <c r="Q141">
-        <v>-0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.85</v>
-      </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13067,7 +13067,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847057</v>
+        <v>6847054</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,76 +13079,76 @@
         <v>45192.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA142">
+        <v>-0.5</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB142">
-        <v>0.875</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143">
+        <v>3.75</v>
+      </c>
+      <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>1.95</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>3.3</v>
+      </c>
+      <c r="P143">
+        <v>2.4</v>
+      </c>
+      <c r="Q143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143">
-        <v>1.571</v>
-      </c>
-      <c r="L143">
-        <v>4.333</v>
-      </c>
-      <c r="M143">
-        <v>5</v>
-      </c>
-      <c r="N143">
-        <v>1.727</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>4.5</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>4.5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
         <v>1.95</v>
       </c>
-      <c r="N144">
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2.05</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>2.4</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>2.1</v>
-      </c>
-      <c r="S144">
-        <v>1.775</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45199.5</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L146">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N146">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O146">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6851956</v>
+        <v>6846465</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,76 +13613,76 @@
         <v>45199.5</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1.85</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>2.025</v>
-      </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45206.5</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N153">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P153">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847064</v>
+        <v>6847065</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>5</v>
-      </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K154">
+        <v>1.8</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>4.333</v>
+      </c>
+      <c r="N154">
+        <v>1.571</v>
+      </c>
+      <c r="O154">
+        <v>4.333</v>
+      </c>
+      <c r="P154">
         <v>5.5</v>
       </c>
-      <c r="L154">
-        <v>4</v>
-      </c>
-      <c r="M154">
-        <v>1.571</v>
-      </c>
-      <c r="N154">
-        <v>7</v>
-      </c>
-      <c r="O154">
-        <v>5</v>
-      </c>
-      <c r="P154">
-        <v>1.4</v>
-      </c>
       <c r="Q154">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847062</v>
+        <v>6847063</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L155">
+        <v>3.75</v>
+      </c>
+      <c r="M155">
+        <v>1.615</v>
+      </c>
+      <c r="N155">
         <v>4.5</v>
       </c>
-      <c r="M155">
-        <v>7.5</v>
-      </c>
-      <c r="N155">
+      <c r="O155">
+        <v>3.6</v>
+      </c>
+      <c r="P155">
         <v>1.8</v>
       </c>
-      <c r="O155">
-        <v>3.4</v>
-      </c>
-      <c r="P155">
-        <v>4.75</v>
-      </c>
       <c r="Q155">
+        <v>0.5</v>
+      </c>
+      <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.875</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.875</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>0.8</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>0.875</v>
+      </c>
+      <c r="AB155">
+        <v>0.4875</v>
+      </c>
+      <c r="AC155">
         <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.8</v>
-      </c>
-      <c r="S155">
-        <v>2.05</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>2.025</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
-      <c r="W155">
-        <v>0.8</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.8</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847063</v>
+        <v>6847062</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,76 +14325,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K156">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N156">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
+        <v>4.75</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
         <v>1.8</v>
       </c>
-      <c r="Q156">
-        <v>0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.975</v>
-      </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
         <v>0.8</v>
       </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
       <c r="AA156">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,76 +14503,76 @@
         <v>45220.5</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N158">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q158">
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,76 +14592,76 @@
         <v>45220.5</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
         <v>4</v>
       </c>
       <c r="P159">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.925</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.825</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>2.025</v>
       </c>
-      <c r="T159">
-        <v>2.75</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
-      <c r="V159">
-        <v>1.975</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,58 +16105,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
         <v>1</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>42</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L176">
+        <v>3.4</v>
+      </c>
+      <c r="M176">
+        <v>2.4</v>
+      </c>
+      <c r="N176">
+        <v>3.6</v>
+      </c>
+      <c r="O176">
         <v>3.5</v>
       </c>
-      <c r="M176">
-        <v>2.15</v>
-      </c>
-      <c r="N176">
-        <v>3.5</v>
-      </c>
-      <c r="O176">
-        <v>3.75</v>
-      </c>
       <c r="P176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
         <v>1.8</v>
       </c>
-      <c r="S176">
-        <v>2.05</v>
-      </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16165,16 +16165,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,73 +16194,73 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N177">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,76 +16283,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>42</v>
+      </c>
+      <c r="K178">
+        <v>3.2</v>
+      </c>
+      <c r="L178">
+        <v>3.5</v>
+      </c>
+      <c r="M178">
+        <v>2.15</v>
+      </c>
+      <c r="N178">
+        <v>3.5</v>
+      </c>
+      <c r="O178">
+        <v>3.75</v>
+      </c>
+      <c r="P178">
+        <v>2</v>
+      </c>
+      <c r="Q178">
+        <v>0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2.05</v>
+      </c>
+      <c r="T178">
         <v>3</v>
       </c>
-      <c r="J178" t="s">
-        <v>43</v>
-      </c>
-      <c r="K178">
-        <v>4.2</v>
-      </c>
-      <c r="L178">
-        <v>3.75</v>
-      </c>
-      <c r="M178">
-        <v>1.8</v>
-      </c>
-      <c r="N178">
-        <v>4.75</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
-      <c r="P178">
-        <v>1.7</v>
-      </c>
-      <c r="Q178">
-        <v>0.75</v>
-      </c>
-      <c r="R178">
-        <v>1.925</v>
-      </c>
-      <c r="S178">
-        <v>1.925</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6847078</v>
+        <v>6851951</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,76 +16372,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>3</v>
-      </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N179">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q179">
         <v>0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6851951</v>
+        <v>6847078</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
+        <v>1.666</v>
+      </c>
+      <c r="N180">
+        <v>4.5</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
         <v>1.727</v>
-      </c>
-      <c r="N180">
-        <v>4.75</v>
-      </c>
-      <c r="O180">
-        <v>3.75</v>
-      </c>
-      <c r="P180">
-        <v>1.8</v>
       </c>
       <c r="Q180">
         <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6847092</v>
+        <v>6847091</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,73 +17796,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N195">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
         <v>1.875</v>
       </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y195">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6847091</v>
+        <v>6847092</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,73 +17885,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N196">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P196">
+        <v>1.363</v>
+      </c>
+      <c r="Q196">
+        <v>1.25</v>
+      </c>
+      <c r="R196">
         <v>2.05</v>
       </c>
-      <c r="Q196">
-        <v>0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.825</v>
-      </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="V196">
-        <v>1.875</v>
-      </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB196">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7529184</v>
+        <v>6847093</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,76 +17974,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>2.55</v>
+      </c>
+      <c r="O197">
         <v>3.5</v>
       </c>
-      <c r="N197">
-        <v>2.15</v>
-      </c>
-      <c r="O197">
-        <v>3.4</v>
-      </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6847093</v>
+        <v>7529184</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
         <v>3.5</v>
       </c>
-      <c r="M198">
-        <v>3</v>
-      </c>
       <c r="N198">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18222,6 +18222,80 @@
       </c>
       <c r="AC199">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6846474</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45331.6875</v>
+      </c>
+      <c r="F200" t="s">
+        <v>31</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200">
+        <v>1.8</v>
+      </c>
+      <c r="L200">
+        <v>3.75</v>
+      </c>
+      <c r="M200">
+        <v>4.2</v>
+      </c>
+      <c r="N200">
+        <v>1.85</v>
+      </c>
+      <c r="O200">
+        <v>3.6</v>
+      </c>
+      <c r="P200">
+        <v>4.2</v>
+      </c>
+      <c r="Q200">
+        <v>-0.5</v>
+      </c>
+      <c r="R200">
+        <v>1.875</v>
+      </c>
+      <c r="S200">
+        <v>1.975</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
+        <v>2</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>FC Salzburg</t>
   </si>
   <si>
-    <t>SCR Altach</t>
+    <t>SV Ried</t>
   </si>
   <si>
-    <t>SV Ried</t>
+    <t>SCR Altach</t>
   </si>
   <si>
     <t>FK Austria Vienna</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5205970</v>
+        <v>5205969</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -901,41 +901,41 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
+        <v>2.025</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
       <c r="W5">
         <v>-1</v>
       </c>
@@ -943,19 +943,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5205969</v>
+        <v>5205970</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -990,41 +990,41 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>2.025</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -1032,19 +1032,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1954,7 +1954,7 @@
         <v>44983.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2135,7 +2135,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -2580,7 +2580,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5205987</v>
+        <v>5205988</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,58 +2755,58 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
       </c>
       <c r="K26">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
         <v>3.8</v>
       </c>
-      <c r="M26">
-        <v>4.75</v>
-      </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2815,16 +2815,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5205988</v>
+        <v>5205989</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,13 +2844,13 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2859,43 +2859,43 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2904,7 +2904,7 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205989</v>
+        <v>5205990</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>1.775</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
         <v>1.975</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2.025</v>
-      </c>
-      <c r="V28">
-        <v>1.825</v>
-      </c>
       <c r="W28">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB28">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5205990</v>
+        <v>5205987</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,73 +3022,73 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3378,7 +3378,7 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -3648,7 +3648,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>45017.5</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4004,7 +4004,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>45024.5</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -5072,7 +5072,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6429782</v>
+        <v>6430233</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53">
+        <v>1.65</v>
+      </c>
+      <c r="N53">
+        <v>7.5</v>
+      </c>
+      <c r="O53">
         <v>4.333</v>
       </c>
-      <c r="M53">
-        <v>6</v>
-      </c>
-      <c r="N53">
-        <v>1.5</v>
-      </c>
-      <c r="O53">
-        <v>4.5</v>
-      </c>
       <c r="P53">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6430233</v>
+        <v>6429782</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N54">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y54">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6430211</v>
+        <v>6430210</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45038.5</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57">
+        <v>2.55</v>
+      </c>
+      <c r="L57">
+        <v>3.3</v>
+      </c>
+      <c r="M57">
+        <v>2.7</v>
+      </c>
+      <c r="N57">
+        <v>2.5</v>
+      </c>
+      <c r="O57">
+        <v>3.3</v>
+      </c>
+      <c r="P57">
+        <v>2.875</v>
+      </c>
+      <c r="Q57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57">
-        <v>1.8</v>
-      </c>
-      <c r="L57">
-        <v>3.75</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>1.833</v>
-      </c>
-      <c r="O57">
-        <v>3.8</v>
-      </c>
-      <c r="P57">
-        <v>4</v>
-      </c>
-      <c r="Q57">
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>2.3</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>-0</v>
+      </c>
+      <c r="AB57">
         <v>-0.5</v>
       </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.925</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>3</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6430210</v>
+        <v>6430211</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45038.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>1.8</v>
+      </c>
+      <c r="L58">
+        <v>3.75</v>
+      </c>
+      <c r="M58">
+        <v>4.2</v>
+      </c>
+      <c r="N58">
+        <v>1.833</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.925</v>
+      </c>
+      <c r="V58">
+        <v>1.925</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>3</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K58">
-        <v>2.55</v>
-      </c>
-      <c r="L58">
-        <v>3.3</v>
-      </c>
-      <c r="M58">
-        <v>2.7</v>
-      </c>
-      <c r="N58">
-        <v>2.5</v>
-      </c>
-      <c r="O58">
-        <v>3.3</v>
-      </c>
-      <c r="P58">
-        <v>2.875</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>1.825</v>
-      </c>
-      <c r="S58">
-        <v>2.025</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>2.3</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>-0</v>
-      </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -6226,7 +6226,7 @@
         <v>45045.5</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6496,7 +6496,7 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>45059.5</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>35</v>
@@ -7561,10 +7561,10 @@
         <v>45065.60416666666</v>
       </c>
       <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
         <v>33</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45066.5</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,55 +7739,55 @@
         <v>45066.5</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L82">
         <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7796,19 +7796,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6429905</v>
+        <v>6430238</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7843,61 +7843,61 @@
         <v>44</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6430238</v>
+        <v>6429905</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,10 +7917,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7932,61 +7932,61 @@
         <v>44</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O84">
+        <v>4.5</v>
+      </c>
+      <c r="P84">
+        <v>1.571</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>2.025</v>
+      </c>
+      <c r="V84">
+        <v>1.825</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>3.5</v>
       </c>
-      <c r="P84">
-        <v>2.55</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
-      </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
-      <c r="U84">
-        <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.875</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>2.5</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>45073.5</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6430228</v>
+        <v>6430227</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6847027</v>
+        <v>6847026</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,73 +9341,73 @@
         <v>45136.5</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y100">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6847026</v>
+        <v>6847027</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45136.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9700,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.5</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M106">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P106">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6846459</v>
+        <v>6851963</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="L107">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N107">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q107">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
+        <v>1.875</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.9</v>
-      </c>
-      <c r="T107">
-        <v>3.75</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
-      <c r="V107">
-        <v>1.925</v>
-      </c>
       <c r="W107">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10676,7 +10676,7 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -10946,7 +10946,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6847044</v>
+        <v>6847043</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,49 +11566,49 @@
         <v>45165.5</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L125">
+        <v>3.9</v>
+      </c>
+      <c r="M125">
+        <v>4.2</v>
+      </c>
+      <c r="N125">
+        <v>1.4</v>
+      </c>
+      <c r="O125">
+        <v>5.5</v>
+      </c>
+      <c r="P125">
+        <v>6</v>
+      </c>
+      <c r="Q125">
+        <v>-1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
         <v>3.25</v>
-      </c>
-      <c r="M125">
-        <v>2.25</v>
-      </c>
-      <c r="N125">
-        <v>2.1</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>3.3</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11620,22 +11620,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11643,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6847043</v>
+        <v>6847042</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11655,76 +11655,76 @@
         <v>45165.5</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L126">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O126">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45165.5</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L127">
+        <v>3.25</v>
+      </c>
+      <c r="M127">
+        <v>2.25</v>
+      </c>
+      <c r="N127">
+        <v>2.1</v>
+      </c>
+      <c r="O127">
         <v>3.5</v>
       </c>
-      <c r="M127">
-        <v>3.25</v>
-      </c>
-      <c r="N127">
-        <v>1.85</v>
-      </c>
-      <c r="O127">
-        <v>3.8</v>
-      </c>
       <c r="P127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12011,7 +12011,7 @@
         <v>45171.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12370,7 +12370,7 @@
         <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13168,7 +13168,7 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>34</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6851956</v>
+        <v>6847058</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45199.5</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N146">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O146">
         <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6847058</v>
+        <v>6846465</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,73 +13524,73 @@
         <v>45199.5</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L147">
+        <v>8</v>
+      </c>
+      <c r="M147">
+        <v>1.166</v>
+      </c>
+      <c r="N147">
+        <v>11</v>
+      </c>
+      <c r="O147">
+        <v>8</v>
+      </c>
+      <c r="P147">
+        <v>1.181</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.2</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>2.25</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.875</v>
-      </c>
-      <c r="S147">
-        <v>1.975</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,76 +13613,76 @@
         <v>45199.5</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N148">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,13 +13969,13 @@
         <v>45206.5</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13984,43 +13984,43 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
         <v>1.9</v>
       </c>
-      <c r="S152">
-        <v>1.95</v>
-      </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14029,16 +14029,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847064</v>
+        <v>6851955</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,73 +14058,73 @@
         <v>45206.5</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H153">
+        <v>4</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>5</v>
-      </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K153">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
+        <v>3.75</v>
+      </c>
+      <c r="M153">
+        <v>4.5</v>
+      </c>
+      <c r="N153">
+        <v>1.909</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
         <v>4</v>
       </c>
-      <c r="M153">
-        <v>1.571</v>
-      </c>
-      <c r="N153">
-        <v>7</v>
-      </c>
-      <c r="O153">
-        <v>5</v>
-      </c>
-      <c r="P153">
-        <v>1.4</v>
-      </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
         <v>2.025</v>
       </c>
-      <c r="V153">
-        <v>1.825</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.5</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N154">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14770,7 +14770,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15040,7 +15040,7 @@
         <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15838,7 +15838,7 @@
         <v>45235.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -16108,7 +16108,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>5</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>42</v>
+      </c>
+      <c r="K177">
+        <v>3.2</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>2.15</v>
+      </c>
+      <c r="N177">
+        <v>3.5</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="Q177">
+        <v>0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2.05</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>43</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.75</v>
-      </c>
-      <c r="M177">
-        <v>1.8</v>
-      </c>
-      <c r="N177">
-        <v>4.75</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.7</v>
-      </c>
-      <c r="Q177">
-        <v>0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847080</v>
+        <v>6847079</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,76 +16283,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N178">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16906,7 +16906,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -17618,7 +17618,7 @@
         <v>45265.625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -18155,7 +18155,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18295,6 +18295,154 @@
         <v>0</v>
       </c>
       <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6851943</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201">
+        <v>2.3</v>
+      </c>
+      <c r="L201">
+        <v>3.6</v>
+      </c>
+      <c r="M201">
+        <v>2.8</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>3.3</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
+        <v>2</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6847096</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>3.75</v>
+      </c>
+      <c r="M202">
+        <v>3.3</v>
+      </c>
+      <c r="N202">
+        <v>2.05</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
+        <v>3.2</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>2.025</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.975</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
         <v>0</v>
       </c>
     </row>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>SK Sturm Graz</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>FC Salzburg</t>
   </si>
   <si>
-    <t>FC Salzburg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -127,10 +127,10 @@
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>WSG Swarovski Tirol</t>
+    <t>Austria Lustenau</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
+    <t>WSG Swarovski Tirol</t>
   </si>
   <si>
     <t>Rapid Vienna</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5205966</v>
+        <v>5207168</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,43 +714,43 @@
         <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
+        <v>7.5</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>-2</v>
+      </c>
+      <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
+        <v>1.975</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
-      </c>
-      <c r="P3">
-        <v>3.3</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.9</v>
-      </c>
-      <c r="S3">
-        <v>1.95</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -759,25 +759,25 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5207168</v>
+        <v>5205966</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,43 +803,43 @@
         <v>38</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -848,25 +848,25 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,73 +1423,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L11">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,73 +1512,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P12">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q12">
+        <v>1.25</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
+        <v>2.05</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>1.975</v>
+      </c>
+      <c r="V12">
+        <v>1.875</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>0.5</v>
       </c>
-      <c r="R12">
-        <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.875</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>3.2</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>1.05</v>
+      </c>
+      <c r="AB12">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5205980</v>
+        <v>5205977</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,37 +1954,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z17">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205977</v>
+        <v>5205980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,37 +2043,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
         <v>0.25</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
+        <v>1.875</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>2.5</v>
       </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
       <c r="Y18">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>44983.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205983</v>
+        <v>5205984</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,40 +2221,40 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
         <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>3.3</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
         <v>1.85</v>
@@ -2266,28 +2266,28 @@
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5205984</v>
+        <v>5207165</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,46 +2310,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5.75</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>1.571</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.533</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
-        <v>2.3</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
-      <c r="P21">
-        <v>2.3</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.5</v>
@@ -2361,25 +2361,25 @@
         <v>2.025</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5207165</v>
+        <v>5205983</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,55 +2399,55 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>43</v>
       </c>
       <c r="K22">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2456,19 +2456,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5205985</v>
+        <v>5205981</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
         <v>3.6</v>
       </c>
       <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5205981</v>
+        <v>5205985</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L24">
         <v>3.5</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O24">
         <v>3.6</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5205987</v>
+        <v>5205988</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,58 +2755,58 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
       </c>
       <c r="K26">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
         <v>3.8</v>
       </c>
-      <c r="M26">
-        <v>4.75</v>
-      </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2815,16 +2815,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205988</v>
+        <v>5205987</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,58 +2933,58 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.75</v>
+      </c>
+      <c r="O28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>3.8</v>
-      </c>
-      <c r="N28">
-        <v>2.15</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
       <c r="P28">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5205989</v>
+        <v>5207164</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
+        <v>4.5</v>
+      </c>
+      <c r="N29">
+        <v>1.7</v>
+      </c>
+      <c r="O29">
+        <v>3.8</v>
+      </c>
+      <c r="P29">
         <v>5.25</v>
       </c>
-      <c r="N29">
-        <v>1.6</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>5.75</v>
-      </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205990</v>
+        <v>5205989</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>5.25</v>
+      </c>
+      <c r="N30">
+        <v>1.6</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>5.75</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="N30">
-        <v>2.4</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>2.1</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5207164</v>
+        <v>5205990</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,55 +3200,55 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3257,19 +3257,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5205992</v>
+        <v>5205995</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,76 +3289,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N32">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P32">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5205994</v>
+        <v>5205991</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>1.142</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>1.75</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>4.333</v>
+        <v>1.181</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P33">
+        <v>17</v>
+      </c>
+      <c r="Q33">
+        <v>-2</v>
+      </c>
+      <c r="R33">
+        <v>1.825</v>
+      </c>
+      <c r="S33">
+        <v>2.025</v>
+      </c>
+      <c r="T33">
+        <v>3.25</v>
+      </c>
+      <c r="U33">
         <v>1.85</v>
       </c>
-      <c r="Q33">
-        <v>0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.925</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5205995</v>
+        <v>5207163</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,73 +3470,73 @@
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N34">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5205991</v>
+        <v>5205992</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.142</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O36">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X36">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5207163</v>
+        <v>5205994</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,73 +3734,73 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3826,7 +3826,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>45017.5</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6429780</v>
+        <v>6429899</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41">
+        <v>2.5</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.6</v>
+      </c>
+      <c r="N41">
+        <v>2.6</v>
+      </c>
+      <c r="O41">
+        <v>3.5</v>
+      </c>
+      <c r="P41">
+        <v>2.625</v>
+      </c>
+      <c r="Q41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>4.75</v>
-      </c>
-      <c r="M41">
-        <v>1.4</v>
-      </c>
-      <c r="N41">
-        <v>13</v>
-      </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>1.222</v>
-      </c>
-      <c r="Q41">
-        <v>1.75</v>
-      </c>
       <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>2.025</v>
       </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2.05</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y41">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
+        <v>-0</v>
+      </c>
+      <c r="AB41">
         <v>0.825</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6429899</v>
+        <v>6429780</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N42">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="Q42">
+        <v>1.75</v>
+      </c>
+      <c r="R42">
+        <v>2.025</v>
+      </c>
+      <c r="S42">
+        <v>1.825</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>1.8</v>
+      </c>
+      <c r="V42">
+        <v>2.05</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
+        <v>0.222</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.825</v>
+      </c>
+      <c r="AB42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>1.875</v>
-      </c>
-      <c r="S42">
-        <v>1.975</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.825</v>
-      </c>
-      <c r="V42">
-        <v>2.025</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>2.5</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="AC42">
         <v>-0</v>
-      </c>
-      <c r="AB42">
-        <v>0.825</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4357,10 +4357,10 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6430205</v>
+        <v>6430204</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45024.5</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
         <v>3.3</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z45">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6430204</v>
+        <v>6430205</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45024.5</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>45025.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4894,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>45031.5</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6429782</v>
+        <v>6430233</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53">
+        <v>1.65</v>
+      </c>
+      <c r="N53">
+        <v>7.5</v>
+      </c>
+      <c r="O53">
         <v>4.333</v>
       </c>
-      <c r="M53">
-        <v>6</v>
-      </c>
-      <c r="N53">
-        <v>1.5</v>
-      </c>
-      <c r="O53">
-        <v>4.5</v>
-      </c>
       <c r="P53">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6430233</v>
+        <v>6429782</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N54">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y54">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6430210</v>
+        <v>6430211</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45038.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57">
+        <v>1.8</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.833</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
+        <v>1.925</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57">
-        <v>2.55</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>2.7</v>
-      </c>
-      <c r="N57">
-        <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>2.875</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.825</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>2.3</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>-0</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6430211</v>
+        <v>6430210</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45038.5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58">
+        <v>2.55</v>
+      </c>
+      <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>2.7</v>
+      </c>
+      <c r="N58">
+        <v>2.5</v>
+      </c>
+      <c r="O58">
+        <v>3.3</v>
+      </c>
+      <c r="P58">
+        <v>2.875</v>
+      </c>
+      <c r="Q58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58">
-        <v>1.8</v>
-      </c>
-      <c r="L58">
-        <v>3.75</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.833</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
-      <c r="Q58">
+      <c r="R58">
+        <v>1.825</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2.3</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-0</v>
+      </c>
+      <c r="AB58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>3</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6430234</v>
+        <v>6429901</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,76 +5692,76 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>1.6</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>5.25</v>
+      </c>
+      <c r="N59">
+        <v>1.533</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
+        <v>1.925</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>42</v>
-      </c>
-      <c r="K59">
-        <v>2.1</v>
-      </c>
-      <c r="L59">
-        <v>3.6</v>
-      </c>
-      <c r="M59">
-        <v>3.2</v>
-      </c>
-      <c r="N59">
-        <v>2.15</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>3.3</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
       <c r="W59">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6429901</v>
+        <v>6430234</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,76 +5781,76 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N60">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6140,7 +6140,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>45045.5</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6318,7 +6318,7 @@
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6493,7 +6493,7 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6671,7 +6671,7 @@
         <v>45052.5</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6429903</v>
+        <v>6430236</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6802,34 +6802,34 @@
         <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6430236</v>
+        <v>6429903</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
         <v>2</v>
@@ -6891,34 +6891,34 @@
         <v>1.85</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6938,7 +6938,7 @@
         <v>45053.5</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7027,7 +7027,7 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7116,10 +7116,10 @@
         <v>45059.5</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7297,7 +7297,7 @@
         <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45066.5</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O81">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,55 +7739,55 @@
         <v>45066.5</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L82">
         <v>3.4</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7796,19 +7796,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>45067.5</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6430226</v>
+        <v>6430224</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45073.5</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>38</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>3.6</v>
+      </c>
+      <c r="M86">
+        <v>3.3</v>
+      </c>
+      <c r="N86">
+        <v>2.1</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>3.3</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>1.975</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>0.875</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>44</v>
-      </c>
-      <c r="K86">
-        <v>2.2</v>
-      </c>
-      <c r="L86">
-        <v>3.3</v>
-      </c>
-      <c r="M86">
-        <v>3.1</v>
-      </c>
-      <c r="N86">
-        <v>2.625</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>2.7</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>2.05</v>
-      </c>
-      <c r="V86">
-        <v>1.8</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.4</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>-0</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6430224</v>
+        <v>6430226</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45073.5</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88">
+        <v>2.2</v>
+      </c>
+      <c r="L88">
+        <v>3.3</v>
+      </c>
+      <c r="M88">
+        <v>3.1</v>
+      </c>
+      <c r="N88">
+        <v>2.625</v>
+      </c>
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
+        <v>2.7</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>42</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
-      <c r="M88">
-        <v>3.3</v>
-      </c>
-      <c r="N88">
-        <v>2.1</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>3.3</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6430239</v>
+        <v>6429788</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,10 +8362,10 @@
         <v>45074.5</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8377,43 +8377,43 @@
         <v>42</v>
       </c>
       <c r="K89">
-        <v>3.1</v>
+        <v>1.181</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>2.6</v>
+        <v>0.181</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8422,13 +8422,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6429788</v>
+        <v>6430239</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,10 +8540,10 @@
         <v>45074.5</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8555,43 +8555,43 @@
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>0.181</v>
+        <v>2.6</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8600,13 +8600,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,73 +8632,73 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L92">
+        <v>3.4</v>
+      </c>
+      <c r="M92">
+        <v>2.55</v>
+      </c>
+      <c r="N92">
         <v>3.75</v>
       </c>
-      <c r="M92">
-        <v>4.2</v>
-      </c>
-      <c r="N92">
-        <v>1.909</v>
-      </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.9</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>1.9</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB92">
-        <v>-1</v>
-      </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6430227</v>
+        <v>6430229</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8810,73 +8810,73 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
+        <v>1.909</v>
+      </c>
+      <c r="O94">
         <v>3.75</v>
       </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
       <c r="P94">
+        <v>3.8</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
         <v>1.95</v>
       </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.875</v>
-      </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>2.025</v>
+      </c>
+      <c r="V94">
+        <v>1.825</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.75</v>
       </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
-      <c r="W94">
-        <v>2.75</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,73 +9252,73 @@
         <v>45136.5</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
         <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45136.5</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>3.5</v>
+      </c>
+      <c r="N101">
+        <v>2.2</v>
+      </c>
+      <c r="O101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.1</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6851963</v>
+        <v>6847032</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,40 +9875,40 @@
         <v>45144.5</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
         <v>1.975</v>
@@ -9917,34 +9917,34 @@
         <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.9</v>
       </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6847032</v>
+        <v>6846459</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
         <v>38</v>
       </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>4.2</v>
+        <v>1.142</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>17</v>
       </c>
       <c r="N107">
+        <v>1.166</v>
+      </c>
+      <c r="O107">
+        <v>7.5</v>
+      </c>
+      <c r="P107">
+        <v>15</v>
+      </c>
+      <c r="Q107">
+        <v>-2.25</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
         <v>3.75</v>
       </c>
-      <c r="O107">
-        <v>3.8</v>
-      </c>
-      <c r="P107">
-        <v>1.909</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.975</v>
-      </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6846459</v>
+        <v>6851963</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45144.5</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q108">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.9</v>
-      </c>
-      <c r="T108">
-        <v>3.75</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.925</v>
-      </c>
       <c r="W108">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10231,10 +10231,10 @@
         <v>45150.5</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,64 +10768,64 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
+        <v>1.363</v>
+      </c>
+      <c r="Q116">
         <v>1.5</v>
       </c>
-      <c r="Q116">
-        <v>1.25</v>
-      </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10834,7 +10834,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,64 +10857,64 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.95</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117">
         <v>4.333</v>
       </c>
-      <c r="M117">
+      <c r="P117">
         <v>1.5</v>
       </c>
-      <c r="N117">
-        <v>8.5</v>
-      </c>
-      <c r="O117">
-        <v>4.75</v>
-      </c>
-      <c r="P117">
-        <v>1.363</v>
-      </c>
       <c r="Q117">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y117">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10923,7 +10923,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11388,10 +11388,10 @@
         <v>45164.5</v>
       </c>
       <c r="F123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" t="s">
         <v>30</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6847043</v>
+        <v>6847042</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45165.5</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X125">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6847042</v>
+        <v>6847043</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45165.5</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K127">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M127">
+        <v>4.2</v>
+      </c>
+      <c r="N127">
+        <v>1.4</v>
+      </c>
+      <c r="O127">
+        <v>5.5</v>
+      </c>
+      <c r="P127">
+        <v>6</v>
+      </c>
+      <c r="Q127">
+        <v>-1.25</v>
+      </c>
+      <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>2.025</v>
+      </c>
+      <c r="T127">
         <v>3.25</v>
       </c>
-      <c r="N127">
-        <v>1.85</v>
-      </c>
-      <c r="O127">
-        <v>3.8</v>
-      </c>
-      <c r="P127">
-        <v>4</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.85</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
-      <c r="T127">
-        <v>3</v>
-      </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11833,7 +11833,7 @@
         <v>45171.5</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
@@ -11922,7 +11922,7 @@
         <v>45171.5</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>35</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6846463</v>
+        <v>6847047</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45172.5</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,25 +12115,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L131">
         <v>4.2</v>
       </c>
       <c r="M131">
+        <v>4.75</v>
+      </c>
+      <c r="N131">
+        <v>1.333</v>
+      </c>
+      <c r="O131">
         <v>5.5</v>
       </c>
-      <c r="N131">
-        <v>1.5</v>
-      </c>
-      <c r="O131">
-        <v>4.2</v>
-      </c>
       <c r="P131">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
         <v>1.85</v>
@@ -12142,7 +12142,7 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
         <v>1.925</v>
@@ -12151,7 +12151,7 @@
         <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6847047</v>
+        <v>6846463</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,10 +12189,10 @@
         <v>45172.5</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12204,25 +12204,25 @@
         <v>42</v>
       </c>
       <c r="K132">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L132">
         <v>4.2</v>
       </c>
       <c r="M132">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N132">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q132">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12231,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
         <v>1.925</v>
@@ -12240,7 +12240,7 @@
         <v>1.925</v>
       </c>
       <c r="W132">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12634,10 +12634,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
         <v>38</v>
-      </c>
-      <c r="G137" t="s">
-        <v>37</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12815,7 +12815,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6851957</v>
+        <v>6847057</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,55 +12901,55 @@
         <v>45192.5</v>
       </c>
       <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
         <v>31</v>
       </c>
-      <c r="G140" t="s">
-        <v>41</v>
-      </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="P140">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12958,19 +12958,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>8</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847057</v>
+        <v>6851957</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,55 +12990,55 @@
         <v>45192.5</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>43</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M141">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O141">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13047,19 +13047,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>8</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6847058</v>
+        <v>6851956</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45199.5</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
         <v>3.6</v>
       </c>
-      <c r="L146">
-        <v>3.5</v>
-      </c>
       <c r="M146">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N146">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O146">
         <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6851956</v>
+        <v>6846465</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45199.5</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M147">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>2.025</v>
-      </c>
-      <c r="V147">
-        <v>1.825</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6846465</v>
+        <v>6847058</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,73 +13613,73 @@
         <v>45199.5</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K148">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="T148">
-        <v>3.5</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB148">
-        <v>0.95</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847064</v>
+        <v>6847065</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45206.5</v>
       </c>
       <c r="F152" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s">
         <v>38</v>
       </c>
-      <c r="G152" t="s">
-        <v>39</v>
-      </c>
       <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>5</v>
-      </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K152">
+        <v>1.8</v>
+      </c>
+      <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>4.333</v>
+      </c>
+      <c r="N152">
+        <v>1.571</v>
+      </c>
+      <c r="O152">
+        <v>4.333</v>
+      </c>
+      <c r="P152">
         <v>5.5</v>
       </c>
-      <c r="L152">
-        <v>4</v>
-      </c>
-      <c r="M152">
-        <v>1.571</v>
-      </c>
-      <c r="N152">
-        <v>7</v>
-      </c>
-      <c r="O152">
-        <v>5</v>
-      </c>
-      <c r="P152">
-        <v>1.4</v>
-      </c>
       <c r="Q152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847065</v>
+        <v>6851955</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,13 +14058,13 @@
         <v>45206.5</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14073,43 +14073,43 @@
         <v>42</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
+        <v>3.75</v>
+      </c>
+      <c r="M153">
+        <v>4.5</v>
+      </c>
+      <c r="N153">
+        <v>1.909</v>
+      </c>
+      <c r="O153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>4.333</v>
-      </c>
-      <c r="N153">
-        <v>1.571</v>
-      </c>
-      <c r="O153">
-        <v>4.333</v>
-      </c>
       <c r="P153">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
         <v>1.95</v>
       </c>
-      <c r="S153">
-        <v>1.9</v>
-      </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14118,16 +14118,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6851955</v>
+        <v>6847064</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,73 +14147,73 @@
         <v>45206.5</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154">
+        <v>5.5</v>
+      </c>
+      <c r="L154">
         <v>4</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s">
-        <v>42</v>
-      </c>
-      <c r="K154">
-        <v>1.727</v>
-      </c>
-      <c r="L154">
-        <v>3.75</v>
-      </c>
       <c r="M154">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
+        <v>2.025</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14236,7 +14236,7 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>29</v>
@@ -14417,7 +14417,7 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6846467</v>
+        <v>6851954</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,76 +14503,76 @@
         <v>45220.5</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N158">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>3</v>
       </c>
-      <c r="U158">
-        <v>2.05</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
       <c r="Y158">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6851954</v>
+        <v>6846467</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,76 +14681,76 @@
         <v>45220.5</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M160">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="O160">
         <v>4</v>
       </c>
       <c r="P160">
+        <v>6</v>
+      </c>
+      <c r="Q160">
+        <v>-1</v>
+      </c>
+      <c r="R160">
+        <v>1.925</v>
+      </c>
+      <c r="S160">
+        <v>1.925</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
+        <v>1.8</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>5</v>
       </c>
-      <c r="Q160">
-        <v>-0.75</v>
-      </c>
-      <c r="R160">
-        <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>3</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
         <v>34</v>
@@ -14862,7 +14862,7 @@
         <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15040,7 +15040,7 @@
         <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6846468</v>
+        <v>6851953</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,13 +15126,13 @@
         <v>45227.5</v>
       </c>
       <c r="F165" t="s">
+        <v>41</v>
+      </c>
+      <c r="G165" t="s">
         <v>31</v>
       </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15141,43 +15141,43 @@
         <v>42</v>
       </c>
       <c r="K165">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="L165">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O165">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,16 +15186,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6851953</v>
+        <v>6846468</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,13 +15215,13 @@
         <v>45227.5</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15230,61 +15230,61 @@
         <v>42</v>
       </c>
       <c r="K166">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M166">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P166">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q166">
+        <v>-1.5</v>
+      </c>
+      <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.975</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.875</v>
+      </c>
+      <c r="W166">
+        <v>0.3</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.875</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
         <v>0</v>
       </c>
-      <c r="R166">
-        <v>1.95</v>
-      </c>
-      <c r="S166">
-        <v>1.9</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>1.925</v>
-      </c>
-      <c r="V166">
-        <v>1.925</v>
-      </c>
-      <c r="W166">
-        <v>1.625</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.95</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>-1</v>
-      </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>35</v>
@@ -15571,7 +15571,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>36</v>
@@ -15660,10 +15660,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6851952</v>
+        <v>6847077</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,76 +15838,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N173">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P173">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z173">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6847077</v>
+        <v>6851952</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,76 +15927,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K174">
+        <v>1.909</v>
+      </c>
+      <c r="L174">
+        <v>3.4</v>
+      </c>
+      <c r="M174">
+        <v>4</v>
+      </c>
+      <c r="N174">
+        <v>1.75</v>
+      </c>
+      <c r="O174">
         <v>3.6</v>
       </c>
-      <c r="L174">
-        <v>3.5</v>
-      </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>4.5</v>
-      </c>
-      <c r="O174">
-        <v>3.75</v>
-      </c>
       <c r="P174">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>2.025</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.925</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
         <v>0.75</v>
       </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2.05</v>
-      </c>
-      <c r="T174">
-        <v>2.75</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,70 +16108,70 @@
         <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847079</v>
+        <v>6847081</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,70 +16197,70 @@
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
+        <v>2.4</v>
+      </c>
+      <c r="N177">
+        <v>3.6</v>
+      </c>
+      <c r="O177">
+        <v>3.5</v>
+      </c>
+      <c r="P177">
+        <v>2.05</v>
+      </c>
+      <c r="Q177">
+        <v>0.25</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="N177">
-        <v>4.75</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.7</v>
-      </c>
-      <c r="Q177">
-        <v>0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6851951</v>
+        <v>6847078</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,76 +16372,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
+        <v>1.666</v>
+      </c>
+      <c r="N179">
+        <v>4.5</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
         <v>1.727</v>
-      </c>
-      <c r="N179">
-        <v>4.75</v>
-      </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
-      <c r="P179">
-        <v>1.8</v>
       </c>
       <c r="Q179">
         <v>0.75</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847078</v>
+        <v>6851951</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>3</v>
-      </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K180">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N180">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q180">
         <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16639,7 +16639,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>35</v>
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>34</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>42</v>
+      </c>
+      <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.5</v>
+      </c>
+      <c r="M188">
+        <v>8</v>
+      </c>
+      <c r="N188">
+        <v>1.6</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>5.25</v>
+      </c>
+      <c r="Q188">
+        <v>-1</v>
+      </c>
+      <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>-0</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>44</v>
-      </c>
-      <c r="K188">
-        <v>4</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
-      <c r="M188">
-        <v>1.727</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>1.909</v>
-      </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.6</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.925</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-0.5</v>
-      </c>
-      <c r="AC188">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,76 +17262,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K189">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N189">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847089</v>
+        <v>6847088</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45265.625</v>
       </c>
       <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
         <v>37</v>
       </c>
-      <c r="G192" t="s">
-        <v>39</v>
-      </c>
       <c r="H192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M192">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N192">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O192">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q192">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.825</v>
+      </c>
+      <c r="S192">
+        <v>2.025</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
         <v>1.9</v>
       </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>3.25</v>
-      </c>
-      <c r="U192">
-        <v>1.9</v>
-      </c>
-      <c r="V192">
-        <v>1.95</v>
-      </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847088</v>
+        <v>6847089</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45265.625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N193">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U193">
+        <v>1.9</v>
+      </c>
+      <c r="V193">
         <v>1.95</v>
       </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
       <c r="W193">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z193">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6847091</v>
+        <v>6847092</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,73 +17796,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N195">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P195">
+        <v>1.363</v>
+      </c>
+      <c r="Q195">
+        <v>1.25</v>
+      </c>
+      <c r="R195">
         <v>2.05</v>
       </c>
-      <c r="Q195">
-        <v>0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.825</v>
-      </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
+        <v>1.875</v>
+      </c>
+      <c r="V195">
         <v>1.975</v>
       </c>
-      <c r="V195">
-        <v>1.875</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB195">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6847092</v>
+        <v>6847091</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,73 +17885,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K196">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N196">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O196">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q196">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
         <v>1.875</v>
       </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y196">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18066,7 +18066,7 @@
         <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18241,11 +18241,20 @@
         <v>45331.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
       </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>44</v>
+      </c>
       <c r="K200">
         <v>1.8</v>
       </c>
@@ -18256,46 +18265,52 @@
         <v>4.2</v>
       </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q200">
         <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18303,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6851943</v>
+        <v>6847097</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18312,49 +18327,49 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45332.54166666666</v>
+        <v>45333.4375</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L201">
+        <v>3.75</v>
+      </c>
+      <c r="M201">
         <v>3.6</v>
       </c>
-      <c r="M201">
-        <v>2.8</v>
-      </c>
       <c r="N201">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.85</v>
-      </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.9</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18377,7 +18392,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847096</v>
+        <v>6847095</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18386,49 +18401,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45332.54166666666</v>
+        <v>45333.4375</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K202">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
         <v>3.75</v>
       </c>
       <c r="M202">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O202">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
         <v>1.925</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.925</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>2.025</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18451,7 +18466,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847097</v>
+        <v>6847094</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18460,34 +18475,34 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45333.4375</v>
+        <v>45333.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N203">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O203">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P203">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R203">
         <v>1.85</v>
@@ -18499,10 +18514,10 @@
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18517,154 +18532,6 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>6847095</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45333.4375</v>
-      </c>
-      <c r="F204" t="s">
-        <v>30</v>
-      </c>
-      <c r="G204" t="s">
-        <v>39</v>
-      </c>
-      <c r="K204">
-        <v>3.4</v>
-      </c>
-      <c r="L204">
-        <v>3.75</v>
-      </c>
-      <c r="M204">
-        <v>2</v>
-      </c>
-      <c r="N204">
-        <v>3.5</v>
-      </c>
-      <c r="O204">
-        <v>3.5</v>
-      </c>
-      <c r="P204">
-        <v>2.1</v>
-      </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
-        <v>2.025</v>
-      </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.9</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>6847094</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45333.54166666666</v>
-      </c>
-      <c r="F205" t="s">
-        <v>40</v>
-      </c>
-      <c r="G205" t="s">
-        <v>36</v>
-      </c>
-      <c r="K205">
-        <v>1.6</v>
-      </c>
-      <c r="L205">
-        <v>4.2</v>
-      </c>
-      <c r="M205">
-        <v>5</v>
-      </c>
-      <c r="N205">
-        <v>1.5</v>
-      </c>
-      <c r="O205">
-        <v>4.333</v>
-      </c>
-      <c r="P205">
-        <v>6.5</v>
-      </c>
-      <c r="Q205">
-        <v>-1</v>
-      </c>
-      <c r="R205">
-        <v>1.825</v>
-      </c>
-      <c r="S205">
-        <v>2.025</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.975</v>
-      </c>
-      <c r="V205">
-        <v>1.875</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5205980</v>
+        <v>5205977</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,37 +1954,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z17">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205977</v>
+        <v>5205980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,37 +2043,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
         <v>0.25</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
+        <v>1.875</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>2.5</v>
       </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
       <c r="Y18">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205988</v>
+        <v>5207164</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
+        <v>4.5</v>
+      </c>
+      <c r="N30">
+        <v>1.7</v>
+      </c>
+      <c r="O30">
         <v>3.8</v>
       </c>
-      <c r="N30">
-        <v>2.15</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
       <c r="P30">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5207164</v>
+        <v>5205988</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3.6</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6429788</v>
+        <v>6430239</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,10 +8362,10 @@
         <v>45074.5</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8377,43 +8377,43 @@
         <v>42</v>
       </c>
       <c r="K89">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="N89">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>0.181</v>
+        <v>2.6</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8422,13 +8422,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6430239</v>
+        <v>6429788</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,10 +8451,10 @@
         <v>45074.5</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8466,43 +8466,43 @@
         <v>42</v>
       </c>
       <c r="K90">
-        <v>3.1</v>
+        <v>1.181</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P90">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>2.6</v>
+        <v>0.181</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8511,13 +8511,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6430229</v>
+        <v>6430228</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N93">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.925</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>1.3</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>1.025</v>
+      </c>
+      <c r="AB93">
+        <v>0.4625</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>2.75</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
-      <c r="AA93">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O94">
+        <v>3.75</v>
+      </c>
+      <c r="P94">
         <v>3.8</v>
       </c>
-      <c r="P94">
-        <v>2.3</v>
-      </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>2.025</v>
+      </c>
+      <c r="V94">
         <v>1.825</v>
       </c>
-      <c r="S94">
-        <v>2.025</v>
-      </c>
-      <c r="T94">
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.75</v>
       </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,73 +9341,73 @@
         <v>45136.5</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
-      <c r="N100">
-        <v>2.3</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
       <c r="P100">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45136.5</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6847032</v>
+        <v>6851963</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,40 +9964,40 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
         <v>1.975</v>
@@ -10006,34 +10006,34 @@
         <v>1.875</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6851963</v>
+        <v>6847032</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,40 +10053,40 @@
         <v>45144.5</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
         <v>1.975</v>
@@ -10095,34 +10095,34 @@
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.9</v>
       </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC108">
-        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847036</v>
+        <v>6847035</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45151.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
+        <v>3.8</v>
+      </c>
+      <c r="Q114">
+        <v>-0.5</v>
+      </c>
+      <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
         <v>3</v>
       </c>
-      <c r="Q114">
-        <v>-0.25</v>
-      </c>
-      <c r="R114">
-        <v>2.05</v>
-      </c>
-      <c r="S114">
-        <v>1.8</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N115">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>4.5</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
         <v>1.95</v>
       </c>
-      <c r="N143">
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.8</v>
+      </c>
+      <c r="V143">
+        <v>2.05</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>3</v>
       </c>
-      <c r="O143">
-        <v>3.3</v>
-      </c>
-      <c r="P143">
-        <v>2.4</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>2.1</v>
-      </c>
-      <c r="S143">
-        <v>1.775</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>2</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X144">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847065</v>
+        <v>6851955</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,13 +13969,13 @@
         <v>45206.5</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13984,43 +13984,43 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>4.5</v>
+      </c>
+      <c r="N152">
+        <v>1.909</v>
+      </c>
+      <c r="O152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>4.333</v>
-      </c>
-      <c r="N152">
-        <v>1.571</v>
-      </c>
-      <c r="O152">
-        <v>4.333</v>
-      </c>
       <c r="P152">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="S152">
-        <v>1.9</v>
-      </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14029,16 +14029,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847064</v>
+        <v>6847065</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45206.5</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K153">
+        <v>1.8</v>
+      </c>
+      <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>4.333</v>
+      </c>
+      <c r="N153">
+        <v>1.571</v>
+      </c>
+      <c r="O153">
+        <v>4.333</v>
+      </c>
+      <c r="P153">
         <v>5.5</v>
       </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>1.571</v>
-      </c>
-      <c r="N153">
-        <v>7</v>
-      </c>
-      <c r="O153">
-        <v>5</v>
-      </c>
-      <c r="P153">
-        <v>1.4</v>
-      </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6851955</v>
+        <v>6847064</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,73 +14147,73 @@
         <v>45206.5</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154">
+        <v>5.5</v>
+      </c>
+      <c r="L154">
         <v>4</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s">
-        <v>42</v>
-      </c>
-      <c r="K154">
-        <v>1.727</v>
-      </c>
-      <c r="L154">
-        <v>3.75</v>
-      </c>
       <c r="M154">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
+        <v>2.025</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6846467</v>
+        <v>6847066</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45220.5</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M159">
         <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
         <v>4</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14634,34 +14634,34 @@
         <v>1.925</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847066</v>
+        <v>6846467</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,40 +14681,40 @@
         <v>45220.5</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M160">
         <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O160">
         <v>4</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
         <v>1.925</v>
@@ -14723,34 +14723,34 @@
         <v>1.925</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z160">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,49 +15571,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N170">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O170">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
         <v>1.9</v>
@@ -15622,25 +15622,25 @@
         <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,49 +15660,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P171">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
         <v>1.9</v>
@@ -15711,25 +15711,25 @@
         <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z171">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847095</v>
+        <v>6847097</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,10 +18508,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18523,40 +18523,40 @@
         <v>43</v>
       </c>
       <c r="K203">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
         <v>3.75</v>
       </c>
       <c r="M203">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18565,19 +18565,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6847097</v>
+        <v>6847095</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,10 +18597,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18612,40 +18612,40 @@
         <v>43</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>3.5</v>
+      </c>
+      <c r="O204">
         <v>3.6</v>
       </c>
-      <c r="N204">
-        <v>1.727</v>
-      </c>
-      <c r="O204">
-        <v>3.75</v>
-      </c>
       <c r="P204">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18654,19 +18654,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
+        <v>1.025</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.925</v>
-      </c>
-      <c r="AB204">
-        <v>-1</v>
-      </c>
-      <c r="AC204">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18790,31 +18790,31 @@
         <v>4.2</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18876,19 +18876,19 @@
         <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>1.363</v>
       </c>
       <c r="N208">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P208">
         <v>1.45</v>
@@ -18950,19 +18950,19 @@
         <v>1.25</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.85</v>
-      </c>
-      <c r="V208">
-        <v>2</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19033,10 +19033,10 @@
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19098,10 +19098,10 @@
         <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.5</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5205977</v>
+        <v>5205980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,37 +1954,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
+        <v>1.875</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>2.5</v>
       </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>1.85</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA17">
+        <v>-0.5</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.875</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205980</v>
+        <v>5205977</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,37 +2043,37 @@
         <v>44983.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q18">
         <v>0.25</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z18">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205983</v>
+        <v>5207165</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5205984</v>
+        <v>5205983</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,40 +2310,40 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
         <v>1.85</v>
@@ -2355,28 +2355,28 @@
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5207165</v>
+        <v>5205984</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,46 +2399,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.5</v>
@@ -2450,25 +2450,25 @@
         <v>2.025</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5207164</v>
+        <v>5205988</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5205988</v>
+        <v>5207164</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L31">
         <v>3.6</v>
       </c>
       <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.7</v>
+      </c>
+      <c r="O31">
         <v>3.8</v>
       </c>
-      <c r="N31">
-        <v>2.15</v>
-      </c>
-      <c r="O31">
-        <v>3.4</v>
-      </c>
       <c r="P31">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6851963</v>
+        <v>6847032</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,40 +9964,40 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
         <v>1.975</v>
@@ -10006,34 +10006,34 @@
         <v>1.875</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.9</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6847032</v>
+        <v>6851963</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,40 +10053,40 @@
         <v>45144.5</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
         <v>1.975</v>
@@ -10095,34 +10095,34 @@
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
         <v>1.95</v>
       </c>
-      <c r="V108">
-        <v>1.9</v>
-      </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45151.5</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6847036</v>
+        <v>6847035</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
+        <v>3.8</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
         <v>3</v>
       </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143">
+        <v>3.75</v>
+      </c>
+      <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>1.95</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>3.3</v>
+      </c>
+      <c r="P143">
+        <v>2.4</v>
+      </c>
+      <c r="Q143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143">
-        <v>1.571</v>
-      </c>
-      <c r="L143">
-        <v>4.333</v>
-      </c>
-      <c r="M143">
-        <v>5</v>
-      </c>
-      <c r="N143">
-        <v>1.727</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>4.5</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>4.5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
         <v>1.95</v>
       </c>
-      <c r="N144">
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2.05</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>2.4</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>2.1</v>
-      </c>
-      <c r="S144">
-        <v>1.775</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,49 +15571,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M170">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N170">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
         <v>1.9</v>
@@ -15622,25 +15622,25 @@
         <v>1.95</v>
       </c>
       <c r="W170">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z170">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,49 +15660,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
         <v>0</v>
       </c>
-      <c r="I171">
-        <v>2</v>
-      </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
         <v>1.9</v>
@@ -15711,25 +15711,25 @@
         <v>1.95</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA171">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847080</v>
+        <v>6847079</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>42</v>
+      </c>
+      <c r="K177">
+        <v>3.2</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>2.15</v>
+      </c>
+      <c r="N177">
+        <v>3.5</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="Q177">
+        <v>0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2.05</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>43</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.75</v>
-      </c>
-      <c r="M177">
-        <v>1.8</v>
-      </c>
-      <c r="N177">
-        <v>4.75</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.7</v>
-      </c>
-      <c r="Q177">
-        <v>0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847097</v>
+        <v>6847095</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,10 +18508,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18523,40 +18523,40 @@
         <v>43</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L203">
         <v>3.75</v>
       </c>
       <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>3.5</v>
+      </c>
+      <c r="O203">
         <v>3.6</v>
       </c>
-      <c r="N203">
-        <v>1.727</v>
-      </c>
-      <c r="O203">
-        <v>3.75</v>
-      </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18565,19 +18565,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
+        <v>1.025</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.925</v>
-      </c>
-      <c r="AB203">
-        <v>-1</v>
-      </c>
-      <c r="AC203">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6847095</v>
+        <v>6847097</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,10 +18597,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18612,40 +18612,40 @@
         <v>43</v>
       </c>
       <c r="K204">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N204">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q204">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18654,19 +18654,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6847098</v>
+        <v>6847101</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18772,34 +18772,34 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.4375</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K206">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N206">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O206">
         <v>3.6</v>
       </c>
       <c r="P206">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
         <v>1.85</v>
@@ -18808,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
         <v>2.025</v>
@@ -18837,7 +18837,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6847102</v>
+        <v>6847100</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18846,43 +18846,43 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.4375</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K207">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L207">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M207">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
         <v>1.925</v>
@@ -18911,7 +18911,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6851942</v>
+        <v>6847099</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18920,49 +18920,49 @@
         <v>28</v>
       </c>
       <c r="E208" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K208">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="O208">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q208">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -18977,228 +18977,6 @@
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>6847101</v>
-      </c>
-      <c r="C209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E209" s="2">
-        <v>45340.4375</v>
-      </c>
-      <c r="F209" t="s">
-        <v>35</v>
-      </c>
-      <c r="G209" t="s">
-        <v>40</v>
-      </c>
-      <c r="K209">
-        <v>3.4</v>
-      </c>
-      <c r="L209">
-        <v>3.6</v>
-      </c>
-      <c r="M209">
-        <v>2</v>
-      </c>
-      <c r="N209">
-        <v>3.7</v>
-      </c>
-      <c r="O209">
-        <v>3.6</v>
-      </c>
-      <c r="P209">
-        <v>2</v>
-      </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.85</v>
-      </c>
-      <c r="S209">
-        <v>2</v>
-      </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
-      <c r="U209">
-        <v>1.85</v>
-      </c>
-      <c r="V209">
-        <v>2</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
-      <c r="Y209">
-        <v>0</v>
-      </c>
-      <c r="Z209">
-        <v>0</v>
-      </c>
-      <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>6847100</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45340.4375</v>
-      </c>
-      <c r="F210" t="s">
-        <v>37</v>
-      </c>
-      <c r="G210" t="s">
-        <v>36</v>
-      </c>
-      <c r="K210">
-        <v>4</v>
-      </c>
-      <c r="L210">
-        <v>3.75</v>
-      </c>
-      <c r="M210">
-        <v>1.833</v>
-      </c>
-      <c r="N210">
-        <v>4</v>
-      </c>
-      <c r="O210">
-        <v>3.8</v>
-      </c>
-      <c r="P210">
-        <v>1.85</v>
-      </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.95</v>
-      </c>
-      <c r="S210">
-        <v>1.9</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.95</v>
-      </c>
-      <c r="V210">
-        <v>1.9</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>6847099</v>
-      </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45340.54166666666</v>
-      </c>
-      <c r="F211" t="s">
-        <v>29</v>
-      </c>
-      <c r="G211" t="s">
-        <v>39</v>
-      </c>
-      <c r="K211">
-        <v>2</v>
-      </c>
-      <c r="L211">
-        <v>3.6</v>
-      </c>
-      <c r="M211">
-        <v>3.4</v>
-      </c>
-      <c r="N211">
-        <v>2.1</v>
-      </c>
-      <c r="O211">
-        <v>3.6</v>
-      </c>
-      <c r="P211">
-        <v>3.4</v>
-      </c>
-      <c r="Q211">
-        <v>-0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.825</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.825</v>
-      </c>
-      <c r="V211">
-        <v>2.025</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
         <v>0</v>
       </c>
     </row>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -112,10 +112,10 @@
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>SV Ried</t>
+    <t>SCR Altach</t>
   </si>
   <si>
-    <t>SCR Altach</t>
+    <t>SV Ried</t>
   </si>
   <si>
     <t>FK Austria Vienna</t>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5205969</v>
+        <v>5205970</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -901,41 +901,41 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
+        <v>1.825</v>
+      </c>
+      <c r="V5">
         <v>2.025</v>
       </c>
-      <c r="V5">
-        <v>1.825</v>
-      </c>
       <c r="W5">
         <v>-1</v>
       </c>
@@ -943,19 +943,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5205970</v>
+        <v>5205969</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -990,41 +990,41 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>2.025</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>2.025</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -1032,19 +1032,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5205974</v>
+        <v>5205973</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,37 +1153,37 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O8">
         <v>4.2</v>
       </c>
       <c r="P8">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1198,31 +1198,31 @@
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y8">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5205973</v>
+        <v>5205974</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,37 +1242,37 @@
         <v>44975.54166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="O9">
         <v>4.2</v>
       </c>
       <c r="P9">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1287,31 +1287,31 @@
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC9">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2043,7 +2043,7 @@
         <v>44983.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5207165</v>
+        <v>5205984</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,46 +2221,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2.5</v>
@@ -2272,25 +2272,25 @@
         <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5205984</v>
+        <v>5207165</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,46 +2399,46 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>5.75</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.571</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.533</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>3.4</v>
-      </c>
-      <c r="M22">
-        <v>2.3</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
-      <c r="P22">
-        <v>2.3</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
@@ -2450,25 +2450,25 @@
         <v>2.025</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5205990</v>
+        <v>5205989</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,76 +2755,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M26">
+        <v>5.25</v>
+      </c>
+      <c r="N26">
+        <v>1.6</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>5.75</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>2.4</v>
-      </c>
-      <c r="O26">
-        <v>3.3</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>2.1</v>
-      </c>
-      <c r="S26">
-        <v>1.775</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5207164</v>
+        <v>5205986</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,55 +2844,55 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>4.2</v>
+      </c>
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="M27">
-        <v>4.5</v>
-      </c>
-      <c r="N27">
-        <v>1.7</v>
-      </c>
-      <c r="O27">
-        <v>3.8</v>
-      </c>
       <c r="P27">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2901,19 +2901,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>4.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205989</v>
+        <v>5205987</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,58 +2933,58 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.6000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205987</v>
+        <v>5205990</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,73 +3111,73 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>2.375</v>
+      </c>
+      <c r="L30">
+        <v>3.25</v>
+      </c>
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30">
-        <v>1.7</v>
-      </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>4.75</v>
-      </c>
       <c r="N30">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5205986</v>
+        <v>5207164</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,55 +3200,55 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N31">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3257,19 +3257,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5207163</v>
+        <v>5205995</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
         <v>4</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33">
-        <v>2.9</v>
-      </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N33">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5205995</v>
+        <v>5207163</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,76 +3467,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N34">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5205994</v>
+        <v>5205993</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
+        <v>2.6</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.85</v>
       </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.925</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5205993</v>
+        <v>5205994</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6430202</v>
+        <v>6430201</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,10 +3912,10 @@
         <v>45017.5</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3927,43 +3927,43 @@
         <v>42</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6430201</v>
+        <v>6430202</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,10 +4001,10 @@
         <v>45017.5</v>
       </c>
       <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4016,43 +4016,43 @@
         <v>42</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6429780</v>
+        <v>6429899</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N41">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="Q41">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>2.025</v>
       </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2.05</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y41">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
+        <v>-0</v>
+      </c>
+      <c r="AB41">
         <v>0.825</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6429899</v>
+        <v>6429780</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N42">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
+        <v>0.825</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
         <v>-0</v>
-      </c>
-      <c r="AB42">
-        <v>0.825</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>45024.5</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -4983,7 +4983,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6430210</v>
+        <v>6430211</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45038.5</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57">
+        <v>1.8</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.833</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
+        <v>1.925</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57">
-        <v>2.55</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>2.7</v>
-      </c>
-      <c r="N57">
-        <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>2.875</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.825</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>2.3</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>-0</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6430211</v>
+        <v>6430210</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45038.5</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N58">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1.825</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2.3</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-0</v>
+      </c>
+      <c r="AB58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>3</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6226,7 +6226,7 @@
         <v>45045.5</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6496,7 +6496,7 @@
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6430217</v>
+        <v>6430216</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,73 +6582,73 @@
         <v>45052.5</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L69">
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
+        <v>3.3</v>
+      </c>
+      <c r="Q69">
+        <v>-0.5</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69">
-        <v>1.85</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6430216</v>
+        <v>6430217</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,73 +6671,73 @@
         <v>45052.5</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L70">
         <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
+        <v>1.9</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.4</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>2.05</v>
-      </c>
-      <c r="S70">
-        <v>1.8</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>2.025</v>
-      </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
-      <c r="W70">
-        <v>1.05</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>1.05</v>
-      </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB70">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6429903</v>
+        <v>6430236</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6802,34 +6802,34 @@
         <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6430236</v>
+        <v>6429903</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
         <v>2</v>
@@ -6891,34 +6891,34 @@
         <v>1.85</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6430219</v>
+        <v>6430220</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45059.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O75">
         <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6430220</v>
+        <v>6430219</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45059.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
+        <v>-1</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.925</v>
+      </c>
+      <c r="AB76">
         <v>1</v>
       </c>
-      <c r="Z76">
-        <v>-1</v>
-      </c>
-      <c r="AA76">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6429786</v>
+        <v>6430237</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N77">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6430237</v>
+        <v>6429786</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,76 +7383,76 @@
         <v>45060.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L78">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N78">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q78">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7561,10 +7561,10 @@
         <v>45065.60416666666</v>
       </c>
       <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
         <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6430223</v>
+        <v>6430222</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45066.5</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6430222</v>
+        <v>6430223</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,55 +7739,55 @@
         <v>45066.5</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L82">
         <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7796,19 +7796,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6430224</v>
+        <v>6430225</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,10 +8095,10 @@
         <v>45073.5</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8110,43 +8110,43 @@
         <v>42</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.833</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,7 +8155,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6430225</v>
+        <v>6430226</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.5</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>3.1</v>
+      </c>
+      <c r="N87">
+        <v>2.625</v>
+      </c>
+      <c r="O87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>3.2</v>
-      </c>
-      <c r="N87">
-        <v>1.833</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
       <c r="P87">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6430226</v>
+        <v>6430224</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45073.5</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.3</v>
+      </c>
+      <c r="N88">
+        <v>2.1</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.3</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.975</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>1.1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0.875</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>44</v>
-      </c>
-      <c r="K88">
-        <v>2.2</v>
-      </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>3.1</v>
-      </c>
-      <c r="N88">
-        <v>2.625</v>
-      </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
-      <c r="P88">
-        <v>2.7</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>2.05</v>
-      </c>
-      <c r="V88">
-        <v>1.8</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.4</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6430228</v>
+        <v>6430227</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N94">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6429789</v>
+        <v>6430241</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45080.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L95">
+        <v>3.75</v>
+      </c>
+      <c r="M95">
+        <v>1.8</v>
+      </c>
+      <c r="N95">
+        <v>4.2</v>
+      </c>
+      <c r="O95">
         <v>4</v>
       </c>
-      <c r="M95">
-        <v>1.727</v>
-      </c>
-      <c r="N95">
-        <v>3.6</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6430241</v>
+        <v>6430240</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,58 +8985,58 @@
         <v>45080.5</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
+        <v>4.333</v>
+      </c>
+      <c r="P96">
         <v>4</v>
       </c>
-      <c r="P96">
-        <v>1.8</v>
-      </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>3.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6430240</v>
+        <v>6429789</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,67 +9074,67 @@
         <v>45080.5</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L97">
         <v>4</v>
       </c>
       <c r="M97">
+        <v>1.727</v>
+      </c>
+      <c r="N97">
+        <v>3.6</v>
+      </c>
+      <c r="O97">
         <v>3.8</v>
       </c>
-      <c r="N97">
-        <v>1.727</v>
-      </c>
-      <c r="O97">
-        <v>4.333</v>
-      </c>
       <c r="P97">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
         <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -9143,7 +9143,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,73 +9252,73 @@
         <v>45136.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
         <v>3.25</v>
       </c>
-      <c r="M99">
-        <v>3.25</v>
-      </c>
-      <c r="N99">
-        <v>1.833</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>4.2</v>
-      </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45136.5</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
         <v>1.975</v>
       </c>
-      <c r="S101">
-        <v>1.875</v>
-      </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -9700,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -10676,7 +10676,7 @@
         <v>45151.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -10946,7 +10946,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847040</v>
+        <v>6851961</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45158.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
+        <v>4.333</v>
+      </c>
+      <c r="L120">
+        <v>3.8</v>
+      </c>
+      <c r="M120">
+        <v>1.7</v>
+      </c>
+      <c r="N120">
+        <v>3.5</v>
+      </c>
+      <c r="O120">
+        <v>3.75</v>
+      </c>
+      <c r="P120">
+        <v>1.95</v>
+      </c>
+      <c r="Q120">
+        <v>0.5</v>
+      </c>
+      <c r="R120">
         <v>1.85</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.8</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
-      <c r="P120">
-        <v>3.6</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6851961</v>
+        <v>6847040</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45158.5</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
         <v>3.8</v>
       </c>
-      <c r="M121">
-        <v>1.7</v>
-      </c>
       <c r="N121">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846462</v>
+        <v>6851960</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,40 +11299,40 @@
         <v>45164.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="L122">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M122">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N122">
+        <v>1.333</v>
+      </c>
+      <c r="O122">
         <v>5.75</v>
       </c>
-      <c r="O122">
-        <v>4.2</v>
-      </c>
       <c r="P122">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11341,34 +11341,34 @@
         <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6851960</v>
+        <v>6846462</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,40 +11388,40 @@
         <v>45164.5</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123">
+        <v>6.5</v>
+      </c>
+      <c r="L123">
+        <v>5.1</v>
+      </c>
+      <c r="M123">
+        <v>1.3</v>
+      </c>
+      <c r="N123">
+        <v>5.75</v>
+      </c>
+      <c r="O123">
+        <v>4.2</v>
+      </c>
+      <c r="P123">
+        <v>1.533</v>
+      </c>
+      <c r="Q123">
         <v>1</v>
-      </c>
-      <c r="J123" t="s">
-        <v>42</v>
-      </c>
-      <c r="K123">
-        <v>1.285</v>
-      </c>
-      <c r="L123">
-        <v>5</v>
-      </c>
-      <c r="M123">
-        <v>7.5</v>
-      </c>
-      <c r="N123">
-        <v>1.333</v>
-      </c>
-      <c r="O123">
-        <v>5.75</v>
-      </c>
-      <c r="P123">
-        <v>7.5</v>
-      </c>
-      <c r="Q123">
-        <v>-1.5</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11430,34 +11430,34 @@
         <v>1.9</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
+        <v>1.875</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45165.5</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
+        <v>2.25</v>
+      </c>
+      <c r="N125">
+        <v>2.1</v>
+      </c>
+      <c r="O125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>3.25</v>
-      </c>
-      <c r="N125">
-        <v>1.85</v>
-      </c>
-      <c r="O125">
-        <v>3.8</v>
-      </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45165.5</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127">
+        <v>1.909</v>
+      </c>
+      <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
+        <v>3.25</v>
+      </c>
+      <c r="N127">
+        <v>1.85</v>
+      </c>
+      <c r="O127">
+        <v>3.8</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="J127" t="s">
-        <v>43</v>
-      </c>
-      <c r="K127">
-        <v>2.75</v>
-      </c>
-      <c r="L127">
-        <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.25</v>
-      </c>
-      <c r="N127">
-        <v>2.1</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2.05</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12011,7 +12011,7 @@
         <v>45171.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847048</v>
+        <v>6846463</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45172.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N131">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6846463</v>
+        <v>6847047</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,10 +12189,10 @@
         <v>45172.5</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12204,25 +12204,25 @@
         <v>42</v>
       </c>
       <c r="K132">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
         <v>4.2</v>
       </c>
       <c r="M132">
+        <v>4.75</v>
+      </c>
+      <c r="N132">
+        <v>1.333</v>
+      </c>
+      <c r="O132">
         <v>5.5</v>
       </c>
-      <c r="N132">
-        <v>1.5</v>
-      </c>
-      <c r="O132">
-        <v>4.2</v>
-      </c>
       <c r="P132">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12231,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
         <v>1.925</v>
@@ -12240,7 +12240,7 @@
         <v>1.925</v>
       </c>
       <c r="W132">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6847047</v>
+        <v>6847048</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,76 +12278,76 @@
         <v>45172.5</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
-      <c r="T133">
-        <v>3.25</v>
-      </c>
-      <c r="U133">
-        <v>1.925</v>
-      </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847051</v>
+        <v>6847052</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
+        <v>3.25</v>
+      </c>
+      <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2.8</v>
+      </c>
+      <c r="O137">
+        <v>3.75</v>
+      </c>
+      <c r="P137">
         <v>2.375</v>
       </c>
-      <c r="L137">
-        <v>3.25</v>
-      </c>
-      <c r="M137">
-        <v>2.75</v>
-      </c>
-      <c r="N137">
-        <v>2.5</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
       <c r="Q137">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847052</v>
+        <v>6847051</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>2.375</v>
+      </c>
+      <c r="L138">
         <v>3.25</v>
       </c>
-      <c r="L138">
-        <v>3.5</v>
-      </c>
       <c r="M138">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6851957</v>
+        <v>6847054</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,76 +12901,76 @@
         <v>45192.5</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="L140">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O140">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847054</v>
+        <v>6851957</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,76 +12990,76 @@
         <v>45192.5</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M141">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z141">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>4.5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
         <v>1.95</v>
       </c>
-      <c r="N144">
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2.05</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>2.4</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>2.1</v>
-      </c>
-      <c r="S144">
-        <v>1.775</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,13 +13969,13 @@
         <v>45206.5</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13984,43 +13984,43 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
         <v>1.9</v>
       </c>
-      <c r="S152">
-        <v>1.95</v>
-      </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14029,16 +14029,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847065</v>
+        <v>6851955</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,13 +14058,13 @@
         <v>45206.5</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14073,43 +14073,43 @@
         <v>42</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
+        <v>3.75</v>
+      </c>
+      <c r="M153">
+        <v>4.5</v>
+      </c>
+      <c r="N153">
+        <v>1.909</v>
+      </c>
+      <c r="O153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>4.333</v>
-      </c>
-      <c r="N153">
-        <v>1.571</v>
-      </c>
-      <c r="O153">
-        <v>4.333</v>
-      </c>
       <c r="P153">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
         <v>1.95</v>
       </c>
-      <c r="S153">
-        <v>1.9</v>
-      </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14118,16 +14118,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847066</v>
+        <v>6846467</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45220.5</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
         <v>5.5</v>
       </c>
       <c r="N158">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14545,34 +14545,34 @@
         <v>1.925</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z158">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6846467</v>
+        <v>6847066</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,40 +14681,40 @@
         <v>45220.5</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M160">
         <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
         <v>4</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
         <v>1.925</v>
@@ -14723,34 +14723,34 @@
         <v>1.925</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
         <v>31</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846468</v>
+        <v>6851953</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,13 +15037,13 @@
         <v>45227.5</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15052,43 +15052,43 @@
         <v>42</v>
       </c>
       <c r="K164">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="L164">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N164">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,16 +15097,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6851953</v>
+        <v>6847071</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,13 +15126,13 @@
         <v>45227.5</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15141,43 +15141,43 @@
         <v>42</v>
       </c>
       <c r="K165">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,16 +15186,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847071</v>
+        <v>6846468</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,13 +15215,13 @@
         <v>45227.5</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15230,43 +15230,43 @@
         <v>42</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
         <v>1.975</v>
       </c>
-      <c r="S166">
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15275,16 +15275,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847076</v>
+        <v>6847075</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,13 +15571,13 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -15586,43 +15586,43 @@
         <v>42</v>
       </c>
       <c r="K170">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N170">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O170">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>0.2849999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15631,16 +15631,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,49 +15660,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P171">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
         <v>1.9</v>
@@ -15711,25 +15711,25 @@
         <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z171">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6846469</v>
+        <v>6847076</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="N172">
-        <v>10</v>
+        <v>1.285</v>
       </c>
       <c r="O172">
         <v>5.75</v>
       </c>
       <c r="P172">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="Q172">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
         <v>3.25</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15838,7 +15838,7 @@
         <v>45235.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,73 +16105,73 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>42</v>
+      </c>
+      <c r="K177">
+        <v>3.2</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>2.15</v>
+      </c>
+      <c r="N177">
+        <v>3.5</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="Q177">
+        <v>0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2.05</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>43</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.75</v>
-      </c>
-      <c r="M177">
-        <v>1.8</v>
-      </c>
-      <c r="N177">
-        <v>4.75</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.7</v>
-      </c>
-      <c r="Q177">
-        <v>0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,58 +16283,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H178">
+        <v>5</v>
+      </c>
+      <c r="I178">
         <v>1</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>42</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>2.4</v>
+      </c>
+      <c r="N178">
+        <v>3.6</v>
+      </c>
+      <c r="O178">
         <v>3.5</v>
       </c>
-      <c r="M178">
-        <v>2.15</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
       <c r="P178">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
         <v>1.8</v>
       </c>
-      <c r="S178">
-        <v>2.05</v>
-      </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16343,16 +16343,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6847084</v>
+        <v>6846471</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,58 +16639,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
       </c>
       <c r="K182">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L182">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M182">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="Q182">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>0.222</v>
+        <v>0.5</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16699,16 +16699,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6846471</v>
+        <v>6847084</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,58 +16817,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L184">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>3</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
-        <v>0.5</v>
+        <v>0.222</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,16 +16877,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
+        <v>0.4375</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="AA184">
-        <v>0.4</v>
-      </c>
       <c r="AB184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6847085</v>
+        <v>6847083</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,40 +16906,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
         <v>3.4</v>
       </c>
       <c r="M185">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N185">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
         <v>1.8</v>
@@ -16948,34 +16948,34 @@
         <v>2.05</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6847083</v>
+        <v>6847085</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16995,40 +16995,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K186">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L186">
         <v>3.4</v>
       </c>
       <c r="M186">
-        <v>2.625</v>
+        <v>2.35</v>
       </c>
       <c r="N186">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O186">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17037,34 +17037,34 @@
         <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K188">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L188">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N188">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,76 +17262,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>42</v>
+      </c>
+      <c r="K189">
+        <v>1.333</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>8</v>
+      </c>
+      <c r="N189">
+        <v>1.6</v>
+      </c>
+      <c r="O189">
+        <v>4.333</v>
+      </c>
+      <c r="P189">
+        <v>5.25</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>-0</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>1</v>
-      </c>
-      <c r="J189" t="s">
-        <v>44</v>
-      </c>
-      <c r="K189">
-        <v>4</v>
-      </c>
-      <c r="L189">
-        <v>3.75</v>
-      </c>
-      <c r="M189">
-        <v>1.727</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189">
-        <v>3.6</v>
-      </c>
-      <c r="P189">
-        <v>1.909</v>
-      </c>
-      <c r="Q189">
-        <v>0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.875</v>
-      </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.6</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>0.925</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>-0.5</v>
-      </c>
-      <c r="AC189">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17618,7 +17618,7 @@
         <v>45265.625</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -18155,7 +18155,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6851943</v>
+        <v>6847096</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N201">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA201">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847096</v>
+        <v>6851943</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K202">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N202">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O202">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P202">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>2.2</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
         <v>-0.5</v>
       </c>
-      <c r="R202">
-        <v>2.05</v>
-      </c>
-      <c r="S202">
-        <v>1.8</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>2.025</v>
-      </c>
-      <c r="W202">
-        <v>1.05</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
-      <c r="Z202">
-        <v>1.05</v>
-      </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB202">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6847102</v>
+        <v>6847098</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,13 +18775,13 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -18790,43 +18790,43 @@
         <v>42</v>
       </c>
       <c r="K206">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L206">
+        <v>3.6</v>
+      </c>
+      <c r="M206">
         <v>4.2</v>
       </c>
-      <c r="M206">
-        <v>5.25</v>
-      </c>
       <c r="N206">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
         <v>4.5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18835,13 +18835,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6847098</v>
+        <v>6851942</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,76 +18864,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K207">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M207">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N207">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R207">
+        <v>2.025</v>
+      </c>
+      <c r="S207">
         <v>1.825</v>
-      </c>
-      <c r="S207">
-        <v>2.025</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6851942</v>
+        <v>6847102</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,76 +18953,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="L208">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M208">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="N208">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="O208">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X208">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6846475</v>
+        <v>6847103</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,46 +19309,46 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K212">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="L212">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="N212">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O212">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q212">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19371,7 +19371,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6847103</v>
+        <v>6847105</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19383,46 +19383,46 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N213">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19445,7 +19445,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6847105</v>
+        <v>6846475</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19457,46 +19457,46 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K214">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M214">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N214">
-        <v>2.6</v>
+        <v>1.142</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="P214">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.85</v>
       </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19558,10 +19558,10 @@
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
         <v>2.25</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -127,10 +127,10 @@
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
+    <t>WSG Swarovski Tirol</t>
   </si>
   <si>
-    <t>WSG Swarovski Tirol</t>
+    <t>Austria Lustenau</t>
   </si>
   <si>
     <t>Rapid Vienna</t>
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5207167</v>
+        <v>5205975</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,73 +1423,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P11">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2.05</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
+        <v>1.875</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
         <v>0.5</v>
       </c>
-      <c r="R11">
-        <v>1.975</v>
-      </c>
-      <c r="S11">
-        <v>1.875</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>2.025</v>
-      </c>
-      <c r="W11">
-        <v>3.2</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>1.05</v>
+      </c>
+      <c r="AB11">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5205975</v>
+        <v>5207167</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,73 +1512,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44989.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -2577,7 +2577,7 @@
         <v>44990.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5205989</v>
+        <v>5205986</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,40 +2755,40 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
         <v>1.975</v>
@@ -2797,34 +2797,34 @@
         <v>1.875</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5205986</v>
+        <v>5205987</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,76 +2844,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
         <v>3.6</v>
       </c>
       <c r="P27">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205987</v>
+        <v>5205988</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,58 +2933,58 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
         <v>3.8</v>
       </c>
-      <c r="M28">
-        <v>4.75</v>
-      </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5205988</v>
+        <v>5205990</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q29">
         <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205990</v>
+        <v>5205989</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>5.25</v>
+      </c>
+      <c r="N30">
+        <v>1.6</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>5.75</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="N30">
-        <v>2.4</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>2.1</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3467,7 +3467,7 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5205993</v>
+        <v>5205992</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35">
+        <v>2.55</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>2.625</v>
+      </c>
+      <c r="N35">
         <v>3.1</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>3.3</v>
       </c>
-      <c r="M35">
-        <v>2.3</v>
-      </c>
-      <c r="N35">
-        <v>2.7</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
       <c r="P35">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5205994</v>
+        <v>5205993</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
+        <v>2.6</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.925</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5205992</v>
+        <v>5205994</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,40 +3734,40 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
         <v>1.925</v>
@@ -3779,16 +3779,16 @@
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3800,10 +3800,10 @@
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -4446,7 +4446,7 @@
         <v>45024.5</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4894,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>45031.5</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -5514,10 +5514,10 @@
         <v>45038.5</v>
       </c>
       <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
         <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>4</v>
@@ -6315,7 +6315,7 @@
         <v>45045.5</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
@@ -6585,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6671,7 +6671,7 @@
         <v>45052.5</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -7027,7 +7027,7 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7208,7 +7208,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7739,10 +7739,10 @@
         <v>45066.5</v>
       </c>
       <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
         <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6430239</v>
+        <v>6429906</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,49 +8362,49 @@
         <v>45074.5</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
       </c>
       <c r="K89">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.825</v>
@@ -8413,7 +8413,7 @@
         <v>2.025</v>
       </c>
       <c r="W89">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8422,7 +8422,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6429788</v>
+        <v>6430239</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,10 +8451,10 @@
         <v>45074.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8466,43 +8466,43 @@
         <v>42</v>
       </c>
       <c r="K90">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L90">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>0.181</v>
+        <v>2.6</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8511,13 +8511,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6429906</v>
+        <v>6429788</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,58 +8540,58 @@
         <v>45074.5</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
+        <v>1.181</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>12</v>
+      </c>
+      <c r="N91">
+        <v>1.181</v>
+      </c>
+      <c r="O91">
+        <v>7.5</v>
+      </c>
+      <c r="P91">
+        <v>13</v>
+      </c>
+      <c r="Q91">
+        <v>-2</v>
+      </c>
+      <c r="R91">
+        <v>1.8</v>
+      </c>
+      <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
+        <v>1.9</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="L91">
-        <v>3.6</v>
-      </c>
-      <c r="M91">
-        <v>3.6</v>
-      </c>
-      <c r="N91">
-        <v>2.1</v>
-      </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>3.3</v>
-      </c>
-      <c r="Q91">
-        <v>-0.25</v>
-      </c>
-      <c r="R91">
-        <v>1.825</v>
-      </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>0.181</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8600,13 +8600,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8629,7 +8629,7 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8718,7 +8718,7 @@
         <v>45079.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -9341,7 +9341,7 @@
         <v>45136.5</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9433,7 +9433,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45144.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10056,7 +10056,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10234,7 +10234,7 @@
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10679,7 +10679,7 @@
         <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45157.5</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10854,7 +10854,7 @@
         <v>45157.5</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -11477,7 +11477,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
@@ -11658,7 +11658,7 @@
         <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11833,7 +11833,7 @@
         <v>45171.5</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
@@ -12192,7 +12192,7 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6847049</v>
+        <v>6851958</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,46 +12367,46 @@
         <v>45185.5</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N134">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O134">
         <v>3.4</v>
       </c>
       <c r="P134">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
@@ -12421,22 +12421,22 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6851958</v>
+        <v>6847049</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,46 +12456,46 @@
         <v>45185.5</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N135">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O135">
         <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12510,22 +12510,22 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12723,10 +12723,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
         <v>37</v>
-      </c>
-      <c r="G138" t="s">
-        <v>38</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12904,7 +12904,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45192.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>31</v>
@@ -13435,7 +13435,7 @@
         <v>45199.5</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13705,7 +13705,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14147,7 +14147,7 @@
         <v>45206.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847063</v>
+        <v>6847062</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N155">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
+        <v>4.75</v>
+      </c>
+      <c r="Q155">
+        <v>-0.5</v>
+      </c>
+      <c r="R155">
         <v>1.8</v>
       </c>
-      <c r="Q155">
-        <v>0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.975</v>
-      </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
         <v>0.8</v>
       </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
       <c r="AA155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847062</v>
+        <v>6847063</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,76 +14325,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L156">
+        <v>3.75</v>
+      </c>
+      <c r="M156">
+        <v>1.615</v>
+      </c>
+      <c r="N156">
         <v>4.5</v>
       </c>
-      <c r="M156">
-        <v>7.5</v>
-      </c>
-      <c r="N156">
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
         <v>1.8</v>
       </c>
-      <c r="O156">
-        <v>3.4</v>
-      </c>
-      <c r="P156">
-        <v>4.75</v>
-      </c>
       <c r="Q156">
+        <v>0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
+        <v>1.875</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
+        <v>1.875</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.8</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.875</v>
+      </c>
+      <c r="AB156">
+        <v>0.4875</v>
+      </c>
+      <c r="AC156">
         <v>-0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.8</v>
-      </c>
-      <c r="S156">
-        <v>2.05</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>2.025</v>
-      </c>
-      <c r="V156">
-        <v>1.825</v>
-      </c>
-      <c r="W156">
-        <v>0.8</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.8</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
-      <c r="AC156">
-        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14859,7 +14859,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
         <v>34</v>
@@ -15129,7 +15129,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>35</v>
@@ -15660,7 +15660,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15752,7 +15752,7 @@
         <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>42</v>
+      </c>
+      <c r="K176">
+        <v>3.2</v>
+      </c>
+      <c r="L176">
+        <v>3.5</v>
+      </c>
+      <c r="M176">
+        <v>2.15</v>
+      </c>
+      <c r="N176">
+        <v>3.5</v>
+      </c>
+      <c r="O176">
+        <v>3.75</v>
+      </c>
+      <c r="P176">
+        <v>2</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
+        <v>2.05</v>
+      </c>
+      <c r="T176">
         <v>3</v>
       </c>
-      <c r="J176" t="s">
-        <v>43</v>
-      </c>
-      <c r="K176">
-        <v>4.2</v>
-      </c>
-      <c r="L176">
-        <v>3.75</v>
-      </c>
-      <c r="M176">
-        <v>1.8</v>
-      </c>
-      <c r="N176">
-        <v>4.75</v>
-      </c>
-      <c r="O176">
-        <v>4</v>
-      </c>
-      <c r="P176">
-        <v>1.7</v>
-      </c>
-      <c r="Q176">
-        <v>0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>1.925</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,58 +16194,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
         <v>1</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
       </c>
       <c r="K177">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
+        <v>3.4</v>
+      </c>
+      <c r="M177">
+        <v>2.4</v>
+      </c>
+      <c r="N177">
+        <v>3.6</v>
+      </c>
+      <c r="O177">
         <v>3.5</v>
       </c>
-      <c r="M177">
-        <v>2.15</v>
-      </c>
-      <c r="N177">
-        <v>3.5</v>
-      </c>
-      <c r="O177">
-        <v>3.75</v>
-      </c>
       <c r="P177">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="S177">
-        <v>2.05</v>
-      </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16254,16 +16254,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,70 +16286,70 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N178">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z178">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846471</v>
+        <v>6847082</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,58 +16639,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
       </c>
       <c r="K182">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L182">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O182">
         <v>4.75</v>
       </c>
       <c r="P182">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16699,16 +16699,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16716,7 +16716,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6847082</v>
+        <v>6846471</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16728,58 +16728,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>42</v>
       </c>
       <c r="K183">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M183">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
         <v>4.75</v>
       </c>
       <c r="P183">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
         <v>3</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16788,16 +16788,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17529,7 +17529,7 @@
         <v>45265.625</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17621,7 +17621,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -17885,7 +17885,7 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
         <v>40</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18597,10 +18597,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F204" t="s">
+        <v>37</v>
+      </c>
+      <c r="G204" t="s">
         <v>38</v>
-      </c>
-      <c r="G204" t="s">
-        <v>37</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6847098</v>
+        <v>6847102</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,13 +18775,13 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -18790,43 +18790,43 @@
         <v>42</v>
       </c>
       <c r="K206">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N206">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P206">
         <v>4.5</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18835,13 +18835,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6851942</v>
+        <v>6847098</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,76 +18864,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K207">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L207">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N207">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q207">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
         <v>2.025</v>
-      </c>
-      <c r="S207">
-        <v>1.825</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6847102</v>
+        <v>6851942</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,76 +18953,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K208">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M208">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="N208">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="O208">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19131,7 +19131,7 @@
         <v>45340.4375</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>36</v>
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847103</v>
+        <v>6846475</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,31 +19309,31 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K212">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="M212">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="N212">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R212">
         <v>1.85</v>
@@ -19342,13 +19342,13 @@
         <v>2</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19398,31 +19398,31 @@
         <v>2.45</v>
       </c>
       <c r="N213">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19445,7 +19445,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6846475</v>
+        <v>6847103</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19457,46 +19457,46 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K214">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M214">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="N214">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="Q214">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19567,10 +19567,10 @@
         <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19605,7 +19605,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19641,10 +19641,10 @@
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19706,10 +19706,10 @@
         <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T217">
         <v>2.75</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>42</v>
+      </c>
+      <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.5</v>
+      </c>
+      <c r="M188">
+        <v>8</v>
+      </c>
+      <c r="N188">
+        <v>1.6</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>5.25</v>
+      </c>
+      <c r="Q188">
+        <v>-1</v>
+      </c>
+      <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>-0</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>44</v>
-      </c>
-      <c r="K188">
-        <v>4</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
-      <c r="M188">
-        <v>1.727</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>1.909</v>
-      </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.6</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.925</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-0.5</v>
-      </c>
-      <c r="AC188">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,76 +17262,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K189">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N189">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -19603,19 +19603,19 @@
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
         <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>0</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -115,19 +115,19 @@
     <t>SK Sturm Graz</t>
   </si>
   <si>
-    <t>Austria Klagenfurt</t>
+    <t>FK Austria Vienna</t>
   </si>
   <si>
-    <t>FK Austria Vienna</t>
+    <t>Austria Klagenfurt</t>
   </si>
   <si>
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>Hartberg</t>
   </si>
   <si>
-    <t>Hartberg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6430241</v>
+        <v>6429789</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,73 +978,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.9</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>2.025</v>
-      </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.95</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6429789</v>
+        <v>6430241</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>4.2</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>1.727</v>
-      </c>
-      <c r="N7">
-        <v>3.6</v>
-      </c>
-      <c r="O7">
-        <v>3.8</v>
-      </c>
       <c r="P7">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6847027</v>
+        <v>6847026</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>45136.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,73 +1331,73 @@
         <v>45136.5</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,70 +1423,70 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
         <v>3.25</v>
       </c>
-      <c r="M11">
-        <v>3.25</v>
-      </c>
-      <c r="N11">
-        <v>1.833</v>
-      </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
         <v>1.875</v>
       </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1598,7 +1598,7 @@
         <v>45137.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847032</v>
+        <v>6846459</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>1.142</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>1.75</v>
+        <v>17</v>
       </c>
       <c r="N17">
+        <v>1.166</v>
+      </c>
+      <c r="O17">
+        <v>7.5</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>-2.25</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.9</v>
+      </c>
+      <c r="T17">
         <v>3.75</v>
       </c>
-      <c r="O17">
-        <v>3.8</v>
-      </c>
-      <c r="P17">
-        <v>1.909</v>
-      </c>
-      <c r="Q17">
-        <v>0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.975</v>
-      </c>
-      <c r="S17">
-        <v>1.875</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>45144.5</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>4.2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>1.75</v>
+      </c>
+      <c r="N18">
+        <v>3.75</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>1.909</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>1.142</v>
-      </c>
-      <c r="L18">
-        <v>8</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1.166</v>
-      </c>
-      <c r="O18">
-        <v>7.5</v>
-      </c>
-      <c r="P18">
-        <v>15</v>
-      </c>
-      <c r="Q18">
-        <v>-2.25</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.9</v>
       </c>
-      <c r="T18">
-        <v>3.75</v>
-      </c>
-      <c r="U18">
-        <v>1.925</v>
-      </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
       <c r="W18">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>45147.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847036</v>
+        <v>6846460</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>45151.5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2503,43 +2503,43 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6846460</v>
+        <v>6847035</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,49 +2666,49 @@
         <v>45151.5</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N25">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
         <v>2.025</v>
@@ -2717,19 +2717,19 @@
         <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,67 +2755,67 @@
         <v>45157.5</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
+        <v>1.363</v>
+      </c>
+      <c r="Q26">
         <v>1.5</v>
       </c>
-      <c r="Q26">
-        <v>1.25</v>
-      </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,67 +2844,67 @@
         <v>45157.5</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>1.95</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
         <v>4.333</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>1.5</v>
       </c>
-      <c r="N27">
-        <v>8.5</v>
-      </c>
-      <c r="O27">
-        <v>4.75</v>
-      </c>
-      <c r="P27">
-        <v>1.363</v>
-      </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>45157.60416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3111,10 +3111,10 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6851960</v>
+        <v>6846462</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,40 +3289,40 @@
         <v>45164.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>6.5</v>
+      </c>
+      <c r="L32">
+        <v>5.1</v>
+      </c>
+      <c r="M32">
+        <v>1.3</v>
+      </c>
+      <c r="N32">
+        <v>5.75</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>1.533</v>
+      </c>
+      <c r="Q32">
         <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>1.285</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>7.5</v>
-      </c>
-      <c r="N32">
-        <v>1.333</v>
-      </c>
-      <c r="O32">
-        <v>5.75</v>
-      </c>
-      <c r="P32">
-        <v>7.5</v>
-      </c>
-      <c r="Q32">
-        <v>-1.5</v>
       </c>
       <c r="R32">
         <v>1.95</v>
@@ -3331,34 +3331,34 @@
         <v>1.9</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6846462</v>
+        <v>6851960</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,40 +3378,40 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="L33">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N33">
+        <v>1.333</v>
+      </c>
+      <c r="O33">
         <v>5.75</v>
       </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
         <v>1.95</v>
@@ -3420,34 +3420,34 @@
         <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
+        <v>1.975</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
       </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847043</v>
+        <v>6847042</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N35">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847042</v>
+        <v>6847043</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45165.5</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M36">
+        <v>4.2</v>
+      </c>
+      <c r="N36">
+        <v>1.4</v>
+      </c>
+      <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.825</v>
+      </c>
+      <c r="S36">
+        <v>2.025</v>
+      </c>
+      <c r="T36">
         <v>3.25</v>
       </c>
-      <c r="N36">
-        <v>1.85</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,10 +3734,10 @@
         <v>45165.5</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6846463</v>
+        <v>6847048</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45172.5</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
+        <v>2.025</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
         <v>3</v>
       </c>
-      <c r="U41">
-        <v>1.925</v>
-      </c>
-      <c r="V41">
-        <v>1.925</v>
-      </c>
-      <c r="W41">
-        <v>0.5</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>1.025</v>
+      </c>
+      <c r="AB41">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847048</v>
+        <v>6847047</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>45172.5</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847047</v>
+        <v>6846463</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,10 +4268,10 @@
         <v>45172.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4283,25 +4283,25 @@
         <v>43</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L43">
         <v>4.2</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N43">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4310,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
         <v>1.925</v>
@@ -4319,7 +4319,7 @@
         <v>1.925</v>
       </c>
       <c r="W43">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4357,7 +4357,7 @@
         <v>45185.5</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4713,10 +4713,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4805,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>45192.5</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6851957</v>
+        <v>6847057</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>8</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847057</v>
+        <v>6851957</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>45192.5</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O52">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="P52">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.15</v>
+        <v>8</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5250,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6851956</v>
+        <v>6846465</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45199.5</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="N56">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P56">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
+        <v>3.5</v>
+      </c>
+      <c r="U56">
+        <v>1.95</v>
+      </c>
+      <c r="V56">
         <v>1.9</v>
       </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2.025</v>
-      </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K57">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N57">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O57">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5781,7 +5781,7 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5870,7 +5870,7 @@
         <v>45200.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,76 +5959,76 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O62">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P62">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6847064</v>
+        <v>6851955</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,73 +6048,73 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>4.5</v>
+      </c>
+      <c r="N63">
+        <v>1.909</v>
+      </c>
+      <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
         <v>4</v>
       </c>
-      <c r="M63">
-        <v>1.571</v>
-      </c>
-      <c r="N63">
-        <v>7</v>
-      </c>
-      <c r="O63">
-        <v>5</v>
-      </c>
-      <c r="P63">
-        <v>1.4</v>
-      </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>2.025</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,13 +6137,13 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>43</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
         <v>1.9</v>
       </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6197,16 +6197,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6404,7 +6404,7 @@
         <v>45207.5</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>41</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45220.5</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q68">
         <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6846467</v>
+        <v>6847066</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,40 +6582,40 @@
         <v>45220.5</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M69">
         <v>5.5</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,34 +6624,34 @@
         <v>1.925</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6851954</v>
+        <v>6846467</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,76 +6671,76 @@
         <v>45220.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
+        <v>6</v>
+      </c>
+      <c r="Q70">
+        <v>-1</v>
+      </c>
+      <c r="R70">
+        <v>1.925</v>
+      </c>
+      <c r="S70">
+        <v>1.925</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2.05</v>
+      </c>
+      <c r="V70">
+        <v>1.8</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
         <v>5</v>
       </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>3</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6851953</v>
+        <v>6847071</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,13 +7027,13 @@
         <v>45227.5</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7042,43 +7042,43 @@
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7087,16 +7087,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6847071</v>
+        <v>6851953</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,13 +7116,13 @@
         <v>45227.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7131,43 +7131,43 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7176,16 +7176,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6846469</v>
+        <v>6847076</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,76 +7561,76 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="N80">
-        <v>10</v>
+        <v>1.285</v>
       </c>
       <c r="O80">
         <v>5.75</v>
       </c>
       <c r="P80">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7650,10 +7650,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6847076</v>
+        <v>6846469</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>10</v>
       </c>
       <c r="O82">
         <v>5.75</v>
       </c>
       <c r="P82">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="Q82">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>0.2849999999999999</v>
       </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>45235.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,73 +8095,73 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z86">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847079</v>
+        <v>6847081</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,73 +8184,73 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
+        <v>2.4</v>
+      </c>
+      <c r="N87">
+        <v>3.6</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
+        <v>2.05</v>
+      </c>
+      <c r="Q87">
+        <v>0.25</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>4.75</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>1.7</v>
-      </c>
-      <c r="Q87">
-        <v>0.75</v>
-      </c>
-      <c r="R87">
-        <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8273,7 +8273,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8362,7 +8362,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8540,7 +8540,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6847082</v>
+        <v>6847084</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,13 +8629,13 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8644,31 +8644,31 @@
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M92">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N92">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P92">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8689,10 +8689,10 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846471</v>
+        <v>6847082</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,58 +8718,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
         <v>4.75</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8778,16 +8778,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847084</v>
+        <v>6846471</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,58 +8807,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M94">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N94">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P94">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.222</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8867,16 +8867,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847083</v>
+        <v>6847085</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,40 +8896,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>2.35</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.8</v>
@@ -8938,34 +8938,34 @@
         <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847085</v>
+        <v>6847083</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,40 +8985,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>1.8</v>
@@ -9027,34 +9027,34 @@
         <v>2.05</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9430,10 +9430,10 @@
         <v>45264.625</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847088</v>
+        <v>6847089</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45265.625</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847089</v>
+        <v>6847088</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45265.625</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M103">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>3.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9875,10 +9875,10 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
         <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9964,10 +9964,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F107" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s">
         <v>37</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10320,10 +10320,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6847095</v>
+        <v>6847097</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,10 +10498,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,40 +10513,40 @@
         <v>42</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10555,19 +10555,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847097</v>
+        <v>6847095</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,10 +10587,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,40 +10602,40 @@
         <v>42</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3.5</v>
+      </c>
+      <c r="O114">
         <v>3.6</v>
       </c>
-      <c r="N114">
-        <v>1.727</v>
-      </c>
-      <c r="O114">
-        <v>3.75</v>
-      </c>
       <c r="P114">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10644,19 +10644,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
+        <v>1.025</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.925</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6847098</v>
+        <v>6847102</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,13 +10854,13 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -10869,43 +10869,43 @@
         <v>43</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
         <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6847102</v>
+        <v>6847098</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,13 +10943,13 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10958,43 +10958,43 @@
         <v>43</v>
       </c>
       <c r="K118">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
         <v>4.2</v>
       </c>
-      <c r="M118">
-        <v>5.25</v>
-      </c>
       <c r="N118">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
         <v>4.5</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,13 +11003,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847100</v>
+        <v>6847101</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847101</v>
+        <v>6847100</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z120">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846475</v>
+        <v>6847103</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M123">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="N123">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6847103</v>
+        <v>6846475</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="M124">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>40</v>
@@ -11747,7 +11747,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11836,7 +11836,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K128">
         <v>1.363</v>
@@ -11860,19 +11860,19 @@
         <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K129">
         <v>1.615</v>
@@ -11934,19 +11934,19 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -11996,22 +11996,22 @@
         <v>8</v>
       </c>
       <c r="N130">
-        <v>1.222</v>
+        <v>1.181</v>
       </c>
       <c r="O130">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P130">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q130">
         <v>-2</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3.25</v>
@@ -12073,28 +12073,28 @@
         <v>3.6</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
         <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K132">
         <v>3.75</v>
@@ -12144,31 +12144,31 @@
         <v>1.8</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
         <v>3.6</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q132">
         <v>0.5</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
         <v>1.975</v>
-      </c>
-      <c r="S132">
-        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K133">
         <v>3.25</v>
@@ -12230,10 +12230,10 @@
         <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>2.5</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -103,10 +103,10 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>SV Ried</t>
+    <t>Austria Lustenau</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
+    <t>SV Ried</t>
   </si>
   <si>
     <t>WSG Swarovski Tirol</t>
@@ -124,10 +124,10 @@
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Hartberg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>Hartberg</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -142,10 +142,10 @@
     <t>FC Salzburg</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6430228</v>
+        <v>6430227</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,70 +625,70 @@
         <v>37</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N2">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,70 +714,70 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1.8</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>4.2</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,70 +1245,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9">
+        <v>2.2</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
         <v>3.25</v>
       </c>
-      <c r="M9">
-        <v>3.25</v>
-      </c>
-      <c r="N9">
-        <v>1.833</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>4.2</v>
-      </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,70 +1423,70 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>1.875</v>
+      </c>
+      <c r="S11">
         <v>1.975</v>
       </c>
-      <c r="S11">
-        <v>1.875</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>3.5</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.142</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q17">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>1.95</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.9</v>
       </c>
-      <c r="T17">
-        <v>3.75</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.925</v>
-      </c>
       <c r="W17">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847032</v>
+        <v>6846459</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>45144.5</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>1.142</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>1.75</v>
+        <v>17</v>
       </c>
       <c r="N18">
+        <v>1.166</v>
+      </c>
+      <c r="O18">
+        <v>7.5</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>-2.25</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.9</v>
+      </c>
+      <c r="T18">
         <v>3.75</v>
       </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.975</v>
-      </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2310,10 +2310,10 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.533</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6846460</v>
+        <v>6847036</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,58 +2488,58 @@
         <v>45151.5</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L23">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N23">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847036</v>
+        <v>6846460</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,58 +2577,58 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M24">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2646,7 +2646,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.6</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,67 +2755,67 @@
         <v>45157.5</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.95</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
         <v>4.333</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>1.5</v>
       </c>
-      <c r="N26">
-        <v>8.5</v>
-      </c>
-      <c r="O26">
-        <v>4.75</v>
-      </c>
-      <c r="P26">
-        <v>1.363</v>
-      </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y26">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,67 +2844,67 @@
         <v>45157.5</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O27">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
+        <v>1.363</v>
+      </c>
+      <c r="Q27">
         <v>1.5</v>
       </c>
-      <c r="Q27">
-        <v>1.25</v>
-      </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>45158.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M29">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N29">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
+        <v>1.55</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="Q29">
-        <v>0.5</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
         <v>1.85</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,16 +3079,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
+        <v>0.55</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>0.95</v>
       </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6847040</v>
+        <v>6851961</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
+        <v>4.333</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.7</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>1.95</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
         <v>1.85</v>
       </c>
-      <c r="L30">
-        <v>3.6</v>
-      </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6846461</v>
+        <v>6847040</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
         <v>36</v>
       </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6846462</v>
+        <v>6851960</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,40 +3289,40 @@
         <v>45164.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="L32">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N32">
+        <v>1.333</v>
+      </c>
+      <c r="O32">
         <v>5.75</v>
       </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
         <v>1.95</v>
@@ -3331,34 +3331,34 @@
         <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
+        <v>1.975</v>
+      </c>
+      <c r="V32">
         <v>1.875</v>
       </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6851960</v>
+        <v>6846462</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,40 +3378,40 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="K33">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M33">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="N33">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="O33">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1.95</v>
@@ -3420,34 +3420,34 @@
         <v>1.9</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.975</v>
       </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>2.2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
+        <v>2.25</v>
+      </c>
+      <c r="N35">
+        <v>2.1</v>
+      </c>
+      <c r="O35">
         <v>3.5</v>
       </c>
-      <c r="M35">
-        <v>3.25</v>
-      </c>
-      <c r="N35">
-        <v>1.85</v>
-      </c>
-      <c r="O35">
-        <v>3.8</v>
-      </c>
       <c r="P35">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>45165.5</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
         <v>3.25</v>
       </c>
-      <c r="M37">
-        <v>2.25</v>
-      </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3811,7 +3811,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6851959</v>
+        <v>6847045</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3823,40 +3823,40 @@
         <v>45171.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
         <v>2.025</v>
@@ -3865,7 +3865,7 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3880,7 +3880,7 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z38">
         <v>-1</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847045</v>
+        <v>6851959</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,40 +3912,40 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3954,7 +3954,7 @@
         <v>1.825</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3969,7 +3969,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>1.5</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.444</v>
@@ -4369,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>3.4</v>
@@ -4624,7 +4624,7 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4636,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4713,7 +4713,7 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>3.25</v>
@@ -4805,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4894,7 +4894,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>1.95</v>
@@ -4983,7 +4983,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.8</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.181</v>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>3.75</v>
@@ -5250,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45199.5</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N56">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O56">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6851956</v>
+        <v>6847058</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O57">
         <v>3.4</v>
       </c>
       <c r="P57">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847058</v>
+        <v>6846465</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58">
+        <v>1.166</v>
+      </c>
+      <c r="N58">
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>1.181</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>3.2</v>
-      </c>
-      <c r="O58">
-        <v>3.4</v>
-      </c>
-      <c r="P58">
-        <v>2.25</v>
-      </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
-        <v>1.875</v>
-      </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>1.25</v>
@@ -5781,7 +5781,7 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847064</v>
+        <v>6851955</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,73 +5959,73 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>4.5</v>
+      </c>
+      <c r="N62">
+        <v>1.909</v>
+      </c>
+      <c r="O62">
+        <v>3.6</v>
+      </c>
+      <c r="P62">
         <v>4</v>
       </c>
-      <c r="M62">
-        <v>1.571</v>
-      </c>
-      <c r="N62">
-        <v>7</v>
-      </c>
-      <c r="O62">
-        <v>5</v>
-      </c>
-      <c r="P62">
-        <v>1.4</v>
-      </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>2.025</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,58 +6048,58 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N63">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
         <v>1.9</v>
       </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6108,16 +6108,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,76 +6137,76 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>43</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>5.5</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>1.4</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45220.5</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
         <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
         <v>1.825</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2.025</v>
       </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.975</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6847066</v>
+        <v>6851954</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45220.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q69">
         <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.533</v>
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6847068</v>
+        <v>6847069</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N71">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6814,16 +6814,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847069</v>
+        <v>6847068</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>2.4</v>
+      </c>
+      <c r="N72">
+        <v>2.5</v>
+      </c>
+      <c r="O72">
         <v>3.6</v>
       </c>
-      <c r="M72">
-        <v>1.95</v>
-      </c>
-      <c r="N72">
-        <v>3.8</v>
-      </c>
-      <c r="O72">
-        <v>4.2</v>
-      </c>
       <c r="P72">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q72">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>1.85</v>
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
         <v>2</v>
@@ -6903,16 +6903,16 @@
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.727</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6851953</v>
+        <v>6846468</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,58 +7116,58 @@
         <v>45227.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N75">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7176,16 +7176,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6846468</v>
+        <v>6851953</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,58 +7205,58 @@
         <v>45227.5</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7265,16 +7265,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847073</v>
+        <v>6847070</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,46 +7294,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.8</v>
+      </c>
+      <c r="P77">
+        <v>4.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
         <v>1.95</v>
       </c>
-      <c r="N77">
-        <v>4.5</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77">
-        <v>1.7</v>
-      </c>
-      <c r="Q77">
-        <v>0.75</v>
-      </c>
-      <c r="R77">
+      <c r="S77">
         <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847070</v>
+        <v>6847073</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,46 +7383,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.75</v>
+        <v>0.7</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>1.444</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,49 +7650,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
         <v>1.9</v>
@@ -7701,25 +7701,25 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z81">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,49 +7739,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
       <c r="K82">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N82">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O82">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
         <v>1.9</v>
@@ -7790,25 +7790,25 @@
         <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6847077</v>
+        <v>6851952</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,13 +7828,13 @@
         <v>45235.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -7843,61 +7843,61 @@
         <v>42</v>
       </c>
       <c r="K83">
+        <v>1.909</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.75</v>
+      </c>
+      <c r="O83">
         <v>3.6</v>
       </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>4.5</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2.025</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
         <v>0.75</v>
       </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2.05</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6851952</v>
+        <v>6847077</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,13 +7917,13 @@
         <v>45235.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -7932,61 +7932,61 @@
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z84">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8095,10 +8095,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8107,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>4.2</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847081</v>
+        <v>6847080</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,59 +8184,59 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
         <v>2.05</v>
       </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.05</v>
-      </c>
-      <c r="S87">
-        <v>1.8</v>
-      </c>
       <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>2.025</v>
+      </c>
+      <c r="V87">
+        <v>1.825</v>
+      </c>
+      <c r="W87">
         <v>2.5</v>
       </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.9</v>
-      </c>
-      <c r="W87">
-        <v>2.6</v>
-      </c>
       <c r="X87">
         <v>-1</v>
       </c>
@@ -8244,16 +8244,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,58 +8273,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.4</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>2.15</v>
-      </c>
-      <c r="N88">
-        <v>3.5</v>
-      </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
       <c r="P88">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2.05</v>
-      </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8333,16 +8333,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>4.5</v>
@@ -8632,7 +8632,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>1.2</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>1.333</v>
@@ -8810,7 +8810,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8819,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>1.363</v>
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847085</v>
+        <v>6847083</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,40 +8896,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
       </c>
       <c r="K95">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N95">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
         <v>1.8</v>
@@ -8938,34 +8938,34 @@
         <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847083</v>
+        <v>6847085</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,40 +8985,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.35</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>1.8</v>
@@ -9027,34 +9027,34 @@
         <v>2.05</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.571</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
+      </c>
+      <c r="K99">
+        <v>1.333</v>
+      </c>
+      <c r="L99">
+        <v>4.5</v>
+      </c>
+      <c r="M99">
+        <v>8</v>
+      </c>
+      <c r="N99">
+        <v>1.6</v>
+      </c>
+      <c r="O99">
+        <v>4.333</v>
+      </c>
+      <c r="P99">
+        <v>5.25</v>
+      </c>
+      <c r="Q99">
+        <v>-1</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>-0</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>44</v>
-      </c>
-      <c r="K99">
-        <v>4</v>
-      </c>
-      <c r="L99">
-        <v>3.75</v>
-      </c>
-      <c r="M99">
-        <v>1.727</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>1.909</v>
-      </c>
-      <c r="Q99">
-        <v>0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.925</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.6</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.925</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-0.5</v>
-      </c>
-      <c r="AC99">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>4.75</v>
@@ -9611,7 +9611,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9786,7 +9786,7 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
         <v>35</v>
@@ -9798,7 +9798,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6847093</v>
+        <v>7529184</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>3</v>
-      </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7529184</v>
+        <v>6847093</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>42</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>2.55</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="N108">
-        <v>2.15</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6847096</v>
+        <v>6851943</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1.85</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
+        <v>1.9</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>2.2</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
         <v>-0.5</v>
       </c>
-      <c r="R111">
-        <v>2.05</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>2.025</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1.05</v>
-      </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6851943</v>
+        <v>6847096</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N112">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA112">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10587,7 +10587,7 @@
         <v>45333.4375</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>39</v>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6851942</v>
+        <v>6847102</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="N116">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6847102</v>
+        <v>6847098</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,58 +10854,58 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
         <v>4.2</v>
       </c>
-      <c r="M117">
-        <v>5.25</v>
-      </c>
       <c r="N117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
         <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6847098</v>
+        <v>6851942</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R118">
+        <v>2.025</v>
+      </c>
+      <c r="S118">
         <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847101</v>
+        <v>6847100</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847100</v>
+        <v>6847101</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847105</v>
+        <v>6846475</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,73 +11299,73 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N122">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>26</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
         <v>1.825</v>
       </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847103</v>
+        <v>6847105</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>2.875</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>2.45</v>
+      </c>
+      <c r="N123">
+        <v>2.55</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>2.8</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>1.875</v>
+      </c>
+      <c r="V123">
+        <v>1.975</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
         <v>1.8</v>
       </c>
-      <c r="L123">
-        <v>3.8</v>
-      </c>
-      <c r="M123">
-        <v>4.2</v>
-      </c>
-      <c r="N123">
-        <v>1.8</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>4.333</v>
-      </c>
-      <c r="Q123">
-        <v>-0.75</v>
-      </c>
-      <c r="R123">
-        <v>2</v>
-      </c>
-      <c r="S123">
-        <v>1.85</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
-      </c>
-      <c r="V123">
-        <v>1.925</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>3.333</v>
-      </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6846475</v>
+        <v>6847103</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>43</v>
       </c>
       <c r="K124">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11667,7 +11667,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>6.5</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>1.95</v>
@@ -11910,7 +11910,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K129">
         <v>1.615</v>
@@ -11934,10 +11934,10 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
         <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
@@ -11984,7 +11984,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -12132,7 +12132,7 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K132">
         <v>3.75</v>
@@ -12156,19 +12156,19 @@
         <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12230,10 +12230,10 @@
         <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.5</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -103,19 +103,19 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
+    <t>WSG Swarovski Tirol</t>
   </si>
   <si>
     <t>SV Ried</t>
   </si>
   <si>
-    <t>WSG Swarovski Tirol</t>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>FK Austria Vienna</t>
   </si>
   <si>
     <t>SK Sturm Graz</t>
-  </si>
-  <si>
-    <t>FK Austria Vienna</t>
   </si>
   <si>
     <t>Austria Klagenfurt</t>
@@ -124,10 +124,10 @@
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>Hartberg</t>
   </si>
   <si>
-    <t>Hartberg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -142,13 +142,13 @@
     <t>FC Salzburg</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6430227</v>
+        <v>6430229</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,10 +622,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -634,61 +634,61 @@
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
+        <v>1.909</v>
+      </c>
+      <c r="O2">
         <v>3.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
       <c r="P2">
+        <v>3.8</v>
+      </c>
+      <c r="Q2">
+        <v>-0.5</v>
+      </c>
+      <c r="R2">
         <v>1.95</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.875</v>
-      </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.825</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
         <v>2.75</v>
       </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.95</v>
-      </c>
-      <c r="W2">
-        <v>2.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,10 +800,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -812,61 +812,61 @@
         <v>44</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>2.55</v>
+      </c>
+      <c r="N4">
         <v>3.75</v>
       </c>
-      <c r="M4">
-        <v>4.2</v>
-      </c>
-      <c r="N4">
-        <v>1.909</v>
-      </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
         <v>1.95</v>
       </c>
-      <c r="S4">
-        <v>1.9</v>
-      </c>
-      <c r="T4">
-        <v>3.25</v>
-      </c>
-      <c r="U4">
-        <v>2.025</v>
-      </c>
-      <c r="V4">
-        <v>1.825</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6430240</v>
+        <v>6429789</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,64 +889,64 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
         <v>3.8</v>
       </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
       <c r="P5">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -955,7 +955,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6429789</v>
+        <v>6430240</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,64 +978,64 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>3.8</v>
+      </c>
+      <c r="N6">
         <v>1.727</v>
       </c>
-      <c r="N6">
-        <v>3.6</v>
-      </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1044,7 +1044,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>4.2</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,70 +1245,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
         <v>1.975</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>45136.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,70 +1423,70 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
         <v>3.25</v>
       </c>
-      <c r="M11">
-        <v>3.25</v>
-      </c>
-      <c r="N11">
-        <v>1.833</v>
-      </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
         <v>1.875</v>
       </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1598,10 +1598,10 @@
         <v>45137.5</v>
       </c>
       <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1776,7 +1776,7 @@
         <v>45143.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>2.7</v>
@@ -1954,10 +1954,10 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>1.142</v>
@@ -2135,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2.6</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6847033</v>
+        <v>6847034</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,62 +2221,62 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
@@ -2284,13 +2284,13 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847034</v>
+        <v>6847033</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,62 +2310,62 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>7.5</v>
+      </c>
+      <c r="Q21">
+        <v>-1.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
+        <v>1.925</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>4</v>
       </c>
-      <c r="P21">
-        <v>4.5</v>
-      </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
@@ -2373,13 +2373,13 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>1.533</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847036</v>
+        <v>6847035</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>45151.5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
+        <v>3.8</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
+        <v>1.925</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="Q23">
-        <v>-0.25</v>
-      </c>
-      <c r="R23">
-        <v>2.05</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6846460</v>
+        <v>6847036</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,58 +2577,58 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L24">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N24">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2646,7 +2646,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847035</v>
+        <v>6846460</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,49 +2666,49 @@
         <v>45151.5</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P25">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
         <v>2.025</v>
@@ -2717,19 +2717,19 @@
         <v>1.825</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,64 +2758,64 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
+        <v>1.363</v>
+      </c>
+      <c r="Q26">
         <v>1.5</v>
       </c>
-      <c r="Q26">
-        <v>1.25</v>
-      </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,64 +2847,64 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>1.95</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
         <v>4.333</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>1.5</v>
       </c>
-      <c r="N27">
-        <v>8.5</v>
-      </c>
-      <c r="O27">
-        <v>4.75</v>
-      </c>
-      <c r="P27">
-        <v>1.363</v>
-      </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>1.7</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6846461</v>
+        <v>6847040</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>45158.5</v>
       </c>
       <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,13 +3111,13 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -3126,40 +3126,40 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
+        <v>1.55</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="Q30">
-        <v>0.5</v>
-      </c>
-      <c r="R30">
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
         <v>1.85</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,16 +3168,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
+        <v>0.55</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.95</v>
       </c>
-      <c r="Z30">
-        <v>-1</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6847040</v>
+        <v>6851961</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
+        <v>4.333</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>1.7</v>
+      </c>
+      <c r="N31">
+        <v>3.5</v>
+      </c>
+      <c r="O31">
+        <v>3.75</v>
+      </c>
+      <c r="P31">
+        <v>1.95</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
         <v>1.85</v>
       </c>
-      <c r="L31">
-        <v>3.6</v>
-      </c>
-      <c r="M31">
-        <v>3.8</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>3.4</v>
-      </c>
-      <c r="P31">
-        <v>3.6</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>2.025</v>
-      </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6851960</v>
+        <v>6846462</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,40 +3289,40 @@
         <v>45164.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>6.5</v>
+      </c>
+      <c r="L32">
+        <v>5.1</v>
+      </c>
+      <c r="M32">
+        <v>1.3</v>
+      </c>
+      <c r="N32">
+        <v>5.75</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>1.533</v>
+      </c>
+      <c r="Q32">
         <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32">
-        <v>1.285</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>7.5</v>
-      </c>
-      <c r="N32">
-        <v>1.333</v>
-      </c>
-      <c r="O32">
-        <v>5.75</v>
-      </c>
-      <c r="P32">
-        <v>7.5</v>
-      </c>
-      <c r="Q32">
-        <v>-1.5</v>
       </c>
       <c r="R32">
         <v>1.95</v>
@@ -3331,34 +3331,34 @@
         <v>1.9</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6846462</v>
+        <v>6851960</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,40 +3378,40 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="L33">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N33">
+        <v>1.333</v>
+      </c>
+      <c r="O33">
         <v>5.75</v>
       </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
         <v>1.95</v>
@@ -3420,34 +3420,34 @@
         <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
+        <v>1.975</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
       </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3556,7 +3556,7 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3648,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.615</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>1.909</v>
@@ -3823,10 +3823,10 @@
         <v>45171.5</v>
       </c>
       <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847048</v>
+        <v>6846463</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45172.5</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N41">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.5</v>
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6846463</v>
+        <v>6847048</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>45172.5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
       </c>
       <c r="K43">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
+        <v>1.825</v>
+      </c>
+      <c r="S43">
+        <v>2.025</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
         <v>1.85</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43">
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
         <v>3</v>
       </c>
-      <c r="U43">
-        <v>1.925</v>
-      </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
-      <c r="W43">
-        <v>0.5</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>1.025</v>
+      </c>
+      <c r="AB43">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>2.3</v>
@@ -4535,7 +4535,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>3.25</v>
@@ -4624,10 +4624,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
         <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4713,10 +4713,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>3.25</v>
@@ -4805,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>1.8</v>
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6847054</v>
+        <v>6851957</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45192.5</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z50">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847057</v>
+        <v>6847054</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
         <v>31</v>
       </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O51">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA51">
+        <v>-0.5</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB51">
-        <v>0.875</v>
-      </c>
-      <c r="AC51">
-        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6851957</v>
+        <v>6847057</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>45192.5</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="P52">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>8</v>
+        <v>1.15</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>1.727</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>4.5</v>
+      </c>
+      <c r="Q53">
+        <v>-0.75</v>
+      </c>
+      <c r="R53">
         <v>1.95</v>
       </c>
-      <c r="N53">
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>1.8</v>
+      </c>
+      <c r="V53">
+        <v>2.05</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>3</v>
       </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>2.4</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>2.1</v>
-      </c>
-      <c r="S53">
-        <v>1.775</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
-      <c r="W53">
-        <v>2</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>3.25</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6847058</v>
+        <v>6846465</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>1.166</v>
+      </c>
+      <c r="N57">
+        <v>11</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>1.181</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
         <v>3.5</v>
       </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>3.2</v>
-      </c>
-      <c r="O57">
-        <v>3.4</v>
-      </c>
-      <c r="P57">
-        <v>2.25</v>
-      </c>
-      <c r="Q57">
-        <v>0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6846465</v>
+        <v>6847058</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
+        <v>1.975</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
         <v>1.85</v>
       </c>
-      <c r="T58">
-        <v>3.5</v>
-      </c>
-      <c r="U58">
-        <v>1.95</v>
-      </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB58">
-        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5692,10 +5692,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>1.25</v>
@@ -5781,7 +5781,7 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>1.909</v>
@@ -5870,7 +5870,7 @@
         <v>45200.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5959,7 +5959,7 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.727</v>
@@ -6048,10 +6048,10 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6137,7 +6137,7 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6847063</v>
+        <v>6847062</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N65">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
+        <v>4.75</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5</v>
+      </c>
+      <c r="R65">
         <v>1.8</v>
       </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>0.8</v>
       </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6847062</v>
+        <v>6847063</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L66">
+        <v>3.75</v>
+      </c>
+      <c r="M66">
+        <v>1.615</v>
+      </c>
+      <c r="N66">
         <v>4.5</v>
       </c>
-      <c r="M66">
-        <v>7.5</v>
-      </c>
-      <c r="N66">
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
         <v>1.8</v>
       </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
-      <c r="P66">
-        <v>4.75</v>
-      </c>
       <c r="Q66">
+        <v>0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.975</v>
+      </c>
+      <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.8</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.875</v>
+      </c>
+      <c r="AB66">
+        <v>0.4875</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.8</v>
-      </c>
-      <c r="S66">
-        <v>2.05</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>2.025</v>
-      </c>
-      <c r="V66">
-        <v>1.825</v>
-      </c>
-      <c r="W66">
-        <v>0.8</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.8</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>9.5</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6847066</v>
+        <v>6846467</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,40 +6493,40 @@
         <v>45220.5</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
         <v>5.5</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6535,34 +6535,34 @@
         <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z68">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45220.5</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
         <v>-0.75</v>
       </c>
       <c r="R69">
+        <v>1.925</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>2.5</v>
+      </c>
+      <c r="U69">
         <v>1.825</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>2.025</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6846467</v>
+        <v>6851954</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,76 +6671,76 @@
         <v>45220.5</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.875</v>
+      </c>
+      <c r="V70">
+        <v>1.975</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>3</v>
       </c>
-      <c r="U70">
-        <v>2.05</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
       <c r="Y70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,10 +6760,10 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>2.625</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6847071</v>
+        <v>6851953</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,58 +7027,58 @@
         <v>45227.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N74">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7087,16 +7087,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.166</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6851953</v>
+        <v>6847071</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,58 +7205,58 @@
         <v>45227.5</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7265,16 +7265,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847070</v>
+        <v>6847073</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,46 +7294,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.75</v>
+        <v>0.7</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847073</v>
+        <v>6847070</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,46 +7383,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
         <v>1.95</v>
       </c>
-      <c r="N78">
-        <v>4.5</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>1.7</v>
-      </c>
-      <c r="Q78">
-        <v>0.75</v>
-      </c>
-      <c r="R78">
+      <c r="S78">
         <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847076</v>
+        <v>6847075</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,58 +7561,58 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O80">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.2849999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7621,16 +7621,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7650,7 +7650,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6847075</v>
+        <v>6847076</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,58 +7739,58 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6851952</v>
+        <v>6847077</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z83">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6847077</v>
+        <v>6851952</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
+        <v>1.909</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.75</v>
+      </c>
+      <c r="O84">
         <v>3.6</v>
       </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>4.5</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
       <c r="P84">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>2.025</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.925</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
         <v>0.75</v>
       </c>
-      <c r="R84">
-        <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2.05</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847079</v>
+        <v>6847081</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,70 +8098,70 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
+        <v>2.4</v>
+      </c>
+      <c r="N86">
+        <v>3.6</v>
+      </c>
+      <c r="O86">
+        <v>3.5</v>
+      </c>
+      <c r="P86">
+        <v>2.05</v>
+      </c>
+      <c r="Q86">
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="N86">
-        <v>4.75</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
-      <c r="P86">
-        <v>1.7</v>
-      </c>
-      <c r="Q86">
-        <v>0.75</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847080</v>
+        <v>6847079</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
         <v>37</v>
       </c>
-      <c r="G87" t="s">
-        <v>39</v>
-      </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847081</v>
+        <v>6847080</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,59 +8273,59 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2.05</v>
       </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>2.05</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
-      </c>
       <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>2.025</v>
+      </c>
+      <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
         <v>2.5</v>
       </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.9</v>
-      </c>
-      <c r="W88">
-        <v>2.6</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8333,16 +8333,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847078</v>
+        <v>6851951</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N89">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q89">
         <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6851951</v>
+        <v>6847078</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <v>3.75</v>
       </c>
       <c r="M90">
+        <v>1.666</v>
+      </c>
+      <c r="N90">
+        <v>4.5</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
         <v>1.727</v>
-      </c>
-      <c r="N90">
-        <v>4.75</v>
-      </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>1.8</v>
       </c>
       <c r="Q90">
         <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>4.8</v>
@@ -8629,10 +8629,10 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>1.2</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847082</v>
+        <v>6846471</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,58 +8718,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M93">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N93">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
         <v>4.75</v>
       </c>
       <c r="P93">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8778,16 +8778,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6846471</v>
+        <v>6847082</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,58 +8807,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L94">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
         <v>4.75</v>
       </c>
       <c r="P94">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8867,16 +8867,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8896,10 +8896,10 @@
         <v>45256.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>1.571</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N99">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9433,7 +9433,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9519,7 +9519,7 @@
         <v>45265.625</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>39</v>
@@ -9611,7 +9611,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847092</v>
+        <v>6847091</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N105">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q105">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.875</v>
       </c>
-      <c r="V105">
-        <v>1.975</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y105">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847091</v>
+        <v>6847092</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
+        <v>1.363</v>
+      </c>
+      <c r="Q106">
+        <v>1.25</v>
+      </c>
+      <c r="R106">
         <v>2.05</v>
       </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.875</v>
+      </c>
+      <c r="V106">
         <v>1.975</v>
       </c>
-      <c r="V106">
-        <v>1.875</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10053,11 +10053,11 @@
         <v>45270.4375</v>
       </c>
       <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
         <v>37</v>
       </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
       <c r="H108">
         <v>2</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10142,7 +10142,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10234,7 +10234,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6851943</v>
+        <v>6847096</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,13 +10320,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -10335,61 +10335,61 @@
         <v>44</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N111">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X111">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA111">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6847096</v>
+        <v>6851943</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,13 +10409,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -10424,61 +10424,61 @@
         <v>42</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
+        <v>-0.25</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.85</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>1.9</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>2.2</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>2.05</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
-      <c r="W112">
-        <v>1.05</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1.05</v>
-      </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10498,10 +10498,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s">
         <v>31</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>45333.4375</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>39</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6847102</v>
+        <v>6847098</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,58 +10765,58 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
+        <v>3.6</v>
+      </c>
+      <c r="M116">
         <v>4.2</v>
       </c>
-      <c r="M116">
-        <v>5.25</v>
-      </c>
       <c r="N116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
         <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10825,13 +10825,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6847098</v>
+        <v>6847102</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,58 +10854,58 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
         <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10914,13 +10914,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>8.5</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847100</v>
+        <v>6847101</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847101</v>
+        <v>6847100</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z120">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846475</v>
+        <v>6847105</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,73 +11299,73 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>1.111</v>
+        <v>2.875</v>
       </c>
       <c r="L122">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>19</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
-        <v>1.09</v>
+        <v>2.55</v>
       </c>
       <c r="O122">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>26</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
+        <v>1.825</v>
+      </c>
+      <c r="S122">
         <v>2.025</v>
       </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
         <v>1.975</v>
       </c>
-      <c r="V122">
-        <v>1.875</v>
-      </c>
       <c r="W122">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>1.025</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847105</v>
+        <v>6846475</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,73 +11388,73 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M123">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N123">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>26</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R123">
+        <v>2.025</v>
+      </c>
+      <c r="S123">
         <v>1.825</v>
       </c>
-      <c r="S123">
-        <v>2.025</v>
-      </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11655,10 +11655,10 @@
         <v>45347.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.95</v>
@@ -11851,19 +11851,19 @@
         <v>1.25</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q128">
         <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>3</v>
@@ -11907,10 +11907,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K129">
         <v>1.615</v>
@@ -11922,13 +11922,13 @@
         <v>4.75</v>
       </c>
       <c r="N129">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q129">
         <v>-0.75</v>
@@ -11984,7 +11984,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -11996,10 +11996,10 @@
         <v>8</v>
       </c>
       <c r="N130">
-        <v>1.181</v>
+        <v>1.2</v>
       </c>
       <c r="O130">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P130">
         <v>13</v>
@@ -12070,10 +12070,10 @@
         <v>1.8</v>
       </c>
       <c r="N131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
         <v>1.95</v>
@@ -12129,10 +12129,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K132">
         <v>3.75</v>
@@ -12144,22 +12144,22 @@
         <v>1.8</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O132">
         <v>3.6</v>
       </c>
       <c r="P132">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q132">
         <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.75</v>
@@ -12206,7 +12206,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K133">
         <v>3.25</v>
@@ -12218,13 +12218,13 @@
         <v>2.1</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O133">
         <v>3.3</v>
       </c>
       <c r="P133">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q133">
         <v>0.5</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -103,19 +103,19 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
     <t>WSG Swarovski Tirol</t>
   </si>
   <si>
     <t>SV Ried</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
+    <t>SK Sturm Graz</t>
   </si>
   <si>
     <t>FK Austria Vienna</t>
-  </si>
-  <si>
-    <t>SK Sturm Graz</t>
   </si>
   <si>
     <t>Austria Klagenfurt</t>
@@ -136,19 +136,19 @@
     <t>Rapid Vienna</t>
   </si>
   <si>
+    <t>FC Salzburg</t>
+  </si>
+  <si>
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>FC Salzburg</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,10 +622,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -634,61 +634,61 @@
         <v>42</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>2.55</v>
+      </c>
+      <c r="N2">
         <v>3.75</v>
       </c>
-      <c r="M2">
-        <v>4.2</v>
-      </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
+        <v>1.975</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.9</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.9</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>2.025</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
+        <v>3.75</v>
+      </c>
+      <c r="P3">
         <v>3.8</v>
       </c>
-      <c r="P3">
-        <v>2.3</v>
-      </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>2.75</v>
       </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6429789</v>
+        <v>6430240</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,64 +889,64 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>3.8</v>
+      </c>
+      <c r="N5">
         <v>1.727</v>
       </c>
-      <c r="N5">
-        <v>3.6</v>
-      </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -955,7 +955,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6430240</v>
+        <v>6429789</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,64 +978,64 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>1.727</v>
+      </c>
+      <c r="N6">
+        <v>3.6</v>
+      </c>
+      <c r="O6">
         <v>3.8</v>
       </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4.333</v>
-      </c>
       <c r="P6">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1044,7 +1044,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>4.2</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1245,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>2.1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,73 +1331,73 @@
         <v>45136.5</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <v>2.2</v>
+      </c>
+      <c r="O10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>3.1</v>
-      </c>
-      <c r="N10">
-        <v>2.3</v>
-      </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6851964</v>
+        <v>6847027</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>45136.5</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1512,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1598,10 +1598,10 @@
         <v>45137.5</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>3.5</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1776,7 +1776,7 @@
         <v>45143.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA16">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,10 +1954,10 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846459</v>
+        <v>6851963</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,73 +2046,73 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N18">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>3.75</v>
-      </c>
-      <c r="U18">
-        <v>1.925</v>
-      </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
       <c r="W18">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.6</v>
@@ -2224,7 +2224,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>1.909</v>
@@ -2310,7 +2310,7 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.363</v>
@@ -2402,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.533</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>1.6</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847036</v>
+        <v>6846460</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,58 +2577,58 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M24">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2646,7 +2646,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6846460</v>
+        <v>6847036</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,58 +2666,58 @@
         <v>45151.5</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2726,7 +2726,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2735,7 +2735,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,13 +2755,13 @@
         <v>45157.5</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2770,52 +2770,52 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.95</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
         <v>4.333</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>1.5</v>
       </c>
-      <c r="N26">
-        <v>8.5</v>
-      </c>
-      <c r="O26">
-        <v>4.75</v>
-      </c>
-      <c r="P26">
-        <v>1.363</v>
-      </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y26">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,64 +2847,64 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O27">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
+        <v>1.363</v>
+      </c>
+      <c r="Q27">
         <v>1.5</v>
       </c>
-      <c r="Q27">
-        <v>1.25</v>
-      </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.7</v>
@@ -3022,7 +3022,7 @@
         <v>45158.5</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>1.85</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6846461</v>
+        <v>6851961</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,73 +3111,73 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="L30">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N30">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>0.95</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>1</v>
       </c>
-      <c r="R30">
-        <v>1.9</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.85</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>0.55</v>
-      </c>
-      <c r="Z30">
-        <v>-1</v>
-      </c>
-      <c r="AA30">
-        <v>0.95</v>
-      </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,56 +3200,56 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
         <v>40</v>
       </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
+        <v>1.55</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="Q31">
-        <v>0.5</v>
-      </c>
-      <c r="R31">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
         <v>1.85</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>2</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
+        <v>0.55</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.95</v>
       </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>6.5</v>
@@ -3378,10 +3378,10 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>1.285</v>
@@ -3467,7 +3467,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>2.2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>1.909</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>3.25</v>
+      </c>
+      <c r="N35">
+        <v>1.85</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35">
-        <v>2.75</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>2.1</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>3.3</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.8</v>
-      </c>
-      <c r="S35">
-        <v>2.05</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.615</v>
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>45165.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
+        <v>2.25</v>
+      </c>
+      <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
         <v>3.5</v>
       </c>
-      <c r="M37">
-        <v>3.25</v>
-      </c>
-      <c r="N37">
-        <v>1.85</v>
-      </c>
-      <c r="O37">
-        <v>3.8</v>
-      </c>
       <c r="P37">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3912,10 +3912,10 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>2.1</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4090,7 +4090,7 @@
         <v>45172.5</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <v>1.444</v>
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847047</v>
+        <v>6847048</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>45172.5</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O42">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
+        <v>2.025</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
         <v>1.85</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>2</v>
       </c>
-      <c r="T42">
-        <v>3.25</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.925</v>
-      </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>1.025</v>
+      </c>
+      <c r="AB42">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847048</v>
+        <v>6847047</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>45172.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X43">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6847049</v>
+        <v>6851958</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,46 +4357,46 @@
         <v>45185.5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
       </c>
       <c r="K44">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4411,22 +4411,22 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6851958</v>
+        <v>6847049</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,46 +4446,46 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4500,22 +4500,22 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,10 +4535,10 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3.25</v>
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6847051</v>
+        <v>6847052</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
+        <v>3.25</v>
+      </c>
+      <c r="L47">
+        <v>3.5</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2.8</v>
+      </c>
+      <c r="O47">
+        <v>3.75</v>
+      </c>
+      <c r="P47">
         <v>2.375</v>
       </c>
-      <c r="L47">
-        <v>3.25</v>
-      </c>
-      <c r="M47">
-        <v>2.75</v>
-      </c>
-      <c r="N47">
-        <v>2.5</v>
-      </c>
-      <c r="O47">
-        <v>3.4</v>
-      </c>
-      <c r="P47">
-        <v>2.75</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6847052</v>
+        <v>6847051</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48">
+        <v>2.375</v>
+      </c>
+      <c r="L48">
         <v>3.25</v>
       </c>
-      <c r="L48">
-        <v>3.5</v>
-      </c>
       <c r="M48">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N48">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.8</v>
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6851957</v>
+        <v>6847054</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45192.5</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O50">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847054</v>
+        <v>6851957</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N51">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z51">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>45192.5</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5081,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>2.8</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5250,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K54">
         <v>3.75</v>
@@ -5339,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>3.25</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6851956</v>
+        <v>6846465</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45199.5</v>
       </c>
       <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
         <v>40</v>
       </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="N56">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P56">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
+        <v>3.5</v>
+      </c>
+      <c r="U56">
+        <v>1.95</v>
+      </c>
+      <c r="V56">
         <v>1.9</v>
       </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2.025</v>
-      </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6846465</v>
+        <v>6847058</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O57">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
         <v>2</v>
       </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB57">
-        <v>0.95</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847058</v>
+        <v>6851956</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
         <v>3.6</v>
       </c>
-      <c r="L58">
-        <v>3.5</v>
-      </c>
       <c r="M58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O58">
         <v>3.4</v>
       </c>
       <c r="P58">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,61 +5692,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N59">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5755,13 +5755,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,13 +5781,13 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5796,46 +5796,46 @@
         <v>42</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M60">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N60">
+        <v>1.285</v>
+      </c>
+      <c r="O60">
+        <v>6.5</v>
+      </c>
+      <c r="P60">
+        <v>9</v>
+      </c>
+      <c r="Q60">
+        <v>-1.75</v>
+      </c>
+      <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
+        <v>1.925</v>
+      </c>
+      <c r="T60">
+        <v>3.25</v>
+      </c>
+      <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>2</v>
       </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>3.6</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>2.05</v>
-      </c>
-      <c r="S60">
-        <v>1.8</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
-      <c r="V60">
-        <v>1.875</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -5844,13 +5844,13 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>45200.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,58 +5959,58 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N62">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
         <v>1.9</v>
       </c>
-      <c r="S62">
-        <v>1.95</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6019,16 +6019,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N63">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6847064</v>
+        <v>6851955</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,73 +6137,73 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
+        <v>3.75</v>
+      </c>
+      <c r="M64">
+        <v>4.5</v>
+      </c>
+      <c r="N64">
+        <v>1.909</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>1.571</v>
-      </c>
-      <c r="N64">
-        <v>7</v>
-      </c>
-      <c r="O64">
-        <v>5</v>
-      </c>
-      <c r="P64">
-        <v>1.4</v>
-      </c>
       <c r="Q64">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>2.025</v>
       </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>1.4</v>
@@ -6318,7 +6318,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6327,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>5.5</v>
@@ -6407,7 +6407,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>9.5</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6846467</v>
+        <v>6851954</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,73 +6496,73 @@
         <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
+        <v>1.975</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>3</v>
       </c>
-      <c r="U68">
-        <v>2.05</v>
-      </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6847066</v>
+        <v>6846467</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,13 +6582,13 @@
         <v>45220.5</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6597,25 +6597,25 @@
         <v>44</v>
       </c>
       <c r="K69">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
         <v>5.5</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,34 +6624,34 @@
         <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,76 +6671,76 @@
         <v>45220.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
         <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>1.925</v>
+      </c>
+      <c r="S70">
+        <v>1.925</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
         <v>1.825</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>2.025</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6847069</v>
+        <v>6847068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
+        <v>2.4</v>
+      </c>
+      <c r="N71">
+        <v>2.5</v>
+      </c>
+      <c r="O71">
         <v>3.6</v>
       </c>
-      <c r="M71">
-        <v>1.95</v>
-      </c>
-      <c r="N71">
-        <v>3.8</v>
-      </c>
-      <c r="O71">
-        <v>4.2</v>
-      </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q71">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6814,16 +6814,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847068</v>
+        <v>6847069</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
         <v>1.85</v>
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
         <v>2</v>
@@ -6903,16 +6903,16 @@
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6851953</v>
+        <v>6846468</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M74">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N74">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7087,16 +7087,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6846468</v>
+        <v>6847071</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,58 +7116,58 @@
         <v>45227.5</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="L75">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
         <v>1.875</v>
       </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7176,16 +7176,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847071</v>
+        <v>6851953</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,58 +7205,58 @@
         <v>45227.5</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7265,16 +7265,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847073</v>
+        <v>6847070</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,46 +7294,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.8</v>
+      </c>
+      <c r="P77">
+        <v>4.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
         <v>1.95</v>
       </c>
-      <c r="N77">
-        <v>4.5</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77">
-        <v>1.7</v>
-      </c>
-      <c r="Q77">
-        <v>0.75</v>
-      </c>
-      <c r="R77">
+      <c r="S77">
         <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847070</v>
+        <v>6847073</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,46 +7383,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.75</v>
+        <v>0.7</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,49 +7561,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>44</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
         <v>1.9</v>
@@ -7612,25 +7612,25 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,49 +7650,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O81">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
         <v>1.9</v>
@@ -7701,25 +7701,25 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7739,10 +7739,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.444</v>
@@ -7840,7 +7840,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>3.6</v>
@@ -7920,7 +7920,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847081</v>
+        <v>6847080</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,59 +8095,59 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <v>0.5</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
         <v>2.05</v>
       </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
       <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>2.025</v>
+      </c>
+      <c r="V86">
+        <v>1.825</v>
+      </c>
+      <c r="W86">
         <v>2.5</v>
       </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
-      <c r="W86">
-        <v>2.6</v>
-      </c>
       <c r="X86">
         <v>-1</v>
       </c>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -8196,7 +8196,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>4.2</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,58 +8273,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.4</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>2.15</v>
-      </c>
-      <c r="N88">
-        <v>3.5</v>
-      </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
       <c r="P88">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2.05</v>
-      </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8333,16 +8333,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>4.5</v>
@@ -8454,7 +8454,7 @@
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8540,10 +8540,10 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>4.8</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6847084</v>
+        <v>6847082</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,46 +8629,46 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>1.333</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>7.5</v>
+      </c>
+      <c r="N92">
+        <v>1.333</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>8.5</v>
+      </c>
+      <c r="Q92">
+        <v>-1.5</v>
+      </c>
+      <c r="R92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>44</v>
-      </c>
-      <c r="K92">
-        <v>1.2</v>
-      </c>
-      <c r="L92">
-        <v>6</v>
-      </c>
-      <c r="M92">
-        <v>11</v>
-      </c>
-      <c r="N92">
-        <v>1.222</v>
-      </c>
-      <c r="O92">
-        <v>6</v>
-      </c>
-      <c r="P92">
-        <v>12</v>
-      </c>
-      <c r="Q92">
-        <v>-1.75</v>
-      </c>
-      <c r="R92">
-        <v>1.875</v>
-      </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8689,10 +8689,10 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846471</v>
+        <v>6847084</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,58 +8718,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>0.222</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8778,16 +8778,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.4375</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="AA93">
-        <v>0.4</v>
-      </c>
       <c r="AB93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847082</v>
+        <v>6846471</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,58 +8807,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M94">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
         <v>4.75</v>
       </c>
       <c r="P94">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8867,16 +8867,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847083</v>
+        <v>6847085</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,40 +8896,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>2.35</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.8</v>
@@ -8938,34 +8938,34 @@
         <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847085</v>
+        <v>6847083</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,40 +8985,40 @@
         <v>45256.4375</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>1.8</v>
@@ -9027,34 +9027,34 @@
         <v>2.05</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.571</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,73 +9166,73 @@
         <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,73 +9255,73 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P99">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847089</v>
+        <v>6847088</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45265.625</v>
       </c>
       <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s">
         <v>29</v>
       </c>
-      <c r="G102" t="s">
-        <v>39</v>
-      </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O102">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.9</v>
       </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
-      <c r="T102">
-        <v>3.25</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847088</v>
+        <v>6847089</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45265.625</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
       </c>
       <c r="K103">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N103">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
       <c r="W103">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847091</v>
+        <v>6847092</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N105">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
+        <v>1.363</v>
+      </c>
+      <c r="Q105">
+        <v>1.25</v>
+      </c>
+      <c r="R105">
         <v>2.05</v>
       </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.875</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847092</v>
+        <v>6847091</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N106">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q106">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
+        <v>1.975</v>
+      </c>
+      <c r="V106">
         <v>1.875</v>
       </c>
-      <c r="V106">
-        <v>1.975</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7529184</v>
+        <v>6847093</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,76 +9964,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>2.55</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="N107">
-        <v>2.15</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
       <c r="P107">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6847093</v>
+        <v>7529184</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45270.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>2</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
       <c r="K108">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>3</v>
-      </c>
       <c r="N108">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10231,10 +10231,10 @@
         <v>45331.6875</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10320,7 +10320,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10498,10 +10498,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F113" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
         <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10765,7 +10765,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10777,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>1.8</v>
@@ -10857,7 +10857,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>1.6</v>
@@ -10943,10 +10943,10 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" t="s">
         <v>40</v>
-      </c>
-      <c r="G118" t="s">
-        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>8.5</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847101</v>
+        <v>6847100</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847100</v>
+        <v>6847101</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45340.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>43</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847105</v>
+        <v>6846475</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,73 +11299,73 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.875</v>
+        <v>1.111</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N122">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>26</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
         <v>1.825</v>
       </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846475</v>
+        <v>6847105</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,73 +11388,73 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>44</v>
       </c>
       <c r="K123">
-        <v>1.111</v>
+        <v>2.875</v>
       </c>
       <c r="L123">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>19</v>
+        <v>2.45</v>
       </c>
       <c r="N123">
-        <v>1.09</v>
+        <v>2.55</v>
       </c>
       <c r="O123">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>26</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
         <v>2.025</v>
       </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.875</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
         <v>1.025</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11569,7 +11569,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11655,10 +11655,10 @@
         <v>45347.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>6.5</v>
@@ -11747,7 +11747,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>1.95</v>
@@ -11833,7 +11833,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
@@ -11848,31 +11848,31 @@
         <v>6.5</v>
       </c>
       <c r="N128">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="O128">
         <v>6</v>
       </c>
       <c r="P128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q128">
         <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11907,7 +11907,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -11934,10 +11934,10 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2.5</v>
@@ -11984,7 +11984,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -12008,19 +12008,19 @@
         <v>-2</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -12082,19 +12082,19 @@
         <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
         <v>2.05</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12156,19 +12156,19 @@
         <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12203,10 +12203,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K133">
         <v>3.25</v>
@@ -12218,31 +12218,31 @@
         <v>2.1</v>
       </c>
       <c r="N133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O133">
         <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>0</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -103,16 +103,13 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
     <t>WSG Swarovski Tirol</t>
   </si>
   <si>
     <t>SV Ried</t>
-  </si>
-  <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
-    <t>Austria Klagenfurt</t>
   </si>
   <si>
     <t>SK Sturm Graz</t>
@@ -121,13 +118,16 @@
     <t>FK Austria Vienna</t>
   </si>
   <si>
+    <t>Austria Klagenfurt</t>
+  </si>
+  <si>
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>Hartberg</t>
   </si>
   <si>
-    <t>Hartberg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -142,13 +142,13 @@
     <t>FC Salzburg</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,10 +622,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -634,61 +634,61 @@
         <v>42</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>2.55</v>
+      </c>
+      <c r="N2">
         <v>3.75</v>
       </c>
-      <c r="M2">
-        <v>4.2</v>
-      </c>
-      <c r="N2">
-        <v>1.909</v>
-      </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
+        <v>1.975</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.9</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.9</v>
-      </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>2.025</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
+        <v>3.75</v>
+      </c>
+      <c r="P3">
         <v>3.8</v>
       </c>
-      <c r="P3">
-        <v>2.3</v>
-      </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>2.75</v>
       </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,70 +803,70 @@
         <v>37</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6430241</v>
+        <v>6430240</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,55 +889,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N5">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
+        <v>4.333</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>1.8</v>
-      </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>3.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -946,16 +946,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6430240</v>
+        <v>6429789</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,64 +978,64 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>1.727</v>
+      </c>
+      <c r="N6">
+        <v>3.6</v>
+      </c>
+      <c r="O6">
         <v>3.8</v>
       </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4.333</v>
-      </c>
       <c r="P6">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1044,7 +1044,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6429789</v>
+        <v>6430241</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,10 +1067,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1079,61 +1079,61 @@
         <v>42</v>
       </c>
       <c r="K7">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>4.2</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>1.727</v>
-      </c>
-      <c r="N7">
-        <v>3.6</v>
-      </c>
-      <c r="O7">
-        <v>3.8</v>
-      </c>
       <c r="P7">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,70 +1245,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
         <v>1.975</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6847027</v>
+        <v>6851964</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,73 +1331,73 @@
         <v>45136.5</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <v>2.2</v>
+      </c>
+      <c r="O10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>3.1</v>
-      </c>
-      <c r="N10">
-        <v>2.3</v>
-      </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6847026</v>
+        <v>6847027</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>45136.5</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1598,10 +1598,10 @@
         <v>45137.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>3.5</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1776,7 +1776,7 @@
         <v>45143.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.7</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.142</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q17">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>1.95</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.9</v>
       </c>
-      <c r="T17">
-        <v>3.75</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.925</v>
-      </c>
       <c r="W17">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847032</v>
+        <v>6846459</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>45144.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>1.142</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>1.75</v>
+        <v>17</v>
       </c>
       <c r="N18">
+        <v>1.166</v>
+      </c>
+      <c r="O18">
+        <v>7.5</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>-2.25</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.9</v>
+      </c>
+      <c r="T18">
         <v>3.75</v>
       </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.975</v>
-      </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>45147.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.6</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6847033</v>
+        <v>6847034</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,62 +2221,62 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
@@ -2284,13 +2284,13 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847034</v>
+        <v>6847033</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,62 +2310,62 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>7.5</v>
+      </c>
+      <c r="Q21">
+        <v>-1.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
+        <v>1.925</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>4</v>
       </c>
-      <c r="P21">
-        <v>4.5</v>
-      </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
@@ -2373,13 +2373,13 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.533</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847036</v>
+        <v>6846460</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,58 +2488,58 @@
         <v>45151.5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6846460</v>
+        <v>6847035</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,49 +2666,49 @@
         <v>45151.5</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N25">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U25">
         <v>2.025</v>
@@ -2717,19 +2717,19 @@
         <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847037</v>
+        <v>6847039</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,64 +2758,64 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
+        <v>1.363</v>
+      </c>
+      <c r="Q26">
         <v>1.5</v>
       </c>
-      <c r="Q26">
-        <v>1.25</v>
-      </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847039</v>
+        <v>6847037</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,13 +2844,13 @@
         <v>45157.5</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2859,52 +2859,52 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>1.95</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
         <v>4.333</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>1.5</v>
       </c>
-      <c r="N27">
-        <v>8.5</v>
-      </c>
-      <c r="O27">
-        <v>4.75</v>
-      </c>
-      <c r="P27">
-        <v>1.363</v>
-      </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>45157.60416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.7</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6846461</v>
+        <v>6847040</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>45158.5</v>
       </c>
       <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>43</v>
       </c>
       <c r="K29">
-        <v>9.5</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6847040</v>
+        <v>6851961</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
+        <v>4.333</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.7</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>1.95</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
         <v>1.85</v>
       </c>
-      <c r="L30">
-        <v>3.6</v>
-      </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,55 +3200,55 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
+        <v>1.55</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="Q31">
-        <v>0.5</v>
-      </c>
-      <c r="R31">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
+        <v>0.55</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.95</v>
       </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3289,7 +3289,7 @@
         <v>45164.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>1.285</v>
@@ -3378,7 +3378,7 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>6.5</v>
@@ -3467,7 +3467,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>2.2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847042</v>
+        <v>6847044</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
+        <v>2.25</v>
+      </c>
+      <c r="N35">
+        <v>2.1</v>
+      </c>
+      <c r="O35">
         <v>3.5</v>
       </c>
-      <c r="M35">
-        <v>3.25</v>
-      </c>
-      <c r="N35">
-        <v>1.85</v>
-      </c>
-      <c r="O35">
-        <v>3.8</v>
-      </c>
       <c r="P35">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45165.5</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36">
+        <v>1.909</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>3.25</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.8</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="J36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36">
-        <v>2.75</v>
-      </c>
-      <c r="L36">
-        <v>3.25</v>
-      </c>
-      <c r="M36">
-        <v>2.25</v>
-      </c>
-      <c r="N36">
-        <v>2.1</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>3.3</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>1.615</v>
@@ -3811,7 +3811,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6851959</v>
+        <v>6847045</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3823,40 +3823,40 @@
         <v>45171.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
         <v>2.025</v>
@@ -3865,7 +3865,7 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3880,7 +3880,7 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z38">
         <v>-1</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847045</v>
+        <v>6851959</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,40 +3912,40 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3954,7 +3954,7 @@
         <v>1.825</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3969,7 +3969,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6846463</v>
+        <v>6847048</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45172.5</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
+        <v>2.025</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
         <v>3</v>
       </c>
-      <c r="U41">
-        <v>1.925</v>
-      </c>
-      <c r="V41">
-        <v>1.925</v>
-      </c>
-      <c r="W41">
-        <v>0.5</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>1.025</v>
+      </c>
+      <c r="AB41">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847048</v>
+        <v>6847047</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>45172.5</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>42</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847047</v>
+        <v>6846463</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,10 +4268,10 @@
         <v>45172.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4280,28 +4280,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L43">
         <v>4.2</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N43">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4310,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
         <v>1.925</v>
@@ -4319,7 +4319,7 @@
         <v>1.925</v>
       </c>
       <c r="W43">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4446,7 +4446,7 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>3.4</v>
@@ -4535,7 +4535,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3.25</v>
@@ -4624,10 +4624,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4636,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4713,10 +4713,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>3.25</v>
@@ -4805,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.8</v>
@@ -4891,10 +4891,10 @@
         <v>45192.5</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>2.8</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>1.181</v>
@@ -5069,10 +5069,10 @@
         <v>45192.5</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.95</v>
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N53">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>1.727</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>4.5</v>
+      </c>
+      <c r="Q54">
+        <v>-0.75</v>
+      </c>
+      <c r="R54">
         <v>1.95</v>
       </c>
-      <c r="N54">
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>1.8</v>
+      </c>
+      <c r="V54">
+        <v>2.05</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>3</v>
       </c>
-      <c r="O54">
-        <v>3.3</v>
-      </c>
-      <c r="P54">
-        <v>2.4</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>2.1</v>
-      </c>
-      <c r="S54">
-        <v>1.775</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
-      <c r="W54">
-        <v>2</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>3.25</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6851956</v>
+        <v>6847058</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45199.5</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O56">
         <v>3.4</v>
       </c>
       <c r="P56">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6847058</v>
+        <v>6846465</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
       <c r="K57">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>1.166</v>
+      </c>
+      <c r="N57">
+        <v>11</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>1.181</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
         <v>3.5</v>
       </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>3.2</v>
-      </c>
-      <c r="O57">
-        <v>3.4</v>
-      </c>
-      <c r="P57">
-        <v>2.25</v>
-      </c>
-      <c r="Q57">
-        <v>0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O58">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y58">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,61 +5692,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N59">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5755,13 +5755,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,13 +5781,13 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5796,46 +5796,46 @@
         <v>42</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M60">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -5844,13 +5844,13 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>45200.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,58 +5959,58 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N62">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
         <v>1.9</v>
       </c>
-      <c r="S62">
-        <v>1.95</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6019,16 +6019,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6847065</v>
+        <v>6851955</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,58 +6048,58 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>4.5</v>
+      </c>
+      <c r="N63">
+        <v>1.909</v>
+      </c>
+      <c r="O63">
         <v>3.6</v>
       </c>
-      <c r="M63">
-        <v>4.333</v>
-      </c>
-      <c r="N63">
-        <v>1.571</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
       <c r="P63">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.9</v>
-      </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6108,16 +6108,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6149,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>5.5</v>
@@ -6226,10 +6226,10 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>5.5</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>1.4</v>
@@ -6404,7 +6404,7 @@
         <v>45207.5</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>41</v>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>9.5</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6851954</v>
+        <v>6847066</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45220.5</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>42</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
         <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
         <v>1.825</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2.025</v>
       </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.975</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6846467</v>
+        <v>6851954</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45220.5</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.875</v>
+      </c>
+      <c r="V69">
+        <v>1.975</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>3</v>
       </c>
-      <c r="U69">
-        <v>2.05</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6847066</v>
+        <v>6846467</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,13 +6671,13 @@
         <v>45220.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6686,25 +6686,25 @@
         <v>44</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M70">
         <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,34 +6713,34 @@
         <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6847069</v>
+        <v>6847068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
+        <v>2.4</v>
+      </c>
+      <c r="N71">
+        <v>2.5</v>
+      </c>
+      <c r="O71">
         <v>3.6</v>
       </c>
-      <c r="M71">
-        <v>1.95</v>
-      </c>
-      <c r="N71">
-        <v>3.8</v>
-      </c>
-      <c r="O71">
-        <v>4.2</v>
-      </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q71">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -6814,16 +6814,16 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847068</v>
+        <v>6847069</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,40 +6849,40 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
         <v>1.85</v>
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
         <v>2</v>
@@ -6903,16 +6903,16 @@
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6847071</v>
+        <v>6851953</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,58 +7027,58 @@
         <v>45227.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N74">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7087,16 +7087,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6851953</v>
+        <v>6847071</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,58 +7116,58 @@
         <v>45227.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7176,16 +7176,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>1.166</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847070</v>
+        <v>6847073</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,46 +7294,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.75</v>
+        <v>0.7</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847073</v>
+        <v>6847070</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,46 +7383,46 @@
         <v>45228.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
         <v>1.95</v>
       </c>
-      <c r="N78">
-        <v>4.5</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>1.7</v>
-      </c>
-      <c r="Q78">
-        <v>0.75</v>
-      </c>
-      <c r="R78">
+      <c r="S78">
         <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847075</v>
+        <v>6846469</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,49 +7561,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>44</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
         <v>1.9</v>
@@ -7612,25 +7612,25 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,49 +7650,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O81">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
         <v>1.9</v>
@@ -7701,25 +7701,25 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7739,10 +7739,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.444</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6851952</v>
+        <v>6847077</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,13 +7828,13 @@
         <v>45235.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -7843,61 +7843,61 @@
         <v>44</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z83">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6847077</v>
+        <v>6851952</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
+        <v>1.909</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.75</v>
+      </c>
+      <c r="O84">
         <v>3.6</v>
       </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>4.5</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
       <c r="P84">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>2.025</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.925</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
         <v>0.75</v>
       </c>
-      <c r="R84">
-        <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2.05</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8095,7 +8095,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>3.2</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,70 +8187,70 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z87">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847079</v>
+        <v>6847081</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,73 +8273,73 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.4</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
+        <v>2.05</v>
+      </c>
+      <c r="Q88">
+        <v>0.25</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>4.75</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>1.7</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.925</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847078</v>
+        <v>6851951</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N89">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q89">
         <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6851951</v>
+        <v>6847078</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <v>3.75</v>
       </c>
       <c r="M90">
+        <v>1.666</v>
+      </c>
+      <c r="N90">
+        <v>4.5</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
         <v>1.727</v>
-      </c>
-      <c r="N90">
-        <v>4.75</v>
-      </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>1.8</v>
       </c>
       <c r="Q90">
         <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>4.8</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6847084</v>
+        <v>6847082</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,46 +8629,46 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="L92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N92">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P92">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8689,10 +8689,10 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847082</v>
+        <v>6847084</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,46 +8718,46 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N93">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P93">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8769,7 +8769,7 @@
         <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8778,10 +8778,10 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8819,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>1.363</v>
@@ -8896,10 +8896,10 @@
         <v>45256.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,7 +8988,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.571</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846472</v>
+        <v>6851949</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6851949</v>
+        <v>6846472</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45263.4375</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P99">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9430,10 +9430,10 @@
         <v>45264.625</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2.4</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847088</v>
+        <v>6847089</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45265.625</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847089</v>
+        <v>6847088</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45265.625</v>
       </c>
       <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
         <v>29</v>
       </c>
-      <c r="G103" t="s">
-        <v>39</v>
-      </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M103">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>3.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847091</v>
+        <v>6847092</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N105">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
+        <v>1.363</v>
+      </c>
+      <c r="Q105">
+        <v>1.25</v>
+      </c>
+      <c r="R105">
         <v>2.05</v>
       </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.875</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847092</v>
+        <v>6847091</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N106">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q106">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
+        <v>1.975</v>
+      </c>
+      <c r="V106">
         <v>1.875</v>
       </c>
-      <c r="V106">
-        <v>1.975</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10053,11 +10053,11 @@
         <v>45270.4375</v>
       </c>
       <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
         <v>37</v>
       </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
       <c r="H108">
         <v>2</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10142,7 +10142,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10234,7 +10234,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.8</v>
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10409,10 +10409,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6847095</v>
+        <v>6847097</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,10 +10498,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10510,43 +10510,43 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10555,19 +10555,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847097</v>
+        <v>6847095</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,10 +10587,10 @@
         <v>45333.4375</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10599,43 +10599,43 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3.5</v>
+      </c>
+      <c r="O114">
         <v>3.6</v>
       </c>
-      <c r="N114">
-        <v>1.727</v>
-      </c>
-      <c r="O114">
-        <v>3.75</v>
-      </c>
       <c r="P114">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10644,19 +10644,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
+        <v>1.025</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.925</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6847098</v>
+        <v>6851942</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N116">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R116">
+        <v>2.025</v>
+      </c>
+      <c r="S116">
         <v>1.825</v>
-      </c>
-      <c r="S116">
-        <v>2.025</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6851942</v>
+        <v>6847098</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,13 +10854,13 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -10869,61 +10869,61 @@
         <v>42</v>
       </c>
       <c r="K117">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N117">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
         <v>2.025</v>
-      </c>
-      <c r="S117">
-        <v>1.825</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,10 +10943,10 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>1.6</v>
@@ -11032,10 +11032,10 @@
         <v>45340.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4</v>
@@ -11121,7 +11121,7 @@
         <v>45340.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>3.4</v>
@@ -11210,7 +11210,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11311,7 +11311,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2.875</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847103</v>
+        <v>6846475</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="L123">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="M123">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>26</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6846475</v>
+        <v>6847103</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>44</v>
       </c>
       <c r="K124">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,10 +11566,10 @@
         <v>45347.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>6.5</v>
@@ -11655,7 +11655,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>2.2</v>
@@ -11747,7 +11747,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>1.95</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847109</v>
+        <v>6851940</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,37 +11833,37 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
+        <v>3.25</v>
+      </c>
+      <c r="M128">
+        <v>2.1</v>
+      </c>
+      <c r="N128">
         <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>1.8</v>
-      </c>
-      <c r="N128">
-        <v>3.6</v>
       </c>
       <c r="O128">
         <v>3.2</v>
       </c>
       <c r="P128">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
         <v>0.25</v>
@@ -11875,34 +11875,34 @@
         <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z128">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6847108</v>
+        <v>6847110</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>42</v>
       </c>
       <c r="K129">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="L129">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>1.166</v>
+        <v>3.5</v>
       </c>
       <c r="O129">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>17</v>
+        <v>2.15</v>
       </c>
       <c r="Q129">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6851940</v>
+        <v>6847109</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,37 +12011,37 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
       </c>
       <c r="K130">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
         <v>3.2</v>
       </c>
       <c r="P130">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
         <v>0.25</v>
@@ -12053,34 +12053,34 @@
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y130">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847110</v>
+        <v>6846476</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12112,46 +12112,46 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P131">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>2.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,16 +12160,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6846476</v>
+        <v>6847107</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,58 +12189,58 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M132">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N132">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O132">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
+        <v>2.025</v>
+      </c>
+      <c r="S132">
         <v>1.825</v>
-      </c>
-      <c r="S132">
-        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0.2849999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12249,16 +12249,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6847107</v>
+        <v>6847108</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,76 +12278,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M133">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="N133">
+        <v>1.166</v>
+      </c>
+      <c r="O133">
+        <v>7</v>
+      </c>
+      <c r="P133">
+        <v>17</v>
+      </c>
+      <c r="Q133">
+        <v>-2.25</v>
+      </c>
+      <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
         <v>1.8</v>
       </c>
-      <c r="O133">
-        <v>4</v>
-      </c>
-      <c r="P133">
-        <v>4</v>
-      </c>
-      <c r="Q133">
-        <v>-0.75</v>
-      </c>
-      <c r="R133">
-        <v>2.025</v>
-      </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
+        <v>1.875</v>
+      </c>
+      <c r="V133">
         <v>1.975</v>
       </c>
-      <c r="V133">
-        <v>1.875</v>
-      </c>
       <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>6</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.8</v>
       </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>1.025</v>
-      </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,31 +12382,31 @@
         <v>1.8</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q134">
         <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6847114</v>
+        <v>6847111</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12444,43 +12444,43 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N135">
+        <v>2.05</v>
+      </c>
+      <c r="O135">
         <v>3.5</v>
       </c>
-      <c r="O135">
-        <v>3.6</v>
-      </c>
       <c r="P135">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6847111</v>
+        <v>6847112</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12515,46 +12515,46 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K136">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12577,7 +12577,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847112</v>
+        <v>6847113</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12592,43 +12592,43 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K137">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M137">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847113</v>
+        <v>6847114</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12663,46 +12663,46 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F138" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" t="s">
         <v>32</v>
       </c>
-      <c r="G138" t="s">
-        <v>39</v>
-      </c>
       <c r="K138">
+        <v>3.4</v>
+      </c>
+      <c r="L138">
         <v>3.6</v>
       </c>
-      <c r="L138">
-        <v>3.8</v>
-      </c>
       <c r="M138">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N138">
         <v>3.6</v>
       </c>
       <c r="O138">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12737,7 +12737,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -12755,7 +12755,7 @@
         <v>3.8</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
         <v>1.909</v>
@@ -12764,19 +12764,19 @@
         <v>0.5</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>0</v>

--- a/Austria Bundesliga/Austria Bundesliga.xlsx
+++ b/Austria Bundesliga/Austria Bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
+    <t>SV Ried</t>
+  </si>
+  <si>
     <t>Austria Lustenau</t>
   </si>
   <si>
     <t>WSG Swarovski Tirol</t>
   </si>
   <si>
-    <t>SV Ried</t>
+    <t>SK Sturm Graz</t>
   </si>
   <si>
-    <t>SK Sturm Graz</t>
+    <t>Austria Klagenfurt</t>
   </si>
   <si>
     <t>FK Austria Vienna</t>
   </si>
   <si>
-    <t>Austria Klagenfurt</t>
-  </si>
-  <si>
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Hartberg</t>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
+    <t>Hartberg</t>
   </si>
   <si>
     <t>SCR Altach</t>
@@ -136,19 +136,19 @@
     <t>Rapid Vienna</t>
   </si>
   <si>
+    <t>FC Salzburg</t>
+  </si>
+  <si>
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>FC Salzburg</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6430227</v>
+        <v>6430228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,70 +625,70 @@
         <v>36</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6430229</v>
+        <v>6430227</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,10 +711,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -723,61 +723,61 @@
         <v>43</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>2.55</v>
+      </c>
+      <c r="N3">
         <v>3.75</v>
       </c>
-      <c r="M3">
-        <v>4.2</v>
-      </c>
-      <c r="N3">
-        <v>1.909</v>
-      </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
+        <v>1.975</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.9</v>
+      </c>
+      <c r="V3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.9</v>
-      </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>2.025</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6430228</v>
+        <v>6430229</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
+        <v>3.75</v>
+      </c>
+      <c r="P4">
         <v>3.8</v>
       </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>3.25</v>
+      </c>
+      <c r="U4">
+        <v>2.025</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="S4">
-        <v>2.025</v>
-      </c>
-      <c r="T4">
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>2.75</v>
       </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.8</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6429789</v>
+        <v>6430241</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,10 +978,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -990,61 +990,61 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>1.8</v>
+      </c>
+      <c r="N6">
+        <v>4.2</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>1.727</v>
-      </c>
-      <c r="N6">
-        <v>3.6</v>
-      </c>
-      <c r="O6">
-        <v>3.8</v>
-      </c>
       <c r="P6">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6430241</v>
+        <v>6429789</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.95</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6847026</v>
+        <v>6851964</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,70 +1245,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9">
+        <v>2.2</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
         <v>3.25</v>
       </c>
-      <c r="M9">
-        <v>3.25</v>
-      </c>
-      <c r="N9">
-        <v>1.833</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>4.2</v>
-      </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6851964</v>
+        <v>6847026</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,70 +1334,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
         <v>1.975</v>
       </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1420,10 +1420,10 @@
         <v>45136.5</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1512,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1598,7 +1598,7 @@
         <v>45137.5</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>3.5</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6851963</v>
+        <v>6846459</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.7</v>
+        <v>1.142</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA16">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847032</v>
+        <v>6851963</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>45144.5</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.975</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
+        <v>1.9</v>
+      </c>
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846459</v>
+        <v>6847032</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>45144.5</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>1.142</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>1.75</v>
       </c>
       <c r="N18">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.9</v>
       </c>
-      <c r="T18">
-        <v>3.75</v>
-      </c>
-      <c r="U18">
-        <v>1.925</v>
-      </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
       <c r="W18">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>45147.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>2.6</v>
@@ -2221,10 +2221,10 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>1.909</v>
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>1.363</v>
@@ -2402,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.533</v>
@@ -2488,10 +2488,10 @@
         <v>45151.5</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>1.4</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847036</v>
+        <v>6847035</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45151.5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
+        <v>3.8</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
+        <v>1.925</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847035</v>
+        <v>6847036</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45151.5</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>45157.5</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>5.75</v>
@@ -2844,7 +2844,7 @@
         <v>45157.5</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>3.5</v>
@@ -2933,7 +2933,7 @@
         <v>45157.60416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>1.7</v>
@@ -3022,10 +3022,10 @@
         <v>45158.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>1.85</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6851961</v>
+        <v>6846461</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,55 +3111,55 @@
         <v>45158.5</v>
       </c>
       <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
+        <v>1.55</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="Q30">
-        <v>0.5</v>
-      </c>
-      <c r="R30">
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
         <v>1.85</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,16 +3168,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
+        <v>0.55</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.95</v>
       </c>
-      <c r="Z30">
-        <v>-1</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6846461</v>
+        <v>6851961</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,73 +3200,73 @@
         <v>45158.5</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="L31">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N31">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.925</v>
+      </c>
+      <c r="V31">
+        <v>1.925</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.95</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>1</v>
       </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.55</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.95</v>
-      </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>1.285</v>
@@ -3378,10 +3378,10 @@
         <v>45164.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>6.5</v>
@@ -3467,7 +3467,7 @@
         <v>45164.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>2.2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847044</v>
+        <v>6847042</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <v>1.909</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>3.25</v>
+      </c>
+      <c r="N35">
+        <v>1.85</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35">
-        <v>2.75</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>2.1</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>3.3</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.8</v>
-      </c>
-      <c r="S35">
-        <v>2.05</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847042</v>
+        <v>6847043</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>45165.5</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M36">
+        <v>4.2</v>
+      </c>
+      <c r="N36">
+        <v>1.4</v>
+      </c>
+      <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.825</v>
+      </c>
+      <c r="S36">
+        <v>2.025</v>
+      </c>
+      <c r="T36">
         <v>3.25</v>
       </c>
-      <c r="N36">
-        <v>1.85</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6847043</v>
+        <v>6847044</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,49 +3734,49 @@
         <v>45165.5</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
         <v>1.875</v>
@@ -3788,22 +3788,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,10 +3823,10 @@
         <v>45171.5</v>
       </c>
       <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
         <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3912,10 +3912,10 @@
         <v>45171.5</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>2.1</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4090,11 +4090,11 @@
         <v>45172.5</v>
       </c>
       <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
         <v>33</v>
       </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
       <c r="H41">
         <v>2</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847047</v>
+        <v>6846463</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,10 +4179,10 @@
         <v>45172.5</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,28 +4191,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L42">
         <v>4.2</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O42">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.85</v>
@@ -4221,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>1.925</v>
@@ -4230,7 +4230,7 @@
         <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6846463</v>
+        <v>6847047</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,10 +4268,10 @@
         <v>45172.5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4280,28 +4280,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
         <v>4.2</v>
       </c>
       <c r="M43">
+        <v>4.75</v>
+      </c>
+      <c r="N43">
+        <v>1.333</v>
+      </c>
+      <c r="O43">
         <v>5.5</v>
       </c>
-      <c r="N43">
-        <v>1.5</v>
-      </c>
-      <c r="O43">
-        <v>4.2</v>
-      </c>
       <c r="P43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4310,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
         <v>1.925</v>
@@ -4319,7 +4319,7 @@
         <v>1.925</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6851958</v>
+        <v>6847049</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,46 +4357,46 @@
         <v>45185.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4411,22 +4411,22 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847049</v>
+        <v>6851958</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,46 +4446,46 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4500,22 +4500,22 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>3.25</v>
@@ -4624,10 +4624,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4636,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4713,10 +4713,10 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>3.25</v>
@@ -4805,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.8</v>
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6847057</v>
+        <v>6847054</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45192.5</v>
       </c>
       <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
         <v>30</v>
       </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O50">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA50">
+        <v>-0.5</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>0.875</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6851957</v>
+        <v>6847057</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>8</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847054</v>
+        <v>6851957</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,76 +5069,76 @@
         <v>45192.5</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N52">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z52">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6847056</v>
+        <v>6847053</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>1.727</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>4.5</v>
+      </c>
+      <c r="Q53">
+        <v>-0.75</v>
+      </c>
+      <c r="R53">
         <v>1.95</v>
       </c>
-      <c r="N53">
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>1.8</v>
+      </c>
+      <c r="V53">
+        <v>2.05</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>3</v>
       </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>2.4</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>2.1</v>
-      </c>
-      <c r="S53">
-        <v>1.775</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
-      <c r="W53">
-        <v>2</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847053</v>
+        <v>6847056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N54">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>3.25</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6847058</v>
+        <v>6846465</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,73 +5425,73 @@
         <v>45199.5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
       </c>
       <c r="K56">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>1.166</v>
+      </c>
+      <c r="N56">
+        <v>11</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>1.181</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
         <v>3.5</v>
       </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56">
-        <v>3.2</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>2.25</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.875</v>
-      </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6846465</v>
+        <v>6851956</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45199.5</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
       <c r="K57">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N57">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="O57">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6851956</v>
+        <v>6847058</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45199.5</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
         <v>3.4</v>
       </c>
       <c r="P58">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.5</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X58">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847061</v>
+        <v>6847060</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,13 +5692,13 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5707,46 +5707,46 @@
         <v>43</v>
       </c>
       <c r="K59">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M59">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X59">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5755,13 +5755,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847060</v>
+        <v>6847061</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,61 +5781,61 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="N60">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -5844,13 +5844,13 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>45200.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847065</v>
+        <v>6847064</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,76 +5959,76 @@
         <v>45206.5</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="O62">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P62">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6851955</v>
+        <v>6847065</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,58 +6048,58 @@
         <v>45206.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N63">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
         <v>1.9</v>
       </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6108,16 +6108,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6847064</v>
+        <v>6851955</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,73 +6137,73 @@
         <v>45206.5</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
+        <v>3.75</v>
+      </c>
+      <c r="M64">
+        <v>4.5</v>
+      </c>
+      <c r="N64">
+        <v>1.909</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>1.571</v>
-      </c>
-      <c r="N64">
-        <v>7</v>
-      </c>
-      <c r="O64">
-        <v>5</v>
-      </c>
-      <c r="P64">
-        <v>1.4</v>
-      </c>
       <c r="Q64">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>2.025</v>
       </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6847063</v>
+        <v>6847062</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N65">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
+        <v>4.75</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5</v>
+      </c>
+      <c r="R65">
         <v>1.8</v>
       </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>0.8</v>
       </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6847062</v>
+        <v>6847063</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L66">
+        <v>3.75</v>
+      </c>
+      <c r="M66">
+        <v>1.615</v>
+      </c>
+      <c r="N66">
         <v>4.5</v>
       </c>
-      <c r="M66">
-        <v>7.5</v>
-      </c>
-      <c r="N66">
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
         <v>1.8</v>
       </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
-      <c r="P66">
-        <v>4.75</v>
-      </c>
       <c r="Q66">
+        <v>0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.975</v>
+      </c>
+      <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.8</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.875</v>
+      </c>
+      <c r="AB66">
+        <v>0.4875</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.8</v>
-      </c>
-      <c r="S66">
-        <v>2.05</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>2.025</v>
-      </c>
-      <c r="V66">
-        <v>1.825</v>
-      </c>
-      <c r="W66">
-        <v>0.8</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.8</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,10 +6404,10 @@
         <v>45207.5</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>9.5</v>
@@ -6496,7 +6496,7 @@
         <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.5</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6851954</v>
+        <v>6846467</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,73 +6585,73 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
+        <v>6</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
+        <v>1.925</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2.05</v>
+      </c>
+      <c r="V69">
+        <v>1.8</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>5</v>
       </c>
-      <c r="Q69">
-        <v>-0.75</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>3</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6846467</v>
+        <v>6851954</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,73 +6674,73 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
       <c r="K70">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.875</v>
+      </c>
+      <c r="V70">
+        <v>1.975</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>3</v>
       </c>
-      <c r="U70">
-        <v>2.05</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
       <c r="Y70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6849,10 +6849,10 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>3.3</v>
@@ -6941,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7027,10 +7027,10 @@
         <v>45227.5</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>2.7</v>
@@ -7116,10 +7116,10 @@
         <v>45227.5</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.727</v>
@@ -7205,7 +7205,7 @@
         <v>45227.5</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.166</v>
@@ -7294,10 +7294,10 @@
         <v>45228.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7386,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>1.5</v>
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6846469</v>
+        <v>6847075</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,49 +7561,49 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O80">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.9</v>
@@ -7612,25 +7612,25 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6847075</v>
+        <v>6847076</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,58 +7650,58 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7710,16 +7710,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6847076</v>
+        <v>6846469</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
       <c r="K82">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>10</v>
       </c>
       <c r="O82">
         <v>5.75</v>
       </c>
       <c r="P82">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="Q82">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>0.2849999999999999</v>
       </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6847077</v>
+        <v>6851952</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
+        <v>1.909</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.75</v>
+      </c>
+      <c r="O83">
         <v>3.6</v>
       </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>4.5</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2.025</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
         <v>0.75</v>
       </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2.05</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6851952</v>
+        <v>6847077</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,13 +7917,13 @@
         <v>45235.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -7932,61 +7932,61 @@
         <v>42</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z84">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>2.75</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847080</v>
+        <v>6847081</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,58 +8095,58 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>2.4</v>
+      </c>
+      <c r="N86">
+        <v>3.6</v>
+      </c>
+      <c r="O86">
         <v>3.5</v>
       </c>
-      <c r="M86">
-        <v>2.15</v>
-      </c>
-      <c r="N86">
-        <v>3.5</v>
-      </c>
-      <c r="O86">
-        <v>3.75</v>
-      </c>
       <c r="P86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="S86">
-        <v>2.05</v>
-      </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847079</v>
+        <v>6847080</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87">
+        <v>3.2</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.15</v>
+      </c>
+      <c r="N87">
+        <v>3.5</v>
+      </c>
+      <c r="O87">
+        <v>3.75</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
+        <v>2.05</v>
+      </c>
+      <c r="T87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>44</v>
-      </c>
-      <c r="K87">
-        <v>4.2</v>
-      </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>1.8</v>
-      </c>
-      <c r="N87">
-        <v>4.75</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>1.7</v>
-      </c>
-      <c r="Q87">
-        <v>0.75</v>
-      </c>
-      <c r="R87">
-        <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847081</v>
+        <v>6847079</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,70 +8276,70 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
       </c>
       <c r="K88">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z88">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8362,7 +8362,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>4.5</v>
@@ -8451,7 +8451,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -8463,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8540,10 +8540,10 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>4.8</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6847082</v>
+        <v>6846471</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,58 +8629,58 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M92">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N92">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
         <v>4.75</v>
       </c>
       <c r="P92">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.8<